--- a/3 TP Analysis/01 - Data/PROCESSED_benthic_cover_March_2023.xlsx
+++ b/3 TP Analysis/01 - Data/PROCESSED_benthic_cover_March_2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Shannon/GitHub/NFI_benthic_community/3 TP Analysis/01 - Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E50506B9-CEDF-F644-A757-D5E8F28B0225}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00DB27DB-286E-A242-BF47-0739402D72A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="900" yWindow="500" windowWidth="27900" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -113,6 +113,156 @@
     <t>T</t>
   </si>
   <si>
+    <t>March_2023CEM4_10.JPG</t>
+  </si>
+  <si>
+    <t>March_2023CEM4_1.JPG</t>
+  </si>
+  <si>
+    <t>March_2023CEM4_2.JPG</t>
+  </si>
+  <si>
+    <t>March_2023CEM4_3.JPG</t>
+  </si>
+  <si>
+    <t>March_2023CEM4_4.JPG</t>
+  </si>
+  <si>
+    <t>March_2023CEM4_5.JPG</t>
+  </si>
+  <si>
+    <t>March_2023CEM4_6.JPG</t>
+  </si>
+  <si>
+    <t>March_2023CEM4_7.JPG</t>
+  </si>
+  <si>
+    <t>March_2023CEM4_8.JPG</t>
+  </si>
+  <si>
+    <t>March_2023CEM4_9.JPG</t>
+  </si>
+  <si>
+    <t>March_2023CEM5_10.JPG</t>
+  </si>
+  <si>
+    <t>March_2023CEM5_1.JPG</t>
+  </si>
+  <si>
+    <t>March_2023CEM5_2.JPG</t>
+  </si>
+  <si>
+    <t>March_2023CEM5_3.JPG</t>
+  </si>
+  <si>
+    <t>March_2023CEM5_4.JPG</t>
+  </si>
+  <si>
+    <t>March_2023CEM5_5.JPG</t>
+  </si>
+  <si>
+    <t>March_2023CEM5_6.JPG</t>
+  </si>
+  <si>
+    <t>March_2023CEM5_7.JPG</t>
+  </si>
+  <si>
+    <t>March_2023CEM5_8.JPG</t>
+  </si>
+  <si>
+    <t>March_2023CEM5_9.JPG</t>
+  </si>
+  <si>
+    <t>March_2023CEM6_10.JPG</t>
+  </si>
+  <si>
+    <t>March_2023CEM6_1.JPG</t>
+  </si>
+  <si>
+    <t>March_2023CEM6_2.JPG</t>
+  </si>
+  <si>
+    <t>March_2023CEM6_3.JPG</t>
+  </si>
+  <si>
+    <t>March_2023CEM6_4.JPG</t>
+  </si>
+  <si>
+    <t>March_2023CEM6_5.JPG</t>
+  </si>
+  <si>
+    <t>March_2023CEM6_6.JPG</t>
+  </si>
+  <si>
+    <t>March_2023CEM6_7.JPG</t>
+  </si>
+  <si>
+    <t>March_2023CEM6_8.JPG</t>
+  </si>
+  <si>
+    <t>March_2023CEM6_9.JPG</t>
+  </si>
+  <si>
+    <t>March_2023CEM7_10.JPG</t>
+  </si>
+  <si>
+    <t>March_2023CEM7_1.JPG</t>
+  </si>
+  <si>
+    <t>March_2023CEM7_2.JPG</t>
+  </si>
+  <si>
+    <t>March_2023CEM7_3.JPG</t>
+  </si>
+  <si>
+    <t>March_2023CEM7_4.JPG</t>
+  </si>
+  <si>
+    <t>March_2023CEM7_5.JPG</t>
+  </si>
+  <si>
+    <t>March_2023CEM7_6.JPG</t>
+  </si>
+  <si>
+    <t>March_2023CEM7_7.JPG</t>
+  </si>
+  <si>
+    <t>March_2023CEM7_8.JPG</t>
+  </si>
+  <si>
+    <t>March_2023CEM7_9.JPG</t>
+  </si>
+  <si>
+    <t>March_2023CEM8_10.JPG</t>
+  </si>
+  <si>
+    <t>March_2023CEM8_1.JPG</t>
+  </si>
+  <si>
+    <t>March_2023CEM8_2.JPG</t>
+  </si>
+  <si>
+    <t>March_2023CEM8_3.JPG</t>
+  </si>
+  <si>
+    <t>March_2023CEM8_4.JPG</t>
+  </si>
+  <si>
+    <t>March_2023CEM8_5.JPG</t>
+  </si>
+  <si>
+    <t>March_2023CEM8_6.JPG</t>
+  </si>
+  <si>
+    <t>March_2023CEM8_7.JPG</t>
+  </si>
+  <si>
+    <t>March_2023CEM8_8.JPG</t>
+  </si>
+  <si>
+    <t>March_2023CEM8_9.JPG</t>
+  </si>
+  <si>
     <t>March_2023EB10_10.JPG</t>
   </si>
   <si>
@@ -1278,156 +1428,6 @@
   </si>
   <si>
     <t>Image_ID</t>
-  </si>
-  <si>
-    <t>March_2023CB4_10.JPG</t>
-  </si>
-  <si>
-    <t>March_2023CB4_1.JPG</t>
-  </si>
-  <si>
-    <t>March_2023CB4_2.JPG</t>
-  </si>
-  <si>
-    <t>March_2023CB4_3.JPG</t>
-  </si>
-  <si>
-    <t>March_2023CB4_4.JPG</t>
-  </si>
-  <si>
-    <t>March_2023CB4_5.JPG</t>
-  </si>
-  <si>
-    <t>March_2023CB4_6.JPG</t>
-  </si>
-  <si>
-    <t>March_2023CB4_7.JPG</t>
-  </si>
-  <si>
-    <t>March_2023CB4_8.JPG</t>
-  </si>
-  <si>
-    <t>March_2023CB4_9.JPG</t>
-  </si>
-  <si>
-    <t>March_2023CB5_10.JPG</t>
-  </si>
-  <si>
-    <t>March_2023CB5_1.JPG</t>
-  </si>
-  <si>
-    <t>March_2023CB5_2.JPG</t>
-  </si>
-  <si>
-    <t>March_2023CB5_3.JPG</t>
-  </si>
-  <si>
-    <t>March_2023CB5_4.JPG</t>
-  </si>
-  <si>
-    <t>March_2023CB5_5.JPG</t>
-  </si>
-  <si>
-    <t>March_2023CB5_6.JPG</t>
-  </si>
-  <si>
-    <t>March_2023CB5_7.JPG</t>
-  </si>
-  <si>
-    <t>March_2023CB5_8.JPG</t>
-  </si>
-  <si>
-    <t>March_2023CB5_9.JPG</t>
-  </si>
-  <si>
-    <t>March_2023CB6_10.JPG</t>
-  </si>
-  <si>
-    <t>March_2023CB6_1.JPG</t>
-  </si>
-  <si>
-    <t>March_2023CB6_2.JPG</t>
-  </si>
-  <si>
-    <t>March_2023CB6_3.JPG</t>
-  </si>
-  <si>
-    <t>March_2023CB6_4.JPG</t>
-  </si>
-  <si>
-    <t>March_2023CB6_5.JPG</t>
-  </si>
-  <si>
-    <t>March_2023CB6_6.JPG</t>
-  </si>
-  <si>
-    <t>March_2023CB6_7.JPG</t>
-  </si>
-  <si>
-    <t>March_2023CB6_8.JPG</t>
-  </si>
-  <si>
-    <t>March_2023CB6_9.JPG</t>
-  </si>
-  <si>
-    <t>March_2023CB7_10.JPG</t>
-  </si>
-  <si>
-    <t>March_2023CB7_1.JPG</t>
-  </si>
-  <si>
-    <t>March_2023CB7_2.JPG</t>
-  </si>
-  <si>
-    <t>March_2023CB7_3.JPG</t>
-  </si>
-  <si>
-    <t>March_2023CB7_4.JPG</t>
-  </si>
-  <si>
-    <t>March_2023CB7_5.JPG</t>
-  </si>
-  <si>
-    <t>March_2023CB7_6.JPG</t>
-  </si>
-  <si>
-    <t>March_2023CB7_7.JPG</t>
-  </si>
-  <si>
-    <t>March_2023CB7_8.JPG</t>
-  </si>
-  <si>
-    <t>March_2023CB7_9.JPG</t>
-  </si>
-  <si>
-    <t>March_2023CB8_10.JPG</t>
-  </si>
-  <si>
-    <t>March_2023CB8_1.JPG</t>
-  </si>
-  <si>
-    <t>March_2023CB8_2.JPG</t>
-  </si>
-  <si>
-    <t>March_2023CB8_3.JPG</t>
-  </si>
-  <si>
-    <t>March_2023CB8_4.JPG</t>
-  </si>
-  <si>
-    <t>March_2023CB8_5.JPG</t>
-  </si>
-  <si>
-    <t>March_2023CB8_6.JPG</t>
-  </si>
-  <si>
-    <t>March_2023CB8_7.JPG</t>
-  </si>
-  <si>
-    <t>March_2023CB8_8.JPG</t>
-  </si>
-  <si>
-    <t>March_2023CB8_9.JPG</t>
   </si>
 </sst>
 </file>
@@ -1463,8 +1463,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1769,18 +1770,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE431"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+    <sheetView tabSelected="1" topLeftCell="A390" zoomScale="125" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>418</v>
+        <v>468</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1851,7 +1853,7 @@
       <c r="X1" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>23</v>
       </c>
       <c r="Z1" t="s">
@@ -1875,7 +1877,7 @@
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>419</v>
+        <v>30</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1946,7 +1948,7 @@
       <c r="X2">
         <v>0</v>
       </c>
-      <c r="Y2">
+      <c r="Y2" s="1">
         <v>0</v>
       </c>
       <c r="Z2">
@@ -1970,7 +1972,7 @@
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>420</v>
+        <v>31</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -2041,7 +2043,7 @@
       <c r="X3">
         <v>0</v>
       </c>
-      <c r="Y3">
+      <c r="Y3" s="1">
         <v>0</v>
       </c>
       <c r="Z3">
@@ -2065,7 +2067,7 @@
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>421</v>
+        <v>32</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -2136,7 +2138,7 @@
       <c r="X4">
         <v>13</v>
       </c>
-      <c r="Y4">
+      <c r="Y4" s="1">
         <v>0</v>
       </c>
       <c r="Z4">
@@ -2160,7 +2162,7 @@
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>422</v>
+        <v>33</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -2231,7 +2233,7 @@
       <c r="X5">
         <v>0</v>
       </c>
-      <c r="Y5">
+      <c r="Y5" s="1">
         <v>1</v>
       </c>
       <c r="Z5">
@@ -2255,7 +2257,7 @@
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>423</v>
+        <v>34</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -2326,7 +2328,7 @@
       <c r="X6">
         <v>0</v>
       </c>
-      <c r="Y6">
+      <c r="Y6" s="1">
         <v>2</v>
       </c>
       <c r="Z6">
@@ -2350,7 +2352,7 @@
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>424</v>
+        <v>35</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -2421,7 +2423,7 @@
       <c r="X7">
         <v>1</v>
       </c>
-      <c r="Y7">
+      <c r="Y7" s="1">
         <v>0</v>
       </c>
       <c r="Z7">
@@ -2445,7 +2447,7 @@
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>425</v>
+        <v>36</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -2516,7 +2518,7 @@
       <c r="X8">
         <v>0</v>
       </c>
-      <c r="Y8">
+      <c r="Y8" s="1">
         <v>0</v>
       </c>
       <c r="Z8">
@@ -2540,7 +2542,7 @@
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>426</v>
+        <v>37</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -2611,7 +2613,7 @@
       <c r="X9">
         <v>0</v>
       </c>
-      <c r="Y9">
+      <c r="Y9" s="1">
         <v>0</v>
       </c>
       <c r="Z9">
@@ -2635,7 +2637,7 @@
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>427</v>
+        <v>38</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -2706,7 +2708,7 @@
       <c r="X10">
         <v>0</v>
       </c>
-      <c r="Y10">
+      <c r="Y10" s="1">
         <v>2</v>
       </c>
       <c r="Z10">
@@ -2730,7 +2732,7 @@
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>428</v>
+        <v>39</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -2801,7 +2803,7 @@
       <c r="X11">
         <v>0</v>
       </c>
-      <c r="Y11">
+      <c r="Y11" s="1">
         <v>0</v>
       </c>
       <c r="Z11">
@@ -2825,7 +2827,7 @@
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>429</v>
+        <v>40</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -2896,7 +2898,7 @@
       <c r="X12">
         <v>4</v>
       </c>
-      <c r="Y12">
+      <c r="Y12" s="1">
         <v>1</v>
       </c>
       <c r="Z12">
@@ -2920,7 +2922,7 @@
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>430</v>
+        <v>41</v>
       </c>
       <c r="B13">
         <v>7</v>
@@ -2991,7 +2993,7 @@
       <c r="X13">
         <v>0</v>
       </c>
-      <c r="Y13">
+      <c r="Y13" s="1">
         <v>1</v>
       </c>
       <c r="Z13">
@@ -3015,7 +3017,7 @@
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>431</v>
+        <v>42</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -3086,7 +3088,7 @@
       <c r="X14">
         <v>0</v>
       </c>
-      <c r="Y14">
+      <c r="Y14" s="1">
         <v>10</v>
       </c>
       <c r="Z14">
@@ -3110,7 +3112,7 @@
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>432</v>
+        <v>43</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -3181,7 +3183,7 @@
       <c r="X15">
         <v>1</v>
       </c>
-      <c r="Y15">
+      <c r="Y15" s="1">
         <v>2</v>
       </c>
       <c r="Z15">
@@ -3205,7 +3207,7 @@
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>433</v>
+        <v>44</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -3276,7 +3278,7 @@
       <c r="X16">
         <v>0</v>
       </c>
-      <c r="Y16">
+      <c r="Y16" s="1">
         <v>1</v>
       </c>
       <c r="Z16">
@@ -3300,7 +3302,7 @@
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>434</v>
+        <v>45</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -3371,7 +3373,7 @@
       <c r="X17">
         <v>1</v>
       </c>
-      <c r="Y17">
+      <c r="Y17" s="1">
         <v>6</v>
       </c>
       <c r="Z17">
@@ -3395,7 +3397,7 @@
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>435</v>
+        <v>46</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -3466,7 +3468,7 @@
       <c r="X18">
         <v>1</v>
       </c>
-      <c r="Y18">
+      <c r="Y18" s="1">
         <v>5</v>
       </c>
       <c r="Z18">
@@ -3490,7 +3492,7 @@
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>436</v>
+        <v>47</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -3561,7 +3563,7 @@
       <c r="X19">
         <v>1</v>
       </c>
-      <c r="Y19">
+      <c r="Y19" s="1">
         <v>0</v>
       </c>
       <c r="Z19">
@@ -3585,7 +3587,7 @@
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>437</v>
+        <v>48</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -3656,7 +3658,7 @@
       <c r="X20">
         <v>1</v>
       </c>
-      <c r="Y20">
+      <c r="Y20" s="1">
         <v>1</v>
       </c>
       <c r="Z20">
@@ -3680,7 +3682,7 @@
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>438</v>
+        <v>49</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -3751,7 +3753,7 @@
       <c r="X21">
         <v>0</v>
       </c>
-      <c r="Y21">
+      <c r="Y21" s="1">
         <v>3</v>
       </c>
       <c r="Z21">
@@ -3775,7 +3777,7 @@
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>439</v>
+        <v>50</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -3846,7 +3848,7 @@
       <c r="X22">
         <v>0</v>
       </c>
-      <c r="Y22">
+      <c r="Y22" s="1">
         <v>1</v>
       </c>
       <c r="Z22">
@@ -3870,7 +3872,7 @@
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>440</v>
+        <v>51</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -3941,7 +3943,7 @@
       <c r="X23">
         <v>0</v>
       </c>
-      <c r="Y23">
+      <c r="Y23" s="1">
         <v>0</v>
       </c>
       <c r="Z23">
@@ -3965,7 +3967,7 @@
     </row>
     <row r="24" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>441</v>
+        <v>52</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -4036,7 +4038,7 @@
       <c r="X24">
         <v>0</v>
       </c>
-      <c r="Y24">
+      <c r="Y24" s="1">
         <v>0</v>
       </c>
       <c r="Z24">
@@ -4060,7 +4062,7 @@
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>442</v>
+        <v>53</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -4131,7 +4133,7 @@
       <c r="X25">
         <v>0</v>
       </c>
-      <c r="Y25">
+      <c r="Y25" s="1">
         <v>0</v>
       </c>
       <c r="Z25">
@@ -4155,7 +4157,7 @@
     </row>
     <row r="26" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>443</v>
+        <v>54</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -4226,7 +4228,7 @@
       <c r="X26">
         <v>2</v>
       </c>
-      <c r="Y26">
+      <c r="Y26" s="1">
         <v>1</v>
       </c>
       <c r="Z26">
@@ -4250,7 +4252,7 @@
     </row>
     <row r="27" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>444</v>
+        <v>55</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -4321,7 +4323,7 @@
       <c r="X27">
         <v>0</v>
       </c>
-      <c r="Y27">
+      <c r="Y27" s="1">
         <v>7</v>
       </c>
       <c r="Z27">
@@ -4345,7 +4347,7 @@
     </row>
     <row r="28" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>445</v>
+        <v>56</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -4416,7 +4418,7 @@
       <c r="X28">
         <v>1</v>
       </c>
-      <c r="Y28">
+      <c r="Y28" s="1">
         <v>0</v>
       </c>
       <c r="Z28">
@@ -4440,7 +4442,7 @@
     </row>
     <row r="29" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>446</v>
+        <v>57</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -4511,7 +4513,7 @@
       <c r="X29">
         <v>0</v>
       </c>
-      <c r="Y29">
+      <c r="Y29" s="1">
         <v>1</v>
       </c>
       <c r="Z29">
@@ -4535,7 +4537,7 @@
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>447</v>
+        <v>58</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -4606,7 +4608,7 @@
       <c r="X30">
         <v>0</v>
       </c>
-      <c r="Y30">
+      <c r="Y30" s="1">
         <v>0</v>
       </c>
       <c r="Z30">
@@ -4630,7 +4632,7 @@
     </row>
     <row r="31" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>448</v>
+        <v>59</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -4701,7 +4703,7 @@
       <c r="X31">
         <v>1</v>
       </c>
-      <c r="Y31">
+      <c r="Y31" s="1">
         <v>1</v>
       </c>
       <c r="Z31">
@@ -4725,7 +4727,7 @@
     </row>
     <row r="32" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>449</v>
+        <v>60</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -4796,7 +4798,7 @@
       <c r="X32">
         <v>0</v>
       </c>
-      <c r="Y32">
+      <c r="Y32" s="1">
         <v>0</v>
       </c>
       <c r="Z32">
@@ -4820,7 +4822,7 @@
     </row>
     <row r="33" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>450</v>
+        <v>61</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -4891,7 +4893,7 @@
       <c r="X33">
         <v>0</v>
       </c>
-      <c r="Y33">
+      <c r="Y33" s="1">
         <v>0</v>
       </c>
       <c r="Z33">
@@ -4915,7 +4917,7 @@
     </row>
     <row r="34" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>451</v>
+        <v>62</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -4986,7 +4988,7 @@
       <c r="X34">
         <v>2</v>
       </c>
-      <c r="Y34">
+      <c r="Y34" s="1">
         <v>0</v>
       </c>
       <c r="Z34">
@@ -5010,7 +5012,7 @@
     </row>
     <row r="35" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>452</v>
+        <v>63</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -5081,7 +5083,7 @@
       <c r="X35">
         <v>0</v>
       </c>
-      <c r="Y35">
+      <c r="Y35" s="1">
         <v>0</v>
       </c>
       <c r="Z35">
@@ -5105,7 +5107,7 @@
     </row>
     <row r="36" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>453</v>
+        <v>64</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -5176,7 +5178,7 @@
       <c r="X36">
         <v>0</v>
       </c>
-      <c r="Y36">
+      <c r="Y36" s="1">
         <v>0</v>
       </c>
       <c r="Z36">
@@ -5200,7 +5202,7 @@
     </row>
     <row r="37" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>454</v>
+        <v>65</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -5271,7 +5273,7 @@
       <c r="X37">
         <v>7</v>
       </c>
-      <c r="Y37">
+      <c r="Y37" s="1">
         <v>0</v>
       </c>
       <c r="Z37">
@@ -5295,7 +5297,7 @@
     </row>
     <row r="38" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>455</v>
+        <v>66</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -5366,7 +5368,7 @@
       <c r="X38">
         <v>0</v>
       </c>
-      <c r="Y38">
+      <c r="Y38" s="1">
         <v>3</v>
       </c>
       <c r="Z38">
@@ -5390,7 +5392,7 @@
     </row>
     <row r="39" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>456</v>
+        <v>67</v>
       </c>
       <c r="B39">
         <v>3</v>
@@ -5461,7 +5463,7 @@
       <c r="X39">
         <v>0</v>
       </c>
-      <c r="Y39">
+      <c r="Y39" s="1">
         <v>2</v>
       </c>
       <c r="Z39">
@@ -5485,7 +5487,7 @@
     </row>
     <row r="40" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>457</v>
+        <v>68</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -5556,7 +5558,7 @@
       <c r="X40">
         <v>0</v>
       </c>
-      <c r="Y40">
+      <c r="Y40" s="1">
         <v>0</v>
       </c>
       <c r="Z40">
@@ -5580,7 +5582,7 @@
     </row>
     <row r="41" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>458</v>
+        <v>69</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -5651,7 +5653,7 @@
       <c r="X41">
         <v>0</v>
       </c>
-      <c r="Y41">
+      <c r="Y41" s="1">
         <v>0</v>
       </c>
       <c r="Z41">
@@ -5675,7 +5677,7 @@
     </row>
     <row r="42" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>459</v>
+        <v>70</v>
       </c>
       <c r="B42">
         <v>19</v>
@@ -5746,7 +5748,7 @@
       <c r="X42">
         <v>0</v>
       </c>
-      <c r="Y42">
+      <c r="Y42" s="1">
         <v>2</v>
       </c>
       <c r="Z42">
@@ -5770,7 +5772,7 @@
     </row>
     <row r="43" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>460</v>
+        <v>71</v>
       </c>
       <c r="B43">
         <v>9</v>
@@ -5841,7 +5843,7 @@
       <c r="X43">
         <v>2</v>
       </c>
-      <c r="Y43">
+      <c r="Y43" s="1">
         <v>0</v>
       </c>
       <c r="Z43">
@@ -5865,7 +5867,7 @@
     </row>
     <row r="44" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>461</v>
+        <v>72</v>
       </c>
       <c r="B44">
         <v>6</v>
@@ -5936,7 +5938,7 @@
       <c r="X44">
         <v>3</v>
       </c>
-      <c r="Y44">
+      <c r="Y44" s="1">
         <v>0</v>
       </c>
       <c r="Z44">
@@ -5960,7 +5962,7 @@
     </row>
     <row r="45" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>462</v>
+        <v>73</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -6031,7 +6033,7 @@
       <c r="X45">
         <v>1</v>
       </c>
-      <c r="Y45">
+      <c r="Y45" s="1">
         <v>0</v>
       </c>
       <c r="Z45">
@@ -6055,7 +6057,7 @@
     </row>
     <row r="46" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>463</v>
+        <v>74</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -6126,7 +6128,7 @@
       <c r="X46">
         <v>10</v>
       </c>
-      <c r="Y46">
+      <c r="Y46" s="1">
         <v>0</v>
       </c>
       <c r="Z46">
@@ -6150,7 +6152,7 @@
     </row>
     <row r="47" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>464</v>
+        <v>75</v>
       </c>
       <c r="B47">
         <v>22</v>
@@ -6221,7 +6223,7 @@
       <c r="X47">
         <v>5</v>
       </c>
-      <c r="Y47">
+      <c r="Y47" s="1">
         <v>2</v>
       </c>
       <c r="Z47">
@@ -6245,7 +6247,7 @@
     </row>
     <row r="48" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>465</v>
+        <v>76</v>
       </c>
       <c r="B48">
         <v>17</v>
@@ -6316,7 +6318,7 @@
       <c r="X48">
         <v>1</v>
       </c>
-      <c r="Y48">
+      <c r="Y48" s="1">
         <v>2</v>
       </c>
       <c r="Z48">
@@ -6340,7 +6342,7 @@
     </row>
     <row r="49" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>466</v>
+        <v>77</v>
       </c>
       <c r="B49">
         <v>2</v>
@@ -6411,7 +6413,7 @@
       <c r="X49">
         <v>8</v>
       </c>
-      <c r="Y49">
+      <c r="Y49" s="1">
         <v>3</v>
       </c>
       <c r="Z49">
@@ -6435,7 +6437,7 @@
     </row>
     <row r="50" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>467</v>
+        <v>78</v>
       </c>
       <c r="B50">
         <v>6</v>
@@ -6506,7 +6508,7 @@
       <c r="X50">
         <v>4</v>
       </c>
-      <c r="Y50">
+      <c r="Y50" s="1">
         <v>4</v>
       </c>
       <c r="Z50">
@@ -6530,7 +6532,7 @@
     </row>
     <row r="51" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>468</v>
+        <v>79</v>
       </c>
       <c r="B51">
         <v>6</v>
@@ -6601,7 +6603,7 @@
       <c r="X51">
         <v>0</v>
       </c>
-      <c r="Y51">
+      <c r="Y51" s="1">
         <v>4</v>
       </c>
       <c r="Z51">
@@ -6625,7 +6627,7 @@
     </row>
     <row r="52" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="B52">
         <v>2</v>
@@ -6696,7 +6698,7 @@
       <c r="X52">
         <v>0</v>
       </c>
-      <c r="Y52">
+      <c r="Y52" s="1">
         <v>2</v>
       </c>
       <c r="Z52">
@@ -6720,7 +6722,7 @@
     </row>
     <row r="53" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>31</v>
+        <v>81</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -6791,7 +6793,7 @@
       <c r="X53">
         <v>5</v>
       </c>
-      <c r="Y53">
+      <c r="Y53" s="1">
         <v>0</v>
       </c>
       <c r="Z53">
@@ -6815,7 +6817,7 @@
     </row>
     <row r="54" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>32</v>
+        <v>82</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -6886,7 +6888,7 @@
       <c r="X54">
         <v>1</v>
       </c>
-      <c r="Y54">
+      <c r="Y54" s="1">
         <v>0</v>
       </c>
       <c r="Z54">
@@ -6910,7 +6912,7 @@
     </row>
     <row r="55" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>33</v>
+        <v>83</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -6981,7 +6983,7 @@
       <c r="X55">
         <v>0</v>
       </c>
-      <c r="Y55">
+      <c r="Y55" s="1">
         <v>0</v>
       </c>
       <c r="Z55">
@@ -7005,7 +7007,7 @@
     </row>
     <row r="56" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>34</v>
+        <v>84</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -7076,7 +7078,7 @@
       <c r="X56">
         <v>0</v>
       </c>
-      <c r="Y56">
+      <c r="Y56" s="1">
         <v>0</v>
       </c>
       <c r="Z56">
@@ -7100,7 +7102,7 @@
     </row>
     <row r="57" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>35</v>
+        <v>85</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -7171,7 +7173,7 @@
       <c r="X57">
         <v>0</v>
       </c>
-      <c r="Y57">
+      <c r="Y57" s="1">
         <v>0</v>
       </c>
       <c r="Z57">
@@ -7195,7 +7197,7 @@
     </row>
     <row r="58" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>36</v>
+        <v>86</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -7266,7 +7268,7 @@
       <c r="X58">
         <v>0</v>
       </c>
-      <c r="Y58">
+      <c r="Y58" s="1">
         <v>0</v>
       </c>
       <c r="Z58">
@@ -7290,7 +7292,7 @@
     </row>
     <row r="59" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -7361,7 +7363,7 @@
       <c r="X59">
         <v>0</v>
       </c>
-      <c r="Y59">
+      <c r="Y59" s="1">
         <v>0</v>
       </c>
       <c r="Z59">
@@ -7385,7 +7387,7 @@
     </row>
     <row r="60" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="B60">
         <v>1</v>
@@ -7456,7 +7458,7 @@
       <c r="X60">
         <v>0</v>
       </c>
-      <c r="Y60">
+      <c r="Y60" s="1">
         <v>1</v>
       </c>
       <c r="Z60">
@@ -7480,7 +7482,7 @@
     </row>
     <row r="61" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>39</v>
+        <v>89</v>
       </c>
       <c r="B61">
         <v>1</v>
@@ -7551,7 +7553,7 @@
       <c r="X61">
         <v>0</v>
       </c>
-      <c r="Y61">
+      <c r="Y61" s="1">
         <v>4</v>
       </c>
       <c r="Z61">
@@ -7575,7 +7577,7 @@
     </row>
     <row r="62" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -7646,7 +7648,7 @@
       <c r="X62">
         <v>0</v>
       </c>
-      <c r="Y62">
+      <c r="Y62" s="1">
         <v>8</v>
       </c>
       <c r="Z62">
@@ -7670,7 +7672,7 @@
     </row>
     <row r="63" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>41</v>
+        <v>91</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -7741,7 +7743,7 @@
       <c r="X63">
         <v>2</v>
       </c>
-      <c r="Y63">
+      <c r="Y63" s="1">
         <v>1</v>
       </c>
       <c r="Z63">
@@ -7765,7 +7767,7 @@
     </row>
     <row r="64" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>42</v>
+        <v>92</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -7836,7 +7838,7 @@
       <c r="X64">
         <v>0</v>
       </c>
-      <c r="Y64">
+      <c r="Y64" s="1">
         <v>0</v>
       </c>
       <c r="Z64">
@@ -7860,7 +7862,7 @@
     </row>
     <row r="65" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>43</v>
+        <v>93</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -7931,7 +7933,7 @@
       <c r="X65">
         <v>0</v>
       </c>
-      <c r="Y65">
+      <c r="Y65" s="1">
         <v>0</v>
       </c>
       <c r="Z65">
@@ -7955,7 +7957,7 @@
     </row>
     <row r="66" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>44</v>
+        <v>94</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -8026,7 +8028,7 @@
       <c r="X66">
         <v>3</v>
       </c>
-      <c r="Y66">
+      <c r="Y66" s="1">
         <v>0</v>
       </c>
       <c r="Z66">
@@ -8050,7 +8052,7 @@
     </row>
     <row r="67" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>45</v>
+        <v>95</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -8121,7 +8123,7 @@
       <c r="X67">
         <v>0</v>
       </c>
-      <c r="Y67">
+      <c r="Y67" s="1">
         <v>0</v>
       </c>
       <c r="Z67">
@@ -8145,7 +8147,7 @@
     </row>
     <row r="68" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>46</v>
+        <v>96</v>
       </c>
       <c r="B68">
         <v>7</v>
@@ -8216,7 +8218,7 @@
       <c r="X68">
         <v>2</v>
       </c>
-      <c r="Y68">
+      <c r="Y68" s="1">
         <v>0</v>
       </c>
       <c r="Z68">
@@ -8240,7 +8242,7 @@
     </row>
     <row r="69" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>47</v>
+        <v>97</v>
       </c>
       <c r="B69">
         <v>56</v>
@@ -8311,7 +8313,7 @@
       <c r="X69">
         <v>0</v>
       </c>
-      <c r="Y69">
+      <c r="Y69" s="1">
         <v>0</v>
       </c>
       <c r="Z69">
@@ -8335,7 +8337,7 @@
     </row>
     <row r="70" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>48</v>
+        <v>98</v>
       </c>
       <c r="B70">
         <v>75</v>
@@ -8406,7 +8408,7 @@
       <c r="X70">
         <v>0</v>
       </c>
-      <c r="Y70">
+      <c r="Y70" s="1">
         <v>5</v>
       </c>
       <c r="Z70">
@@ -8430,7 +8432,7 @@
     </row>
     <row r="71" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>49</v>
+        <v>99</v>
       </c>
       <c r="B71">
         <v>6</v>
@@ -8501,7 +8503,7 @@
       <c r="X71">
         <v>1</v>
       </c>
-      <c r="Y71">
+      <c r="Y71" s="1">
         <v>1</v>
       </c>
       <c r="Z71">
@@ -8525,7 +8527,7 @@
     </row>
     <row r="72" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -8596,7 +8598,7 @@
       <c r="X72">
         <v>0</v>
       </c>
-      <c r="Y72">
+      <c r="Y72" s="1">
         <v>8</v>
       </c>
       <c r="Z72">
@@ -8620,7 +8622,7 @@
     </row>
     <row r="73" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -8691,7 +8693,7 @@
       <c r="X73">
         <v>0</v>
       </c>
-      <c r="Y73">
+      <c r="Y73" s="1">
         <v>0</v>
       </c>
       <c r="Z73">
@@ -8715,7 +8717,7 @@
     </row>
     <row r="74" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>52</v>
+        <v>102</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -8786,7 +8788,7 @@
       <c r="X74">
         <v>0</v>
       </c>
-      <c r="Y74">
+      <c r="Y74" s="1">
         <v>0</v>
       </c>
       <c r="Z74">
@@ -8810,7 +8812,7 @@
     </row>
     <row r="75" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>53</v>
+        <v>103</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -8881,7 +8883,7 @@
       <c r="X75">
         <v>0</v>
       </c>
-      <c r="Y75">
+      <c r="Y75" s="1">
         <v>0</v>
       </c>
       <c r="Z75">
@@ -8905,7 +8907,7 @@
     </row>
     <row r="76" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>54</v>
+        <v>104</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -8976,7 +8978,7 @@
       <c r="X76">
         <v>0</v>
       </c>
-      <c r="Y76">
+      <c r="Y76" s="1">
         <v>0</v>
       </c>
       <c r="Z76">
@@ -9000,7 +9002,7 @@
     </row>
     <row r="77" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>55</v>
+        <v>105</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -9071,7 +9073,7 @@
       <c r="X77">
         <v>0</v>
       </c>
-      <c r="Y77">
+      <c r="Y77" s="1">
         <v>0</v>
       </c>
       <c r="Z77">
@@ -9095,7 +9097,7 @@
     </row>
     <row r="78" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -9166,7 +9168,7 @@
       <c r="X78">
         <v>0</v>
       </c>
-      <c r="Y78">
+      <c r="Y78" s="1">
         <v>1</v>
       </c>
       <c r="Z78">
@@ -9190,7 +9192,7 @@
     </row>
     <row r="79" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>57</v>
+        <v>107</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -9261,7 +9263,7 @@
       <c r="X79">
         <v>0</v>
       </c>
-      <c r="Y79">
+      <c r="Y79" s="1">
         <v>0</v>
       </c>
       <c r="Z79">
@@ -9285,7 +9287,7 @@
     </row>
     <row r="80" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>58</v>
+        <v>108</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -9356,7 +9358,7 @@
       <c r="X80">
         <v>0</v>
       </c>
-      <c r="Y80">
+      <c r="Y80" s="1">
         <v>0</v>
       </c>
       <c r="Z80">
@@ -9380,7 +9382,7 @@
     </row>
     <row r="81" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>59</v>
+        <v>109</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -9451,7 +9453,7 @@
       <c r="X81">
         <v>0</v>
       </c>
-      <c r="Y81">
+      <c r="Y81" s="1">
         <v>0</v>
       </c>
       <c r="Z81">
@@ -9475,7 +9477,7 @@
     </row>
     <row r="82" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -9546,7 +9548,7 @@
       <c r="X82">
         <v>0</v>
       </c>
-      <c r="Y82">
+      <c r="Y82" s="1">
         <v>0</v>
       </c>
       <c r="Z82">
@@ -9570,7 +9572,7 @@
     </row>
     <row r="83" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>61</v>
+        <v>111</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -9641,7 +9643,7 @@
       <c r="X83">
         <v>0</v>
       </c>
-      <c r="Y83">
+      <c r="Y83" s="1">
         <v>1</v>
       </c>
       <c r="Z83">
@@ -9665,7 +9667,7 @@
     </row>
     <row r="84" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>62</v>
+        <v>112</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -9736,7 +9738,7 @@
       <c r="X84">
         <v>0</v>
       </c>
-      <c r="Y84">
+      <c r="Y84" s="1">
         <v>0</v>
       </c>
       <c r="Z84">
@@ -9760,7 +9762,7 @@
     </row>
     <row r="85" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>63</v>
+        <v>113</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -9831,7 +9833,7 @@
       <c r="X85">
         <v>0</v>
       </c>
-      <c r="Y85">
+      <c r="Y85" s="1">
         <v>0</v>
       </c>
       <c r="Z85">
@@ -9855,7 +9857,7 @@
     </row>
     <row r="86" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>64</v>
+        <v>114</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -9926,7 +9928,7 @@
       <c r="X86">
         <v>0</v>
       </c>
-      <c r="Y86">
+      <c r="Y86" s="1">
         <v>0</v>
       </c>
       <c r="Z86">
@@ -9950,7 +9952,7 @@
     </row>
     <row r="87" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>65</v>
+        <v>115</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -10021,7 +10023,7 @@
       <c r="X87">
         <v>0</v>
       </c>
-      <c r="Y87">
+      <c r="Y87" s="1">
         <v>0</v>
       </c>
       <c r="Z87">
@@ -10045,7 +10047,7 @@
     </row>
     <row r="88" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>66</v>
+        <v>116</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -10116,7 +10118,7 @@
       <c r="X88">
         <v>0</v>
       </c>
-      <c r="Y88">
+      <c r="Y88" s="1">
         <v>0</v>
       </c>
       <c r="Z88">
@@ -10140,7 +10142,7 @@
     </row>
     <row r="89" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>67</v>
+        <v>117</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -10211,7 +10213,7 @@
       <c r="X89">
         <v>0</v>
       </c>
-      <c r="Y89">
+      <c r="Y89" s="1">
         <v>0</v>
       </c>
       <c r="Z89">
@@ -10235,7 +10237,7 @@
     </row>
     <row r="90" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>68</v>
+        <v>118</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -10306,7 +10308,7 @@
       <c r="X90">
         <v>0</v>
       </c>
-      <c r="Y90">
+      <c r="Y90" s="1">
         <v>0</v>
       </c>
       <c r="Z90">
@@ -10330,7 +10332,7 @@
     </row>
     <row r="91" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>69</v>
+        <v>119</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -10401,7 +10403,7 @@
       <c r="X91">
         <v>0</v>
       </c>
-      <c r="Y91">
+      <c r="Y91" s="1">
         <v>0</v>
       </c>
       <c r="Z91">
@@ -10425,7 +10427,7 @@
     </row>
     <row r="92" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -10496,7 +10498,7 @@
       <c r="X92">
         <v>0</v>
       </c>
-      <c r="Y92">
+      <c r="Y92" s="1">
         <v>0</v>
       </c>
       <c r="Z92">
@@ -10520,7 +10522,7 @@
     </row>
     <row r="93" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>71</v>
+        <v>121</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -10591,7 +10593,7 @@
       <c r="X93">
         <v>0</v>
       </c>
-      <c r="Y93">
+      <c r="Y93" s="1">
         <v>0</v>
       </c>
       <c r="Z93">
@@ -10615,7 +10617,7 @@
     </row>
     <row r="94" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>72</v>
+        <v>122</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -10686,7 +10688,7 @@
       <c r="X94">
         <v>1</v>
       </c>
-      <c r="Y94">
+      <c r="Y94" s="1">
         <v>1</v>
       </c>
       <c r="Z94">
@@ -10710,7 +10712,7 @@
     </row>
     <row r="95" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>73</v>
+        <v>123</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -10781,7 +10783,7 @@
       <c r="X95">
         <v>0</v>
       </c>
-      <c r="Y95">
+      <c r="Y95" s="1">
         <v>0</v>
       </c>
       <c r="Z95">
@@ -10805,7 +10807,7 @@
     </row>
     <row r="96" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>74</v>
+        <v>124</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -10876,7 +10878,7 @@
       <c r="X96">
         <v>0</v>
       </c>
-      <c r="Y96">
+      <c r="Y96" s="1">
         <v>0</v>
       </c>
       <c r="Z96">
@@ -10900,7 +10902,7 @@
     </row>
     <row r="97" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>75</v>
+        <v>125</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -10971,7 +10973,7 @@
       <c r="X97">
         <v>1</v>
       </c>
-      <c r="Y97">
+      <c r="Y97" s="1">
         <v>0</v>
       </c>
       <c r="Z97">
@@ -10995,7 +10997,7 @@
     </row>
     <row r="98" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>76</v>
+        <v>126</v>
       </c>
       <c r="B98">
         <v>0</v>
@@ -11066,7 +11068,7 @@
       <c r="X98">
         <v>0</v>
       </c>
-      <c r="Y98">
+      <c r="Y98" s="1">
         <v>0</v>
       </c>
       <c r="Z98">
@@ -11090,7 +11092,7 @@
     </row>
     <row r="99" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>77</v>
+        <v>127</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -11161,7 +11163,7 @@
       <c r="X99">
         <v>0</v>
       </c>
-      <c r="Y99">
+      <c r="Y99" s="1">
         <v>0</v>
       </c>
       <c r="Z99">
@@ -11185,7 +11187,7 @@
     </row>
     <row r="100" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>78</v>
+        <v>128</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -11256,7 +11258,7 @@
       <c r="X100">
         <v>0</v>
       </c>
-      <c r="Y100">
+      <c r="Y100" s="1">
         <v>0</v>
       </c>
       <c r="Z100">
@@ -11280,7 +11282,7 @@
     </row>
     <row r="101" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>79</v>
+        <v>129</v>
       </c>
       <c r="B101">
         <v>0</v>
@@ -11351,7 +11353,7 @@
       <c r="X101">
         <v>0</v>
       </c>
-      <c r="Y101">
+      <c r="Y101" s="1">
         <v>0</v>
       </c>
       <c r="Z101">
@@ -11375,7 +11377,7 @@
     </row>
     <row r="102" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -11446,7 +11448,7 @@
       <c r="X102">
         <v>0</v>
       </c>
-      <c r="Y102">
+      <c r="Y102" s="1">
         <v>0</v>
       </c>
       <c r="Z102">
@@ -11470,7 +11472,7 @@
     </row>
     <row r="103" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>81</v>
+        <v>131</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -11541,7 +11543,7 @@
       <c r="X103">
         <v>0</v>
       </c>
-      <c r="Y103">
+      <c r="Y103" s="1">
         <v>0</v>
       </c>
       <c r="Z103">
@@ -11565,7 +11567,7 @@
     </row>
     <row r="104" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>82</v>
+        <v>132</v>
       </c>
       <c r="B104">
         <v>1</v>
@@ -11636,7 +11638,7 @@
       <c r="X104">
         <v>0</v>
       </c>
-      <c r="Y104">
+      <c r="Y104" s="1">
         <v>0</v>
       </c>
       <c r="Z104">
@@ -11660,7 +11662,7 @@
     </row>
     <row r="105" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>83</v>
+        <v>133</v>
       </c>
       <c r="B105">
         <v>0</v>
@@ -11731,7 +11733,7 @@
       <c r="X105">
         <v>0</v>
       </c>
-      <c r="Y105">
+      <c r="Y105" s="1">
         <v>0</v>
       </c>
       <c r="Z105">
@@ -11755,7 +11757,7 @@
     </row>
     <row r="106" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>84</v>
+        <v>134</v>
       </c>
       <c r="B106">
         <v>0</v>
@@ -11826,7 +11828,7 @@
       <c r="X106">
         <v>0</v>
       </c>
-      <c r="Y106">
+      <c r="Y106" s="1">
         <v>0</v>
       </c>
       <c r="Z106">
@@ -11850,7 +11852,7 @@
     </row>
     <row r="107" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>85</v>
+        <v>135</v>
       </c>
       <c r="B107">
         <v>0</v>
@@ -11921,7 +11923,7 @@
       <c r="X107">
         <v>13</v>
       </c>
-      <c r="Y107">
+      <c r="Y107" s="1">
         <v>0</v>
       </c>
       <c r="Z107">
@@ -11945,7 +11947,7 @@
     </row>
     <row r="108" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>86</v>
+        <v>136</v>
       </c>
       <c r="B108">
         <v>0</v>
@@ -12016,7 +12018,7 @@
       <c r="X108">
         <v>1</v>
       </c>
-      <c r="Y108">
+      <c r="Y108" s="1">
         <v>0</v>
       </c>
       <c r="Z108">
@@ -12040,7 +12042,7 @@
     </row>
     <row r="109" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>87</v>
+        <v>137</v>
       </c>
       <c r="B109">
         <v>0</v>
@@ -12111,7 +12113,7 @@
       <c r="X109">
         <v>0</v>
       </c>
-      <c r="Y109">
+      <c r="Y109" s="1">
         <v>4</v>
       </c>
       <c r="Z109">
@@ -12135,7 +12137,7 @@
     </row>
     <row r="110" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>88</v>
+        <v>138</v>
       </c>
       <c r="B110">
         <v>0</v>
@@ -12206,7 +12208,7 @@
       <c r="X110">
         <v>6</v>
       </c>
-      <c r="Y110">
+      <c r="Y110" s="1">
         <v>2</v>
       </c>
       <c r="Z110">
@@ -12230,7 +12232,7 @@
     </row>
     <row r="111" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>89</v>
+        <v>139</v>
       </c>
       <c r="B111">
         <v>0</v>
@@ -12301,7 +12303,7 @@
       <c r="X111">
         <v>0</v>
       </c>
-      <c r="Y111">
+      <c r="Y111" s="1">
         <v>2</v>
       </c>
       <c r="Z111">
@@ -12325,7 +12327,7 @@
     </row>
     <row r="112" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="B112">
         <v>0</v>
@@ -12396,7 +12398,7 @@
       <c r="X112">
         <v>0</v>
       </c>
-      <c r="Y112">
+      <c r="Y112" s="1">
         <v>1</v>
       </c>
       <c r="Z112">
@@ -12420,7 +12422,7 @@
     </row>
     <row r="113" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>91</v>
+        <v>141</v>
       </c>
       <c r="B113">
         <v>0</v>
@@ -12491,7 +12493,7 @@
       <c r="X113">
         <v>5</v>
       </c>
-      <c r="Y113">
+      <c r="Y113" s="1">
         <v>0</v>
       </c>
       <c r="Z113">
@@ -12515,7 +12517,7 @@
     </row>
     <row r="114" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>92</v>
+        <v>142</v>
       </c>
       <c r="B114">
         <v>0</v>
@@ -12586,7 +12588,7 @@
       <c r="X114">
         <v>11</v>
       </c>
-      <c r="Y114">
+      <c r="Y114" s="1">
         <v>0</v>
       </c>
       <c r="Z114">
@@ -12610,7 +12612,7 @@
     </row>
     <row r="115" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>93</v>
+        <v>143</v>
       </c>
       <c r="B115">
         <v>0</v>
@@ -12681,7 +12683,7 @@
       <c r="X115">
         <v>17</v>
       </c>
-      <c r="Y115">
+      <c r="Y115" s="1">
         <v>0</v>
       </c>
       <c r="Z115">
@@ -12705,7 +12707,7 @@
     </row>
     <row r="116" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>94</v>
+        <v>144</v>
       </c>
       <c r="B116">
         <v>0</v>
@@ -12776,7 +12778,7 @@
       <c r="X116">
         <v>18</v>
       </c>
-      <c r="Y116">
+      <c r="Y116" s="1">
         <v>0</v>
       </c>
       <c r="Z116">
@@ -12800,7 +12802,7 @@
     </row>
     <row r="117" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>95</v>
+        <v>145</v>
       </c>
       <c r="B117">
         <v>0</v>
@@ -12871,7 +12873,7 @@
       <c r="X117">
         <v>0</v>
       </c>
-      <c r="Y117">
+      <c r="Y117" s="1">
         <v>1</v>
       </c>
       <c r="Z117">
@@ -12895,7 +12897,7 @@
     </row>
     <row r="118" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>96</v>
+        <v>146</v>
       </c>
       <c r="B118">
         <v>0</v>
@@ -12966,7 +12968,7 @@
       <c r="X118">
         <v>2</v>
       </c>
-      <c r="Y118">
+      <c r="Y118" s="1">
         <v>3</v>
       </c>
       <c r="Z118">
@@ -12990,7 +12992,7 @@
     </row>
     <row r="119" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>97</v>
+        <v>147</v>
       </c>
       <c r="B119">
         <v>0</v>
@@ -13061,7 +13063,7 @@
       <c r="X119">
         <v>0</v>
       </c>
-      <c r="Y119">
+      <c r="Y119" s="1">
         <v>2</v>
       </c>
       <c r="Z119">
@@ -13085,7 +13087,7 @@
     </row>
     <row r="120" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>98</v>
+        <v>148</v>
       </c>
       <c r="B120">
         <v>0</v>
@@ -13156,7 +13158,7 @@
       <c r="X120">
         <v>1</v>
       </c>
-      <c r="Y120">
+      <c r="Y120" s="1">
         <v>0</v>
       </c>
       <c r="Z120">
@@ -13180,7 +13182,7 @@
     </row>
     <row r="121" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>99</v>
+        <v>149</v>
       </c>
       <c r="B121">
         <v>0</v>
@@ -13251,7 +13253,7 @@
       <c r="X121">
         <v>7</v>
       </c>
-      <c r="Y121">
+      <c r="Y121" s="1">
         <v>8</v>
       </c>
       <c r="Z121">
@@ -13275,7 +13277,7 @@
     </row>
     <row r="122" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="B122">
         <v>0</v>
@@ -13346,7 +13348,7 @@
       <c r="X122">
         <v>0</v>
       </c>
-      <c r="Y122">
+      <c r="Y122" s="1">
         <v>0</v>
       </c>
       <c r="Z122">
@@ -13370,7 +13372,7 @@
     </row>
     <row r="123" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="B123">
         <v>0</v>
@@ -13441,7 +13443,7 @@
       <c r="X123">
         <v>0</v>
       </c>
-      <c r="Y123">
+      <c r="Y123" s="1">
         <v>1</v>
       </c>
       <c r="Z123">
@@ -13465,7 +13467,7 @@
     </row>
     <row r="124" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>102</v>
+        <v>152</v>
       </c>
       <c r="B124">
         <v>0</v>
@@ -13536,7 +13538,7 @@
       <c r="X124">
         <v>0</v>
       </c>
-      <c r="Y124">
+      <c r="Y124" s="1">
         <v>0</v>
       </c>
       <c r="Z124">
@@ -13560,7 +13562,7 @@
     </row>
     <row r="125" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>103</v>
+        <v>153</v>
       </c>
       <c r="B125">
         <v>0</v>
@@ -13631,7 +13633,7 @@
       <c r="X125">
         <v>0</v>
       </c>
-      <c r="Y125">
+      <c r="Y125" s="1">
         <v>0</v>
       </c>
       <c r="Z125">
@@ -13655,7 +13657,7 @@
     </row>
     <row r="126" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>104</v>
+        <v>154</v>
       </c>
       <c r="B126">
         <v>0</v>
@@ -13726,7 +13728,7 @@
       <c r="X126">
         <v>0</v>
       </c>
-      <c r="Y126">
+      <c r="Y126" s="1">
         <v>1</v>
       </c>
       <c r="Z126">
@@ -13750,7 +13752,7 @@
     </row>
     <row r="127" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>105</v>
+        <v>155</v>
       </c>
       <c r="B127">
         <v>0</v>
@@ -13821,7 +13823,7 @@
       <c r="X127">
         <v>0</v>
       </c>
-      <c r="Y127">
+      <c r="Y127" s="1">
         <v>0</v>
       </c>
       <c r="Z127">
@@ -13845,7 +13847,7 @@
     </row>
     <row r="128" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>106</v>
+        <v>156</v>
       </c>
       <c r="B128">
         <v>0</v>
@@ -13916,7 +13918,7 @@
       <c r="X128">
         <v>3</v>
       </c>
-      <c r="Y128">
+      <c r="Y128" s="1">
         <v>1</v>
       </c>
       <c r="Z128">
@@ -13940,7 +13942,7 @@
     </row>
     <row r="129" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>107</v>
+        <v>157</v>
       </c>
       <c r="B129">
         <v>0</v>
@@ -14011,7 +14013,7 @@
       <c r="X129">
         <v>1</v>
       </c>
-      <c r="Y129">
+      <c r="Y129" s="1">
         <v>0</v>
       </c>
       <c r="Z129">
@@ -14035,7 +14037,7 @@
     </row>
     <row r="130" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>108</v>
+        <v>158</v>
       </c>
       <c r="B130">
         <v>0</v>
@@ -14106,7 +14108,7 @@
       <c r="X130">
         <v>0</v>
       </c>
-      <c r="Y130">
+      <c r="Y130" s="1">
         <v>1</v>
       </c>
       <c r="Z130">
@@ -14130,7 +14132,7 @@
     </row>
     <row r="131" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>109</v>
+        <v>159</v>
       </c>
       <c r="B131">
         <v>0</v>
@@ -14201,7 +14203,7 @@
       <c r="X131">
         <v>0</v>
       </c>
-      <c r="Y131">
+      <c r="Y131" s="1">
         <v>0</v>
       </c>
       <c r="Z131">
@@ -14225,7 +14227,7 @@
     </row>
     <row r="132" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>110</v>
+        <v>160</v>
       </c>
       <c r="B132">
         <v>0</v>
@@ -14296,7 +14298,7 @@
       <c r="X132">
         <v>27</v>
       </c>
-      <c r="Y132">
+      <c r="Y132" s="1">
         <v>7</v>
       </c>
       <c r="Z132">
@@ -14320,7 +14322,7 @@
     </row>
     <row r="133" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>111</v>
+        <v>161</v>
       </c>
       <c r="B133">
         <v>0</v>
@@ -14391,7 +14393,7 @@
       <c r="X133">
         <v>17</v>
       </c>
-      <c r="Y133">
+      <c r="Y133" s="1">
         <v>0</v>
       </c>
       <c r="Z133">
@@ -14415,7 +14417,7 @@
     </row>
     <row r="134" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>112</v>
+        <v>162</v>
       </c>
       <c r="B134">
         <v>0</v>
@@ -14486,7 +14488,7 @@
       <c r="X134">
         <v>1</v>
       </c>
-      <c r="Y134">
+      <c r="Y134" s="1">
         <v>0</v>
       </c>
       <c r="Z134">
@@ -14510,7 +14512,7 @@
     </row>
     <row r="135" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>113</v>
+        <v>163</v>
       </c>
       <c r="B135">
         <v>0</v>
@@ -14581,7 +14583,7 @@
       <c r="X135">
         <v>0</v>
       </c>
-      <c r="Y135">
+      <c r="Y135" s="1">
         <v>3</v>
       </c>
       <c r="Z135">
@@ -14605,7 +14607,7 @@
     </row>
     <row r="136" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>114</v>
+        <v>164</v>
       </c>
       <c r="B136">
         <v>0</v>
@@ -14676,7 +14678,7 @@
       <c r="X136">
         <v>0</v>
       </c>
-      <c r="Y136">
+      <c r="Y136" s="1">
         <v>0</v>
       </c>
       <c r="Z136">
@@ -14700,7 +14702,7 @@
     </row>
     <row r="137" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>115</v>
+        <v>165</v>
       </c>
       <c r="B137">
         <v>0</v>
@@ -14771,7 +14773,7 @@
       <c r="X137">
         <v>2</v>
       </c>
-      <c r="Y137">
+      <c r="Y137" s="1">
         <v>0</v>
       </c>
       <c r="Z137">
@@ -14795,7 +14797,7 @@
     </row>
     <row r="138" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>116</v>
+        <v>166</v>
       </c>
       <c r="B138">
         <v>0</v>
@@ -14866,7 +14868,7 @@
       <c r="X138">
         <v>5</v>
       </c>
-      <c r="Y138">
+      <c r="Y138" s="1">
         <v>12</v>
       </c>
       <c r="Z138">
@@ -14890,7 +14892,7 @@
     </row>
     <row r="139" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>117</v>
+        <v>167</v>
       </c>
       <c r="B139">
         <v>0</v>
@@ -14961,7 +14963,7 @@
       <c r="X139">
         <v>0</v>
       </c>
-      <c r="Y139">
+      <c r="Y139" s="1">
         <v>0</v>
       </c>
       <c r="Z139">
@@ -14985,7 +14987,7 @@
     </row>
     <row r="140" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>118</v>
+        <v>168</v>
       </c>
       <c r="B140">
         <v>0</v>
@@ -15056,7 +15058,7 @@
       <c r="X140">
         <v>0</v>
       </c>
-      <c r="Y140">
+      <c r="Y140" s="1">
         <v>10</v>
       </c>
       <c r="Z140">
@@ -15080,7 +15082,7 @@
     </row>
     <row r="141" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>119</v>
+        <v>169</v>
       </c>
       <c r="B141">
         <v>0</v>
@@ -15151,7 +15153,7 @@
       <c r="X141">
         <v>4</v>
       </c>
-      <c r="Y141">
+      <c r="Y141" s="1">
         <v>19</v>
       </c>
       <c r="Z141">
@@ -15175,7 +15177,7 @@
     </row>
     <row r="142" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>120</v>
+        <v>170</v>
       </c>
       <c r="B142">
         <v>0</v>
@@ -15246,7 +15248,7 @@
       <c r="X142">
         <v>5</v>
       </c>
-      <c r="Y142">
+      <c r="Y142" s="1">
         <v>0</v>
       </c>
       <c r="Z142">
@@ -15270,7 +15272,7 @@
     </row>
     <row r="143" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>121</v>
+        <v>171</v>
       </c>
       <c r="B143">
         <v>0</v>
@@ -15341,7 +15343,7 @@
       <c r="X143">
         <v>1</v>
       </c>
-      <c r="Y143">
+      <c r="Y143" s="1">
         <v>0</v>
       </c>
       <c r="Z143">
@@ -15365,7 +15367,7 @@
     </row>
     <row r="144" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>122</v>
+        <v>172</v>
       </c>
       <c r="B144">
         <v>0</v>
@@ -15436,7 +15438,7 @@
       <c r="X144">
         <v>2</v>
       </c>
-      <c r="Y144">
+      <c r="Y144" s="1">
         <v>0</v>
       </c>
       <c r="Z144">
@@ -15460,7 +15462,7 @@
     </row>
     <row r="145" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>123</v>
+        <v>173</v>
       </c>
       <c r="B145">
         <v>0</v>
@@ -15531,7 +15533,7 @@
       <c r="X145">
         <v>8</v>
       </c>
-      <c r="Y145">
+      <c r="Y145" s="1">
         <v>0</v>
       </c>
       <c r="Z145">
@@ -15555,7 +15557,7 @@
     </row>
     <row r="146" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>124</v>
+        <v>174</v>
       </c>
       <c r="B146">
         <v>0</v>
@@ -15626,7 +15628,7 @@
       <c r="X146">
         <v>0</v>
       </c>
-      <c r="Y146">
+      <c r="Y146" s="1">
         <v>0</v>
       </c>
       <c r="Z146">
@@ -15650,7 +15652,7 @@
     </row>
     <row r="147" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>125</v>
+        <v>175</v>
       </c>
       <c r="B147">
         <v>10</v>
@@ -15721,7 +15723,7 @@
       <c r="X147">
         <v>0</v>
       </c>
-      <c r="Y147">
+      <c r="Y147" s="1">
         <v>0</v>
       </c>
       <c r="Z147">
@@ -15745,7 +15747,7 @@
     </row>
     <row r="148" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>126</v>
+        <v>176</v>
       </c>
       <c r="B148">
         <v>0</v>
@@ -15816,7 +15818,7 @@
       <c r="X148">
         <v>0</v>
       </c>
-      <c r="Y148">
+      <c r="Y148" s="1">
         <v>0</v>
       </c>
       <c r="Z148">
@@ -15840,7 +15842,7 @@
     </row>
     <row r="149" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>127</v>
+        <v>177</v>
       </c>
       <c r="B149">
         <v>0</v>
@@ -15911,7 +15913,7 @@
       <c r="X149">
         <v>0</v>
       </c>
-      <c r="Y149">
+      <c r="Y149" s="1">
         <v>0</v>
       </c>
       <c r="Z149">
@@ -15935,7 +15937,7 @@
     </row>
     <row r="150" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>128</v>
+        <v>178</v>
       </c>
       <c r="B150">
         <v>0</v>
@@ -16006,7 +16008,7 @@
       <c r="X150">
         <v>5</v>
       </c>
-      <c r="Y150">
+      <c r="Y150" s="1">
         <v>0</v>
       </c>
       <c r="Z150">
@@ -16030,7 +16032,7 @@
     </row>
     <row r="151" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>129</v>
+        <v>179</v>
       </c>
       <c r="B151">
         <v>0</v>
@@ -16101,7 +16103,7 @@
       <c r="X151">
         <v>1</v>
       </c>
-      <c r="Y151">
+      <c r="Y151" s="1">
         <v>0</v>
       </c>
       <c r="Z151">
@@ -16125,7 +16127,7 @@
     </row>
     <row r="152" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>130</v>
+        <v>180</v>
       </c>
       <c r="B152">
         <v>11</v>
@@ -16196,7 +16198,7 @@
       <c r="X152">
         <v>3</v>
       </c>
-      <c r="Y152">
+      <c r="Y152" s="1">
         <v>2</v>
       </c>
       <c r="Z152">
@@ -16220,7 +16222,7 @@
     </row>
     <row r="153" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>131</v>
+        <v>181</v>
       </c>
       <c r="B153">
         <v>0</v>
@@ -16291,7 +16293,7 @@
       <c r="X153">
         <v>3</v>
       </c>
-      <c r="Y153">
+      <c r="Y153" s="1">
         <v>0</v>
       </c>
       <c r="Z153">
@@ -16315,7 +16317,7 @@
     </row>
     <row r="154" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>132</v>
+        <v>182</v>
       </c>
       <c r="B154">
         <v>5</v>
@@ -16386,7 +16388,7 @@
       <c r="X154">
         <v>4</v>
       </c>
-      <c r="Y154">
+      <c r="Y154" s="1">
         <v>1</v>
       </c>
       <c r="Z154">
@@ -16410,7 +16412,7 @@
     </row>
     <row r="155" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>133</v>
+        <v>183</v>
       </c>
       <c r="B155">
         <v>8</v>
@@ -16481,7 +16483,7 @@
       <c r="X155">
         <v>0</v>
       </c>
-      <c r="Y155">
+      <c r="Y155" s="1">
         <v>1</v>
       </c>
       <c r="Z155">
@@ -16505,7 +16507,7 @@
     </row>
     <row r="156" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>134</v>
+        <v>184</v>
       </c>
       <c r="B156">
         <v>1</v>
@@ -16576,7 +16578,7 @@
       <c r="X156">
         <v>0</v>
       </c>
-      <c r="Y156">
+      <c r="Y156" s="1">
         <v>1</v>
       </c>
       <c r="Z156">
@@ -16600,7 +16602,7 @@
     </row>
     <row r="157" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>135</v>
+        <v>185</v>
       </c>
       <c r="B157">
         <v>0</v>
@@ -16671,7 +16673,7 @@
       <c r="X157">
         <v>0</v>
       </c>
-      <c r="Y157">
+      <c r="Y157" s="1">
         <v>0</v>
       </c>
       <c r="Z157">
@@ -16695,7 +16697,7 @@
     </row>
     <row r="158" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>136</v>
+        <v>186</v>
       </c>
       <c r="B158">
         <v>36</v>
@@ -16766,7 +16768,7 @@
       <c r="X158">
         <v>0</v>
       </c>
-      <c r="Y158">
+      <c r="Y158" s="1">
         <v>0</v>
       </c>
       <c r="Z158">
@@ -16790,7 +16792,7 @@
     </row>
     <row r="159" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>137</v>
+        <v>187</v>
       </c>
       <c r="B159">
         <v>23</v>
@@ -16861,7 +16863,7 @@
       <c r="X159">
         <v>1</v>
       </c>
-      <c r="Y159">
+      <c r="Y159" s="1">
         <v>1</v>
       </c>
       <c r="Z159">
@@ -16885,7 +16887,7 @@
     </row>
     <row r="160" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>138</v>
+        <v>188</v>
       </c>
       <c r="B160">
         <v>2</v>
@@ -16956,7 +16958,7 @@
       <c r="X160">
         <v>0</v>
       </c>
-      <c r="Y160">
+      <c r="Y160" s="1">
         <v>4</v>
       </c>
       <c r="Z160">
@@ -16980,7 +16982,7 @@
     </row>
     <row r="161" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>139</v>
+        <v>189</v>
       </c>
       <c r="B161">
         <v>10</v>
@@ -17051,7 +17053,7 @@
       <c r="X161">
         <v>2</v>
       </c>
-      <c r="Y161">
+      <c r="Y161" s="1">
         <v>0</v>
       </c>
       <c r="Z161">
@@ -17075,7 +17077,7 @@
     </row>
     <row r="162" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>140</v>
+        <v>190</v>
       </c>
       <c r="B162">
         <v>64</v>
@@ -17146,7 +17148,7 @@
       <c r="X162">
         <v>0</v>
       </c>
-      <c r="Y162">
+      <c r="Y162" s="1">
         <v>0</v>
       </c>
       <c r="Z162">
@@ -17170,7 +17172,7 @@
     </row>
     <row r="163" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>141</v>
+        <v>191</v>
       </c>
       <c r="B163">
         <v>14</v>
@@ -17241,7 +17243,7 @@
       <c r="X163">
         <v>11</v>
       </c>
-      <c r="Y163">
+      <c r="Y163" s="1">
         <v>1</v>
       </c>
       <c r="Z163">
@@ -17265,7 +17267,7 @@
     </row>
     <row r="164" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>142</v>
+        <v>192</v>
       </c>
       <c r="B164">
         <v>63</v>
@@ -17336,7 +17338,7 @@
       <c r="X164">
         <v>0</v>
       </c>
-      <c r="Y164">
+      <c r="Y164" s="1">
         <v>0</v>
       </c>
       <c r="Z164">
@@ -17360,7 +17362,7 @@
     </row>
     <row r="165" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>143</v>
+        <v>193</v>
       </c>
       <c r="B165">
         <v>84</v>
@@ -17431,7 +17433,7 @@
       <c r="X165">
         <v>0</v>
       </c>
-      <c r="Y165">
+      <c r="Y165" s="1">
         <v>0</v>
       </c>
       <c r="Z165">
@@ -17455,7 +17457,7 @@
     </row>
     <row r="166" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>144</v>
+        <v>194</v>
       </c>
       <c r="B166">
         <v>2</v>
@@ -17526,7 +17528,7 @@
       <c r="X166">
         <v>6</v>
       </c>
-      <c r="Y166">
+      <c r="Y166" s="1">
         <v>0</v>
       </c>
       <c r="Z166">
@@ -17550,7 +17552,7 @@
     </row>
     <row r="167" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>145</v>
+        <v>195</v>
       </c>
       <c r="B167">
         <v>22</v>
@@ -17621,7 +17623,7 @@
       <c r="X167">
         <v>3</v>
       </c>
-      <c r="Y167">
+      <c r="Y167" s="1">
         <v>1</v>
       </c>
       <c r="Z167">
@@ -17645,7 +17647,7 @@
     </row>
     <row r="168" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>146</v>
+        <v>196</v>
       </c>
       <c r="B168">
         <v>25</v>
@@ -17716,7 +17718,7 @@
       <c r="X168">
         <v>1</v>
       </c>
-      <c r="Y168">
+      <c r="Y168" s="1">
         <v>1</v>
       </c>
       <c r="Z168">
@@ -17740,7 +17742,7 @@
     </row>
     <row r="169" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>147</v>
+        <v>197</v>
       </c>
       <c r="B169">
         <v>28</v>
@@ -17811,7 +17813,7 @@
       <c r="X169">
         <v>0</v>
       </c>
-      <c r="Y169">
+      <c r="Y169" s="1">
         <v>0</v>
       </c>
       <c r="Z169">
@@ -17835,7 +17837,7 @@
     </row>
     <row r="170" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>148</v>
+        <v>198</v>
       </c>
       <c r="B170">
         <v>3</v>
@@ -17906,7 +17908,7 @@
       <c r="X170">
         <v>15</v>
       </c>
-      <c r="Y170">
+      <c r="Y170" s="1">
         <v>0</v>
       </c>
       <c r="Z170">
@@ -17930,7 +17932,7 @@
     </row>
     <row r="171" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>149</v>
+        <v>199</v>
       </c>
       <c r="B171">
         <v>84</v>
@@ -18001,7 +18003,7 @@
       <c r="X171">
         <v>0</v>
       </c>
-      <c r="Y171">
+      <c r="Y171" s="1">
         <v>0</v>
       </c>
       <c r="Z171">
@@ -18025,7 +18027,7 @@
     </row>
     <row r="172" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="B172">
         <v>0</v>
@@ -18096,7 +18098,7 @@
       <c r="X172">
         <v>11</v>
       </c>
-      <c r="Y172">
+      <c r="Y172" s="1">
         <v>1</v>
       </c>
       <c r="Z172">
@@ -18120,7 +18122,7 @@
     </row>
     <row r="173" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="B173">
         <v>0</v>
@@ -18191,7 +18193,7 @@
       <c r="X173">
         <v>1</v>
       </c>
-      <c r="Y173">
+      <c r="Y173" s="1">
         <v>1</v>
       </c>
       <c r="Z173">
@@ -18215,7 +18217,7 @@
     </row>
     <row r="174" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>152</v>
+        <v>202</v>
       </c>
       <c r="B174">
         <v>0</v>
@@ -18286,7 +18288,7 @@
       <c r="X174">
         <v>0</v>
       </c>
-      <c r="Y174">
+      <c r="Y174" s="1">
         <v>0</v>
       </c>
       <c r="Z174">
@@ -18310,7 +18312,7 @@
     </row>
     <row r="175" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>153</v>
+        <v>203</v>
       </c>
       <c r="B175">
         <v>0</v>
@@ -18381,7 +18383,7 @@
       <c r="X175">
         <v>3</v>
       </c>
-      <c r="Y175">
+      <c r="Y175" s="1">
         <v>0</v>
       </c>
       <c r="Z175">
@@ -18405,7 +18407,7 @@
     </row>
     <row r="176" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>154</v>
+        <v>204</v>
       </c>
       <c r="B176">
         <v>0</v>
@@ -18476,7 +18478,7 @@
       <c r="X176">
         <v>7</v>
       </c>
-      <c r="Y176">
+      <c r="Y176" s="1">
         <v>0</v>
       </c>
       <c r="Z176">
@@ -18500,7 +18502,7 @@
     </row>
     <row r="177" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>155</v>
+        <v>205</v>
       </c>
       <c r="B177">
         <v>0</v>
@@ -18571,7 +18573,7 @@
       <c r="X177">
         <v>1</v>
       </c>
-      <c r="Y177">
+      <c r="Y177" s="1">
         <v>1</v>
       </c>
       <c r="Z177">
@@ -18595,7 +18597,7 @@
     </row>
     <row r="178" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>156</v>
+        <v>206</v>
       </c>
       <c r="B178">
         <v>0</v>
@@ -18666,7 +18668,7 @@
       <c r="X178">
         <v>1</v>
       </c>
-      <c r="Y178">
+      <c r="Y178" s="1">
         <v>0</v>
       </c>
       <c r="Z178">
@@ -18690,7 +18692,7 @@
     </row>
     <row r="179" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>157</v>
+        <v>207</v>
       </c>
       <c r="B179">
         <v>0</v>
@@ -18761,7 +18763,7 @@
       <c r="X179">
         <v>0</v>
       </c>
-      <c r="Y179">
+      <c r="Y179" s="1">
         <v>0</v>
       </c>
       <c r="Z179">
@@ -18785,7 +18787,7 @@
     </row>
     <row r="180" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>158</v>
+        <v>208</v>
       </c>
       <c r="B180">
         <v>0</v>
@@ -18856,7 +18858,7 @@
       <c r="X180">
         <v>2</v>
       </c>
-      <c r="Y180">
+      <c r="Y180" s="1">
         <v>0</v>
       </c>
       <c r="Z180">
@@ -18880,7 +18882,7 @@
     </row>
     <row r="181" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>159</v>
+        <v>209</v>
       </c>
       <c r="B181">
         <v>0</v>
@@ -18951,7 +18953,7 @@
       <c r="X181">
         <v>4</v>
       </c>
-      <c r="Y181">
+      <c r="Y181" s="1">
         <v>1</v>
       </c>
       <c r="Z181">
@@ -18975,7 +18977,7 @@
     </row>
     <row r="182" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>160</v>
+        <v>210</v>
       </c>
       <c r="B182">
         <v>0</v>
@@ -19046,7 +19048,7 @@
       <c r="X182">
         <v>43</v>
       </c>
-      <c r="Y182">
+      <c r="Y182" s="1">
         <v>0</v>
       </c>
       <c r="Z182">
@@ -19070,7 +19072,7 @@
     </row>
     <row r="183" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>161</v>
+        <v>211</v>
       </c>
       <c r="B183">
         <v>0</v>
@@ -19141,7 +19143,7 @@
       <c r="X183">
         <v>1</v>
       </c>
-      <c r="Y183">
+      <c r="Y183" s="1">
         <v>0</v>
       </c>
       <c r="Z183">
@@ -19165,7 +19167,7 @@
     </row>
     <row r="184" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>162</v>
+        <v>212</v>
       </c>
       <c r="B184">
         <v>1</v>
@@ -19236,7 +19238,7 @@
       <c r="X184">
         <v>1</v>
       </c>
-      <c r="Y184">
+      <c r="Y184" s="1">
         <v>0</v>
       </c>
       <c r="Z184">
@@ -19260,7 +19262,7 @@
     </row>
     <row r="185" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>163</v>
+        <v>213</v>
       </c>
       <c r="B185">
         <v>2</v>
@@ -19331,7 +19333,7 @@
       <c r="X185">
         <v>0</v>
       </c>
-      <c r="Y185">
+      <c r="Y185" s="1">
         <v>0</v>
       </c>
       <c r="Z185">
@@ -19355,7 +19357,7 @@
     </row>
     <row r="186" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>164</v>
+        <v>214</v>
       </c>
       <c r="B186">
         <v>3</v>
@@ -19426,7 +19428,7 @@
       <c r="X186">
         <v>0</v>
       </c>
-      <c r="Y186">
+      <c r="Y186" s="1">
         <v>0</v>
       </c>
       <c r="Z186">
@@ -19450,7 +19452,7 @@
     </row>
     <row r="187" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>165</v>
+        <v>215</v>
       </c>
       <c r="B187">
         <v>0</v>
@@ -19521,7 +19523,7 @@
       <c r="X187">
         <v>0</v>
       </c>
-      <c r="Y187">
+      <c r="Y187" s="1">
         <v>1</v>
       </c>
       <c r="Z187">
@@ -19545,7 +19547,7 @@
     </row>
     <row r="188" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>166</v>
+        <v>216</v>
       </c>
       <c r="B188">
         <v>0</v>
@@ -19616,7 +19618,7 @@
       <c r="X188">
         <v>0</v>
       </c>
-      <c r="Y188">
+      <c r="Y188" s="1">
         <v>0</v>
       </c>
       <c r="Z188">
@@ -19640,7 +19642,7 @@
     </row>
     <row r="189" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>167</v>
+        <v>217</v>
       </c>
       <c r="B189">
         <v>0</v>
@@ -19711,7 +19713,7 @@
       <c r="X189">
         <v>0</v>
       </c>
-      <c r="Y189">
+      <c r="Y189" s="1">
         <v>1</v>
       </c>
       <c r="Z189">
@@ -19735,7 +19737,7 @@
     </row>
     <row r="190" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>168</v>
+        <v>218</v>
       </c>
       <c r="B190">
         <v>0</v>
@@ -19806,7 +19808,7 @@
       <c r="X190">
         <v>0</v>
       </c>
-      <c r="Y190">
+      <c r="Y190" s="1">
         <v>0</v>
       </c>
       <c r="Z190">
@@ -19830,7 +19832,7 @@
     </row>
     <row r="191" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>169</v>
+        <v>219</v>
       </c>
       <c r="B191">
         <v>0</v>
@@ -19901,7 +19903,7 @@
       <c r="X191">
         <v>1</v>
       </c>
-      <c r="Y191">
+      <c r="Y191" s="1">
         <v>0</v>
       </c>
       <c r="Z191">
@@ -19925,7 +19927,7 @@
     </row>
     <row r="192" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>170</v>
+        <v>220</v>
       </c>
       <c r="B192">
         <v>0</v>
@@ -19996,7 +19998,7 @@
       <c r="X192">
         <v>9</v>
       </c>
-      <c r="Y192">
+      <c r="Y192" s="1">
         <v>17</v>
       </c>
       <c r="Z192">
@@ -20020,7 +20022,7 @@
     </row>
     <row r="193" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>171</v>
+        <v>221</v>
       </c>
       <c r="B193">
         <v>3</v>
@@ -20091,7 +20093,7 @@
       <c r="X193">
         <v>0</v>
       </c>
-      <c r="Y193">
+      <c r="Y193" s="1">
         <v>1</v>
       </c>
       <c r="Z193">
@@ -20115,7 +20117,7 @@
     </row>
     <row r="194" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>172</v>
+        <v>222</v>
       </c>
       <c r="B194">
         <v>0</v>
@@ -20186,7 +20188,7 @@
       <c r="X194">
         <v>0</v>
       </c>
-      <c r="Y194">
+      <c r="Y194" s="1">
         <v>0</v>
       </c>
       <c r="Z194">
@@ -20210,7 +20212,7 @@
     </row>
     <row r="195" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>173</v>
+        <v>223</v>
       </c>
       <c r="B195">
         <v>12</v>
@@ -20281,7 +20283,7 @@
       <c r="X195">
         <v>0</v>
       </c>
-      <c r="Y195">
+      <c r="Y195" s="1">
         <v>1</v>
       </c>
       <c r="Z195">
@@ -20305,7 +20307,7 @@
     </row>
     <row r="196" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>174</v>
+        <v>224</v>
       </c>
       <c r="B196">
         <v>0</v>
@@ -20376,7 +20378,7 @@
       <c r="X196">
         <v>10</v>
       </c>
-      <c r="Y196">
+      <c r="Y196" s="1">
         <v>7</v>
       </c>
       <c r="Z196">
@@ -20400,7 +20402,7 @@
     </row>
     <row r="197" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>175</v>
+        <v>225</v>
       </c>
       <c r="B197">
         <v>0</v>
@@ -20471,7 +20473,7 @@
       <c r="X197">
         <v>3</v>
       </c>
-      <c r="Y197">
+      <c r="Y197" s="1">
         <v>9</v>
       </c>
       <c r="Z197">
@@ -20495,7 +20497,7 @@
     </row>
     <row r="198" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>176</v>
+        <v>226</v>
       </c>
       <c r="B198">
         <v>5</v>
@@ -20566,7 +20568,7 @@
       <c r="X198">
         <v>0</v>
       </c>
-      <c r="Y198">
+      <c r="Y198" s="1">
         <v>4</v>
       </c>
       <c r="Z198">
@@ -20590,7 +20592,7 @@
     </row>
     <row r="199" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>177</v>
+        <v>227</v>
       </c>
       <c r="B199">
         <v>0</v>
@@ -20661,7 +20663,7 @@
       <c r="X199">
         <v>0</v>
       </c>
-      <c r="Y199">
+      <c r="Y199" s="1">
         <v>0</v>
       </c>
       <c r="Z199">
@@ -20685,7 +20687,7 @@
     </row>
     <row r="200" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>178</v>
+        <v>228</v>
       </c>
       <c r="B200">
         <v>27</v>
@@ -20756,7 +20758,7 @@
       <c r="X200">
         <v>5</v>
       </c>
-      <c r="Y200">
+      <c r="Y200" s="1">
         <v>7</v>
       </c>
       <c r="Z200">
@@ -20780,7 +20782,7 @@
     </row>
     <row r="201" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>179</v>
+        <v>229</v>
       </c>
       <c r="B201">
         <v>7</v>
@@ -20851,7 +20853,7 @@
       <c r="X201">
         <v>5</v>
       </c>
-      <c r="Y201">
+      <c r="Y201" s="1">
         <v>10</v>
       </c>
       <c r="Z201">
@@ -20875,7 +20877,7 @@
     </row>
     <row r="202" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>180</v>
+        <v>230</v>
       </c>
       <c r="B202">
         <v>0</v>
@@ -20946,7 +20948,7 @@
       <c r="X202">
         <v>2</v>
       </c>
-      <c r="Y202">
+      <c r="Y202" s="1">
         <v>6</v>
       </c>
       <c r="Z202">
@@ -20970,7 +20972,7 @@
     </row>
     <row r="203" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>181</v>
+        <v>231</v>
       </c>
       <c r="B203">
         <v>0</v>
@@ -21041,7 +21043,7 @@
       <c r="X203">
         <v>0</v>
       </c>
-      <c r="Y203">
+      <c r="Y203" s="1">
         <v>0</v>
       </c>
       <c r="Z203">
@@ -21065,7 +21067,7 @@
     </row>
     <row r="204" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>182</v>
+        <v>232</v>
       </c>
       <c r="B204">
         <v>0</v>
@@ -21136,7 +21138,7 @@
       <c r="X204">
         <v>4</v>
       </c>
-      <c r="Y204">
+      <c r="Y204" s="1">
         <v>3</v>
       </c>
       <c r="Z204">
@@ -21160,7 +21162,7 @@
     </row>
     <row r="205" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>183</v>
+        <v>233</v>
       </c>
       <c r="B205">
         <v>0</v>
@@ -21231,7 +21233,7 @@
       <c r="X205">
         <v>0</v>
       </c>
-      <c r="Y205">
+      <c r="Y205" s="1">
         <v>5</v>
       </c>
       <c r="Z205">
@@ -21255,7 +21257,7 @@
     </row>
     <row r="206" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>184</v>
+        <v>234</v>
       </c>
       <c r="B206">
         <v>0</v>
@@ -21326,7 +21328,7 @@
       <c r="X206">
         <v>0</v>
       </c>
-      <c r="Y206">
+      <c r="Y206" s="1">
         <v>0</v>
       </c>
       <c r="Z206">
@@ -21350,7 +21352,7 @@
     </row>
     <row r="207" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>185</v>
+        <v>235</v>
       </c>
       <c r="B207">
         <v>0</v>
@@ -21421,7 +21423,7 @@
       <c r="X207">
         <v>0</v>
       </c>
-      <c r="Y207">
+      <c r="Y207" s="1">
         <v>1</v>
       </c>
       <c r="Z207">
@@ -21445,7 +21447,7 @@
     </row>
     <row r="208" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>186</v>
+        <v>236</v>
       </c>
       <c r="B208">
         <v>0</v>
@@ -21516,7 +21518,7 @@
       <c r="X208">
         <v>2</v>
       </c>
-      <c r="Y208">
+      <c r="Y208" s="1">
         <v>2</v>
       </c>
       <c r="Z208">
@@ -21540,7 +21542,7 @@
     </row>
     <row r="209" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>187</v>
+        <v>237</v>
       </c>
       <c r="B209">
         <v>0</v>
@@ -21611,7 +21613,7 @@
       <c r="X209">
         <v>0</v>
       </c>
-      <c r="Y209">
+      <c r="Y209" s="1">
         <v>1</v>
       </c>
       <c r="Z209">
@@ -21635,7 +21637,7 @@
     </row>
     <row r="210" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>188</v>
+        <v>238</v>
       </c>
       <c r="B210">
         <v>0</v>
@@ -21706,7 +21708,7 @@
       <c r="X210">
         <v>1</v>
       </c>
-      <c r="Y210">
+      <c r="Y210" s="1">
         <v>1</v>
       </c>
       <c r="Z210">
@@ -21730,7 +21732,7 @@
     </row>
     <row r="211" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>189</v>
+        <v>239</v>
       </c>
       <c r="B211">
         <v>0</v>
@@ -21801,7 +21803,7 @@
       <c r="X211">
         <v>1</v>
       </c>
-      <c r="Y211">
+      <c r="Y211" s="1">
         <v>5</v>
       </c>
       <c r="Z211">
@@ -21825,7 +21827,7 @@
     </row>
     <row r="212" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>190</v>
+        <v>240</v>
       </c>
       <c r="B212">
         <v>0</v>
@@ -21896,7 +21898,7 @@
       <c r="X212">
         <v>3</v>
       </c>
-      <c r="Y212">
+      <c r="Y212" s="1">
         <v>0</v>
       </c>
       <c r="Z212">
@@ -21920,7 +21922,7 @@
     </row>
     <row r="213" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>191</v>
+        <v>241</v>
       </c>
       <c r="B213">
         <v>0</v>
@@ -21991,7 +21993,7 @@
       <c r="X213">
         <v>0</v>
       </c>
-      <c r="Y213">
+      <c r="Y213" s="1">
         <v>0</v>
       </c>
       <c r="Z213">
@@ -22015,7 +22017,7 @@
     </row>
     <row r="214" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>192</v>
+        <v>242</v>
       </c>
       <c r="B214">
         <v>0</v>
@@ -22086,7 +22088,7 @@
       <c r="X214">
         <v>1</v>
       </c>
-      <c r="Y214">
+      <c r="Y214" s="1">
         <v>1</v>
       </c>
       <c r="Z214">
@@ -22110,7 +22112,7 @@
     </row>
     <row r="215" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>193</v>
+        <v>243</v>
       </c>
       <c r="B215">
         <v>0</v>
@@ -22181,7 +22183,7 @@
       <c r="X215">
         <v>0</v>
       </c>
-      <c r="Y215">
+      <c r="Y215" s="1">
         <v>0</v>
       </c>
       <c r="Z215">
@@ -22205,7 +22207,7 @@
     </row>
     <row r="216" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>194</v>
+        <v>244</v>
       </c>
       <c r="B216">
         <v>0</v>
@@ -22276,7 +22278,7 @@
       <c r="X216">
         <v>0</v>
       </c>
-      <c r="Y216">
+      <c r="Y216" s="1">
         <v>1</v>
       </c>
       <c r="Z216">
@@ -22300,7 +22302,7 @@
     </row>
     <row r="217" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>195</v>
+        <v>245</v>
       </c>
       <c r="B217">
         <v>0</v>
@@ -22371,7 +22373,7 @@
       <c r="X217">
         <v>0</v>
       </c>
-      <c r="Y217">
+      <c r="Y217" s="1">
         <v>0</v>
       </c>
       <c r="Z217">
@@ -22395,7 +22397,7 @@
     </row>
     <row r="218" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>196</v>
+        <v>246</v>
       </c>
       <c r="B218">
         <v>0</v>
@@ -22466,7 +22468,7 @@
       <c r="X218">
         <v>0</v>
       </c>
-      <c r="Y218">
+      <c r="Y218" s="1">
         <v>1</v>
       </c>
       <c r="Z218">
@@ -22490,7 +22492,7 @@
     </row>
     <row r="219" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>197</v>
+        <v>247</v>
       </c>
       <c r="B219">
         <v>0</v>
@@ -22561,7 +22563,7 @@
       <c r="X219">
         <v>0</v>
       </c>
-      <c r="Y219">
+      <c r="Y219" s="1">
         <v>0</v>
       </c>
       <c r="Z219">
@@ -22585,7 +22587,7 @@
     </row>
     <row r="220" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>198</v>
+        <v>248</v>
       </c>
       <c r="B220">
         <v>0</v>
@@ -22656,7 +22658,7 @@
       <c r="X220">
         <v>0</v>
       </c>
-      <c r="Y220">
+      <c r="Y220" s="1">
         <v>0</v>
       </c>
       <c r="Z220">
@@ -22680,7 +22682,7 @@
     </row>
     <row r="221" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>199</v>
+        <v>249</v>
       </c>
       <c r="B221">
         <v>0</v>
@@ -22751,7 +22753,7 @@
       <c r="X221">
         <v>0</v>
       </c>
-      <c r="Y221">
+      <c r="Y221" s="1">
         <v>0</v>
       </c>
       <c r="Z221">
@@ -22775,7 +22777,7 @@
     </row>
     <row r="222" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="B222">
         <v>0</v>
@@ -22846,7 +22848,7 @@
       <c r="X222">
         <v>0</v>
       </c>
-      <c r="Y222">
+      <c r="Y222" s="1">
         <v>0</v>
       </c>
       <c r="Z222">
@@ -22870,7 +22872,7 @@
     </row>
     <row r="223" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="B223">
         <v>0</v>
@@ -22941,7 +22943,7 @@
       <c r="X223">
         <v>1</v>
       </c>
-      <c r="Y223">
+      <c r="Y223" s="1">
         <v>0</v>
       </c>
       <c r="Z223">
@@ -22965,7 +22967,7 @@
     </row>
     <row r="224" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>202</v>
+        <v>252</v>
       </c>
       <c r="B224">
         <v>0</v>
@@ -23036,7 +23038,7 @@
       <c r="X224">
         <v>0</v>
       </c>
-      <c r="Y224">
+      <c r="Y224" s="1">
         <v>0</v>
       </c>
       <c r="Z224">
@@ -23060,7 +23062,7 @@
     </row>
     <row r="225" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>203</v>
+        <v>253</v>
       </c>
       <c r="B225">
         <v>0</v>
@@ -23131,7 +23133,7 @@
       <c r="X225">
         <v>1</v>
       </c>
-      <c r="Y225">
+      <c r="Y225" s="1">
         <v>0</v>
       </c>
       <c r="Z225">
@@ -23155,7 +23157,7 @@
     </row>
     <row r="226" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>204</v>
+        <v>254</v>
       </c>
       <c r="B226">
         <v>0</v>
@@ -23226,7 +23228,7 @@
       <c r="X226">
         <v>0</v>
       </c>
-      <c r="Y226">
+      <c r="Y226" s="1">
         <v>0</v>
       </c>
       <c r="Z226">
@@ -23250,7 +23252,7 @@
     </row>
     <row r="227" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>205</v>
+        <v>255</v>
       </c>
       <c r="B227">
         <v>0</v>
@@ -23321,7 +23323,7 @@
       <c r="X227">
         <v>2</v>
       </c>
-      <c r="Y227">
+      <c r="Y227" s="1">
         <v>0</v>
       </c>
       <c r="Z227">
@@ -23345,7 +23347,7 @@
     </row>
     <row r="228" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>206</v>
+        <v>256</v>
       </c>
       <c r="B228">
         <v>0</v>
@@ -23416,7 +23418,7 @@
       <c r="X228">
         <v>0</v>
       </c>
-      <c r="Y228">
+      <c r="Y228" s="1">
         <v>0</v>
       </c>
       <c r="Z228">
@@ -23440,7 +23442,7 @@
     </row>
     <row r="229" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>207</v>
+        <v>257</v>
       </c>
       <c r="B229">
         <v>0</v>
@@ -23511,7 +23513,7 @@
       <c r="X229">
         <v>0</v>
       </c>
-      <c r="Y229">
+      <c r="Y229" s="1">
         <v>0</v>
       </c>
       <c r="Z229">
@@ -23535,7 +23537,7 @@
     </row>
     <row r="230" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>208</v>
+        <v>258</v>
       </c>
       <c r="B230">
         <v>0</v>
@@ -23606,7 +23608,7 @@
       <c r="X230">
         <v>13</v>
       </c>
-      <c r="Y230">
+      <c r="Y230" s="1">
         <v>0</v>
       </c>
       <c r="Z230">
@@ -23630,7 +23632,7 @@
     </row>
     <row r="231" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>209</v>
+        <v>259</v>
       </c>
       <c r="B231">
         <v>0</v>
@@ -23701,7 +23703,7 @@
       <c r="X231">
         <v>0</v>
       </c>
-      <c r="Y231">
+      <c r="Y231" s="1">
         <v>0</v>
       </c>
       <c r="Z231">
@@ -23725,7 +23727,7 @@
     </row>
     <row r="232" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>210</v>
+        <v>260</v>
       </c>
       <c r="B232">
         <v>0</v>
@@ -23796,7 +23798,7 @@
       <c r="X232">
         <v>0</v>
       </c>
-      <c r="Y232">
+      <c r="Y232" s="1">
         <v>0</v>
       </c>
       <c r="Z232">
@@ -23820,7 +23822,7 @@
     </row>
     <row r="233" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>211</v>
+        <v>261</v>
       </c>
       <c r="B233">
         <v>0</v>
@@ -23891,7 +23893,7 @@
       <c r="X233">
         <v>0</v>
       </c>
-      <c r="Y233">
+      <c r="Y233" s="1">
         <v>0</v>
       </c>
       <c r="Z233">
@@ -23915,7 +23917,7 @@
     </row>
     <row r="234" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>212</v>
+        <v>262</v>
       </c>
       <c r="B234">
         <v>0</v>
@@ -23986,7 +23988,7 @@
       <c r="X234">
         <v>2</v>
       </c>
-      <c r="Y234">
+      <c r="Y234" s="1">
         <v>0</v>
       </c>
       <c r="Z234">
@@ -24010,7 +24012,7 @@
     </row>
     <row r="235" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>213</v>
+        <v>263</v>
       </c>
       <c r="B235">
         <v>0</v>
@@ -24081,7 +24083,7 @@
       <c r="X235">
         <v>7</v>
       </c>
-      <c r="Y235">
+      <c r="Y235" s="1">
         <v>0</v>
       </c>
       <c r="Z235">
@@ -24105,7 +24107,7 @@
     </row>
     <row r="236" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>214</v>
+        <v>264</v>
       </c>
       <c r="B236">
         <v>0</v>
@@ -24176,7 +24178,7 @@
       <c r="X236">
         <v>1</v>
       </c>
-      <c r="Y236">
+      <c r="Y236" s="1">
         <v>0</v>
       </c>
       <c r="Z236">
@@ -24200,7 +24202,7 @@
     </row>
     <row r="237" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>215</v>
+        <v>265</v>
       </c>
       <c r="B237">
         <v>0</v>
@@ -24271,7 +24273,7 @@
       <c r="X237">
         <v>1</v>
       </c>
-      <c r="Y237">
+      <c r="Y237" s="1">
         <v>0</v>
       </c>
       <c r="Z237">
@@ -24295,7 +24297,7 @@
     </row>
     <row r="238" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>216</v>
+        <v>266</v>
       </c>
       <c r="B238">
         <v>0</v>
@@ -24366,7 +24368,7 @@
       <c r="X238">
         <v>1</v>
       </c>
-      <c r="Y238">
+      <c r="Y238" s="1">
         <v>0</v>
       </c>
       <c r="Z238">
@@ -24390,7 +24392,7 @@
     </row>
     <row r="239" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>217</v>
+        <v>267</v>
       </c>
       <c r="B239">
         <v>0</v>
@@ -24461,7 +24463,7 @@
       <c r="X239">
         <v>3</v>
       </c>
-      <c r="Y239">
+      <c r="Y239" s="1">
         <v>0</v>
       </c>
       <c r="Z239">
@@ -24485,7 +24487,7 @@
     </row>
     <row r="240" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>218</v>
+        <v>268</v>
       </c>
       <c r="B240">
         <v>0</v>
@@ -24556,7 +24558,7 @@
       <c r="X240">
         <v>9</v>
       </c>
-      <c r="Y240">
+      <c r="Y240" s="1">
         <v>0</v>
       </c>
       <c r="Z240">
@@ -24580,7 +24582,7 @@
     </row>
     <row r="241" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>219</v>
+        <v>269</v>
       </c>
       <c r="B241">
         <v>0</v>
@@ -24651,7 +24653,7 @@
       <c r="X241">
         <v>0</v>
       </c>
-      <c r="Y241">
+      <c r="Y241" s="1">
         <v>0</v>
       </c>
       <c r="Z241">
@@ -24675,7 +24677,7 @@
     </row>
     <row r="242" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>220</v>
+        <v>270</v>
       </c>
       <c r="B242">
         <v>0</v>
@@ -24746,7 +24748,7 @@
       <c r="X242">
         <v>3</v>
       </c>
-      <c r="Y242">
+      <c r="Y242" s="1">
         <v>1</v>
       </c>
       <c r="Z242">
@@ -24770,7 +24772,7 @@
     </row>
     <row r="243" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>221</v>
+        <v>271</v>
       </c>
       <c r="B243">
         <v>0</v>
@@ -24841,7 +24843,7 @@
       <c r="X243">
         <v>11</v>
       </c>
-      <c r="Y243">
+      <c r="Y243" s="1">
         <v>0</v>
       </c>
       <c r="Z243">
@@ -24865,7 +24867,7 @@
     </row>
     <row r="244" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>222</v>
+        <v>272</v>
       </c>
       <c r="B244">
         <v>0</v>
@@ -24936,7 +24938,7 @@
       <c r="X244">
         <v>10</v>
       </c>
-      <c r="Y244">
+      <c r="Y244" s="1">
         <v>0</v>
       </c>
       <c r="Z244">
@@ -24960,7 +24962,7 @@
     </row>
     <row r="245" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>223</v>
+        <v>273</v>
       </c>
       <c r="B245">
         <v>0</v>
@@ -25031,7 +25033,7 @@
       <c r="X245">
         <v>1</v>
       </c>
-      <c r="Y245">
+      <c r="Y245" s="1">
         <v>0</v>
       </c>
       <c r="Z245">
@@ -25055,7 +25057,7 @@
     </row>
     <row r="246" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>224</v>
+        <v>274</v>
       </c>
       <c r="B246">
         <v>0</v>
@@ -25126,7 +25128,7 @@
       <c r="X246">
         <v>0</v>
       </c>
-      <c r="Y246">
+      <c r="Y246" s="1">
         <v>0</v>
       </c>
       <c r="Z246">
@@ -25150,7 +25152,7 @@
     </row>
     <row r="247" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>225</v>
+        <v>275</v>
       </c>
       <c r="B247">
         <v>0</v>
@@ -25221,7 +25223,7 @@
       <c r="X247">
         <v>0</v>
       </c>
-      <c r="Y247">
+      <c r="Y247" s="1">
         <v>0</v>
       </c>
       <c r="Z247">
@@ -25245,7 +25247,7 @@
     </row>
     <row r="248" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>226</v>
+        <v>276</v>
       </c>
       <c r="B248">
         <v>0</v>
@@ -25316,7 +25318,7 @@
       <c r="X248">
         <v>0</v>
       </c>
-      <c r="Y248">
+      <c r="Y248" s="1">
         <v>0</v>
       </c>
       <c r="Z248">
@@ -25340,7 +25342,7 @@
     </row>
     <row r="249" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>227</v>
+        <v>277</v>
       </c>
       <c r="B249">
         <v>0</v>
@@ -25411,7 +25413,7 @@
       <c r="X249">
         <v>10</v>
       </c>
-      <c r="Y249">
+      <c r="Y249" s="1">
         <v>1</v>
       </c>
       <c r="Z249">
@@ -25435,7 +25437,7 @@
     </row>
     <row r="250" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>228</v>
+        <v>278</v>
       </c>
       <c r="B250">
         <v>0</v>
@@ -25506,7 +25508,7 @@
       <c r="X250">
         <v>3</v>
       </c>
-      <c r="Y250">
+      <c r="Y250" s="1">
         <v>0</v>
       </c>
       <c r="Z250">
@@ -25530,7 +25532,7 @@
     </row>
     <row r="251" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>229</v>
+        <v>279</v>
       </c>
       <c r="B251">
         <v>0</v>
@@ -25601,7 +25603,7 @@
       <c r="X251">
         <v>2</v>
       </c>
-      <c r="Y251">
+      <c r="Y251" s="1">
         <v>0</v>
       </c>
       <c r="Z251">
@@ -25625,7 +25627,7 @@
     </row>
     <row r="252" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>230</v>
+        <v>280</v>
       </c>
       <c r="B252">
         <v>0</v>
@@ -25696,7 +25698,7 @@
       <c r="X252">
         <v>0</v>
       </c>
-      <c r="Y252">
+      <c r="Y252" s="1">
         <v>0</v>
       </c>
       <c r="Z252">
@@ -25720,7 +25722,7 @@
     </row>
     <row r="253" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>231</v>
+        <v>281</v>
       </c>
       <c r="B253">
         <v>0</v>
@@ -25791,7 +25793,7 @@
       <c r="X253">
         <v>11</v>
       </c>
-      <c r="Y253">
+      <c r="Y253" s="1">
         <v>0</v>
       </c>
       <c r="Z253">
@@ -25815,7 +25817,7 @@
     </row>
     <row r="254" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>232</v>
+        <v>282</v>
       </c>
       <c r="B254">
         <v>0</v>
@@ -25886,7 +25888,7 @@
       <c r="X254">
         <v>8</v>
       </c>
-      <c r="Y254">
+      <c r="Y254" s="1">
         <v>0</v>
       </c>
       <c r="Z254">
@@ -25910,7 +25912,7 @@
     </row>
     <row r="255" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>233</v>
+        <v>283</v>
       </c>
       <c r="B255">
         <v>0</v>
@@ -25981,7 +25983,7 @@
       <c r="X255">
         <v>8</v>
       </c>
-      <c r="Y255">
+      <c r="Y255" s="1">
         <v>0</v>
       </c>
       <c r="Z255">
@@ -26005,7 +26007,7 @@
     </row>
     <row r="256" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>234</v>
+        <v>284</v>
       </c>
       <c r="B256">
         <v>0</v>
@@ -26076,7 +26078,7 @@
       <c r="X256">
         <v>1</v>
       </c>
-      <c r="Y256">
+      <c r="Y256" s="1">
         <v>0</v>
       </c>
       <c r="Z256">
@@ -26100,7 +26102,7 @@
     </row>
     <row r="257" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>235</v>
+        <v>285</v>
       </c>
       <c r="B257">
         <v>0</v>
@@ -26171,7 +26173,7 @@
       <c r="X257">
         <v>16</v>
       </c>
-      <c r="Y257">
+      <c r="Y257" s="1">
         <v>2</v>
       </c>
       <c r="Z257">
@@ -26195,7 +26197,7 @@
     </row>
     <row r="258" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>236</v>
+        <v>286</v>
       </c>
       <c r="B258">
         <v>0</v>
@@ -26266,7 +26268,7 @@
       <c r="X258">
         <v>6</v>
       </c>
-      <c r="Y258">
+      <c r="Y258" s="1">
         <v>8</v>
       </c>
       <c r="Z258">
@@ -26290,7 +26292,7 @@
     </row>
     <row r="259" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
-        <v>237</v>
+        <v>287</v>
       </c>
       <c r="B259">
         <v>1</v>
@@ -26361,7 +26363,7 @@
       <c r="X259">
         <v>10</v>
       </c>
-      <c r="Y259">
+      <c r="Y259" s="1">
         <v>7</v>
       </c>
       <c r="Z259">
@@ -26385,7 +26387,7 @@
     </row>
     <row r="260" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>238</v>
+        <v>288</v>
       </c>
       <c r="B260">
         <v>0</v>
@@ -26456,7 +26458,7 @@
       <c r="X260">
         <v>5</v>
       </c>
-      <c r="Y260">
+      <c r="Y260" s="1">
         <v>3</v>
       </c>
       <c r="Z260">
@@ -26480,7 +26482,7 @@
     </row>
     <row r="261" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
-        <v>239</v>
+        <v>289</v>
       </c>
       <c r="B261">
         <v>0</v>
@@ -26551,7 +26553,7 @@
       <c r="X261">
         <v>22</v>
       </c>
-      <c r="Y261">
+      <c r="Y261" s="1">
         <v>0</v>
       </c>
       <c r="Z261">
@@ -26575,7 +26577,7 @@
     </row>
     <row r="262" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
-        <v>240</v>
+        <v>290</v>
       </c>
       <c r="B262">
         <v>0</v>
@@ -26646,7 +26648,7 @@
       <c r="X262">
         <v>12</v>
       </c>
-      <c r="Y262">
+      <c r="Y262" s="1">
         <v>2</v>
       </c>
       <c r="Z262">
@@ -26670,7 +26672,7 @@
     </row>
     <row r="263" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
-        <v>241</v>
+        <v>291</v>
       </c>
       <c r="B263">
         <v>0</v>
@@ -26741,7 +26743,7 @@
       <c r="X263">
         <v>4</v>
       </c>
-      <c r="Y263">
+      <c r="Y263" s="1">
         <v>1</v>
       </c>
       <c r="Z263">
@@ -26765,7 +26767,7 @@
     </row>
     <row r="264" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
-        <v>242</v>
+        <v>292</v>
       </c>
       <c r="B264">
         <v>0</v>
@@ -26836,7 +26838,7 @@
       <c r="X264">
         <v>0</v>
       </c>
-      <c r="Y264">
+      <c r="Y264" s="1">
         <v>0</v>
       </c>
       <c r="Z264">
@@ -26860,7 +26862,7 @@
     </row>
     <row r="265" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>243</v>
+        <v>293</v>
       </c>
       <c r="B265">
         <v>0</v>
@@ -26931,7 +26933,7 @@
       <c r="X265">
         <v>12</v>
       </c>
-      <c r="Y265">
+      <c r="Y265" s="1">
         <v>0</v>
       </c>
       <c r="Z265">
@@ -26955,7 +26957,7 @@
     </row>
     <row r="266" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
-        <v>244</v>
+        <v>294</v>
       </c>
       <c r="B266">
         <v>0</v>
@@ -27026,7 +27028,7 @@
       <c r="X266">
         <v>18</v>
       </c>
-      <c r="Y266">
+      <c r="Y266" s="1">
         <v>0</v>
       </c>
       <c r="Z266">
@@ -27050,7 +27052,7 @@
     </row>
     <row r="267" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
-        <v>245</v>
+        <v>295</v>
       </c>
       <c r="B267">
         <v>0</v>
@@ -27121,7 +27123,7 @@
       <c r="X267">
         <v>0</v>
       </c>
-      <c r="Y267">
+      <c r="Y267" s="1">
         <v>0</v>
       </c>
       <c r="Z267">
@@ -27145,7 +27147,7 @@
     </row>
     <row r="268" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
-        <v>246</v>
+        <v>296</v>
       </c>
       <c r="B268">
         <v>0</v>
@@ -27216,7 +27218,7 @@
       <c r="X268">
         <v>1</v>
       </c>
-      <c r="Y268">
+      <c r="Y268" s="1">
         <v>0</v>
       </c>
       <c r="Z268">
@@ -27240,7 +27242,7 @@
     </row>
     <row r="269" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
-        <v>247</v>
+        <v>297</v>
       </c>
       <c r="B269">
         <v>0</v>
@@ -27311,7 +27313,7 @@
       <c r="X269">
         <v>51</v>
       </c>
-      <c r="Y269">
+      <c r="Y269" s="1">
         <v>0</v>
       </c>
       <c r="Z269">
@@ -27335,7 +27337,7 @@
     </row>
     <row r="270" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
-        <v>248</v>
+        <v>298</v>
       </c>
       <c r="B270">
         <v>0</v>
@@ -27406,7 +27408,7 @@
       <c r="X270">
         <v>21</v>
       </c>
-      <c r="Y270">
+      <c r="Y270" s="1">
         <v>0</v>
       </c>
       <c r="Z270">
@@ -27430,7 +27432,7 @@
     </row>
     <row r="271" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
-        <v>249</v>
+        <v>299</v>
       </c>
       <c r="B271">
         <v>0</v>
@@ -27501,7 +27503,7 @@
       <c r="X271">
         <v>32</v>
       </c>
-      <c r="Y271">
+      <c r="Y271" s="1">
         <v>0</v>
       </c>
       <c r="Z271">
@@ -27525,7 +27527,7 @@
     </row>
     <row r="272" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="B272">
         <v>0</v>
@@ -27596,7 +27598,7 @@
       <c r="X272">
         <v>33</v>
       </c>
-      <c r="Y272">
+      <c r="Y272" s="1">
         <v>0</v>
       </c>
       <c r="Z272">
@@ -27620,7 +27622,7 @@
     </row>
     <row r="273" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="B273">
         <v>0</v>
@@ -27691,7 +27693,7 @@
       <c r="X273">
         <v>2</v>
       </c>
-      <c r="Y273">
+      <c r="Y273" s="1">
         <v>0</v>
       </c>
       <c r="Z273">
@@ -27715,7 +27717,7 @@
     </row>
     <row r="274" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>252</v>
+        <v>302</v>
       </c>
       <c r="B274">
         <v>0</v>
@@ -27786,7 +27788,7 @@
       <c r="X274">
         <v>0</v>
       </c>
-      <c r="Y274">
+      <c r="Y274" s="1">
         <v>0</v>
       </c>
       <c r="Z274">
@@ -27810,7 +27812,7 @@
     </row>
     <row r="275" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
-        <v>253</v>
+        <v>303</v>
       </c>
       <c r="B275">
         <v>0</v>
@@ -27881,7 +27883,7 @@
       <c r="X275">
         <v>1</v>
       </c>
-      <c r="Y275">
+      <c r="Y275" s="1">
         <v>0</v>
       </c>
       <c r="Z275">
@@ -27905,7 +27907,7 @@
     </row>
     <row r="276" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
-        <v>254</v>
+        <v>304</v>
       </c>
       <c r="B276">
         <v>0</v>
@@ -27976,7 +27978,7 @@
       <c r="X276">
         <v>0</v>
       </c>
-      <c r="Y276">
+      <c r="Y276" s="1">
         <v>0</v>
       </c>
       <c r="Z276">
@@ -28000,7 +28002,7 @@
     </row>
     <row r="277" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
-        <v>255</v>
+        <v>305</v>
       </c>
       <c r="B277">
         <v>0</v>
@@ -28071,7 +28073,7 @@
       <c r="X277">
         <v>0</v>
       </c>
-      <c r="Y277">
+      <c r="Y277" s="1">
         <v>0</v>
       </c>
       <c r="Z277">
@@ -28095,7 +28097,7 @@
     </row>
     <row r="278" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
-        <v>256</v>
+        <v>306</v>
       </c>
       <c r="B278">
         <v>0</v>
@@ -28166,7 +28168,7 @@
       <c r="X278">
         <v>11</v>
       </c>
-      <c r="Y278">
+      <c r="Y278" s="1">
         <v>2</v>
       </c>
       <c r="Z278">
@@ -28190,7 +28192,7 @@
     </row>
     <row r="279" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
-        <v>257</v>
+        <v>307</v>
       </c>
       <c r="B279">
         <v>0</v>
@@ -28261,7 +28263,7 @@
       <c r="X279">
         <v>0</v>
       </c>
-      <c r="Y279">
+      <c r="Y279" s="1">
         <v>1</v>
       </c>
       <c r="Z279">
@@ -28285,7 +28287,7 @@
     </row>
     <row r="280" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
-        <v>258</v>
+        <v>308</v>
       </c>
       <c r="B280">
         <v>0</v>
@@ -28356,7 +28358,7 @@
       <c r="X280">
         <v>0</v>
       </c>
-      <c r="Y280">
+      <c r="Y280" s="1">
         <v>1</v>
       </c>
       <c r="Z280">
@@ -28380,7 +28382,7 @@
     </row>
     <row r="281" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
-        <v>259</v>
+        <v>309</v>
       </c>
       <c r="B281">
         <v>0</v>
@@ -28451,7 +28453,7 @@
       <c r="X281">
         <v>0</v>
       </c>
-      <c r="Y281">
+      <c r="Y281" s="1">
         <v>0</v>
       </c>
       <c r="Z281">
@@ -28475,7 +28477,7 @@
     </row>
     <row r="282" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
-        <v>260</v>
+        <v>310</v>
       </c>
       <c r="B282">
         <v>0</v>
@@ -28546,7 +28548,7 @@
       <c r="X282">
         <v>0</v>
       </c>
-      <c r="Y282">
+      <c r="Y282" s="1">
         <v>0</v>
       </c>
       <c r="Z282">
@@ -28570,7 +28572,7 @@
     </row>
     <row r="283" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
-        <v>261</v>
+        <v>311</v>
       </c>
       <c r="B283">
         <v>0</v>
@@ -28641,7 +28643,7 @@
       <c r="X283">
         <v>2</v>
       </c>
-      <c r="Y283">
+      <c r="Y283" s="1">
         <v>1</v>
       </c>
       <c r="Z283">
@@ -28665,7 +28667,7 @@
     </row>
     <row r="284" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
-        <v>262</v>
+        <v>312</v>
       </c>
       <c r="B284">
         <v>0</v>
@@ -28736,7 +28738,7 @@
       <c r="X284">
         <v>0</v>
       </c>
-      <c r="Y284">
+      <c r="Y284" s="1">
         <v>0</v>
       </c>
       <c r="Z284">
@@ -28760,7 +28762,7 @@
     </row>
     <row r="285" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
-        <v>263</v>
+        <v>313</v>
       </c>
       <c r="B285">
         <v>0</v>
@@ -28831,7 +28833,7 @@
       <c r="X285">
         <v>0</v>
       </c>
-      <c r="Y285">
+      <c r="Y285" s="1">
         <v>8</v>
       </c>
       <c r="Z285">
@@ -28855,7 +28857,7 @@
     </row>
     <row r="286" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
-        <v>264</v>
+        <v>314</v>
       </c>
       <c r="B286">
         <v>0</v>
@@ -28926,7 +28928,7 @@
       <c r="X286">
         <v>0</v>
       </c>
-      <c r="Y286">
+      <c r="Y286" s="1">
         <v>0</v>
       </c>
       <c r="Z286">
@@ -28950,7 +28952,7 @@
     </row>
     <row r="287" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
-        <v>265</v>
+        <v>315</v>
       </c>
       <c r="B287">
         <v>0</v>
@@ -29021,7 +29023,7 @@
       <c r="X287">
         <v>0</v>
       </c>
-      <c r="Y287">
+      <c r="Y287" s="1">
         <v>0</v>
       </c>
       <c r="Z287">
@@ -29045,7 +29047,7 @@
     </row>
     <row r="288" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
-        <v>266</v>
+        <v>316</v>
       </c>
       <c r="B288">
         <v>0</v>
@@ -29116,7 +29118,7 @@
       <c r="X288">
         <v>0</v>
       </c>
-      <c r="Y288">
+      <c r="Y288" s="1">
         <v>0</v>
       </c>
       <c r="Z288">
@@ -29140,7 +29142,7 @@
     </row>
     <row r="289" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
-        <v>267</v>
+        <v>317</v>
       </c>
       <c r="B289">
         <v>0</v>
@@ -29211,7 +29213,7 @@
       <c r="X289">
         <v>8</v>
       </c>
-      <c r="Y289">
+      <c r="Y289" s="1">
         <v>1</v>
       </c>
       <c r="Z289">
@@ -29235,7 +29237,7 @@
     </row>
     <row r="290" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
-        <v>268</v>
+        <v>318</v>
       </c>
       <c r="B290">
         <v>0</v>
@@ -29306,7 +29308,7 @@
       <c r="X290">
         <v>0</v>
       </c>
-      <c r="Y290">
+      <c r="Y290" s="1">
         <v>0</v>
       </c>
       <c r="Z290">
@@ -29330,7 +29332,7 @@
     </row>
     <row r="291" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
-        <v>269</v>
+        <v>319</v>
       </c>
       <c r="B291">
         <v>0</v>
@@ -29401,7 +29403,7 @@
       <c r="X291">
         <v>3</v>
       </c>
-      <c r="Y291">
+      <c r="Y291" s="1">
         <v>2</v>
       </c>
       <c r="Z291">
@@ -29425,7 +29427,7 @@
     </row>
     <row r="292" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
-        <v>270</v>
+        <v>320</v>
       </c>
       <c r="B292">
         <v>0</v>
@@ -29496,7 +29498,7 @@
       <c r="X292">
         <v>2</v>
       </c>
-      <c r="Y292">
+      <c r="Y292" s="1">
         <v>0</v>
       </c>
       <c r="Z292">
@@ -29520,7 +29522,7 @@
     </row>
     <row r="293" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
-        <v>271</v>
+        <v>321</v>
       </c>
       <c r="B293">
         <v>6</v>
@@ -29591,7 +29593,7 @@
       <c r="X293">
         <v>0</v>
       </c>
-      <c r="Y293">
+      <c r="Y293" s="1">
         <v>5</v>
       </c>
       <c r="Z293">
@@ -29615,7 +29617,7 @@
     </row>
     <row r="294" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
-        <v>272</v>
+        <v>322</v>
       </c>
       <c r="B294">
         <v>0</v>
@@ -29686,7 +29688,7 @@
       <c r="X294">
         <v>2</v>
       </c>
-      <c r="Y294">
+      <c r="Y294" s="1">
         <v>7</v>
       </c>
       <c r="Z294">
@@ -29710,7 +29712,7 @@
     </row>
     <row r="295" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
-        <v>273</v>
+        <v>323</v>
       </c>
       <c r="B295">
         <v>0</v>
@@ -29781,7 +29783,7 @@
       <c r="X295">
         <v>13</v>
       </c>
-      <c r="Y295">
+      <c r="Y295" s="1">
         <v>8</v>
       </c>
       <c r="Z295">
@@ -29805,7 +29807,7 @@
     </row>
     <row r="296" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
-        <v>274</v>
+        <v>324</v>
       </c>
       <c r="B296">
         <v>0</v>
@@ -29876,7 +29878,7 @@
       <c r="X296">
         <v>8</v>
       </c>
-      <c r="Y296">
+      <c r="Y296" s="1">
         <v>8</v>
       </c>
       <c r="Z296">
@@ -29900,7 +29902,7 @@
     </row>
     <row r="297" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
-        <v>275</v>
+        <v>325</v>
       </c>
       <c r="B297">
         <v>0</v>
@@ -29971,7 +29973,7 @@
       <c r="X297">
         <v>3</v>
       </c>
-      <c r="Y297">
+      <c r="Y297" s="1">
         <v>2</v>
       </c>
       <c r="Z297">
@@ -29995,7 +29997,7 @@
     </row>
     <row r="298" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
-        <v>276</v>
+        <v>326</v>
       </c>
       <c r="B298">
         <v>0</v>
@@ -30066,7 +30068,7 @@
       <c r="X298">
         <v>5</v>
       </c>
-      <c r="Y298">
+      <c r="Y298" s="1">
         <v>0</v>
       </c>
       <c r="Z298">
@@ -30090,7 +30092,7 @@
     </row>
     <row r="299" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
-        <v>277</v>
+        <v>327</v>
       </c>
       <c r="B299">
         <v>0</v>
@@ -30161,7 +30163,7 @@
       <c r="X299">
         <v>0</v>
       </c>
-      <c r="Y299">
+      <c r="Y299" s="1">
         <v>0</v>
       </c>
       <c r="Z299">
@@ -30185,7 +30187,7 @@
     </row>
     <row r="300" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
-        <v>278</v>
+        <v>328</v>
       </c>
       <c r="B300">
         <v>0</v>
@@ -30256,7 +30258,7 @@
       <c r="X300">
         <v>0</v>
       </c>
-      <c r="Y300">
+      <c r="Y300" s="1">
         <v>1</v>
       </c>
       <c r="Z300">
@@ -30280,7 +30282,7 @@
     </row>
     <row r="301" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
-        <v>279</v>
+        <v>329</v>
       </c>
       <c r="B301">
         <v>0</v>
@@ -30351,7 +30353,7 @@
       <c r="X301">
         <v>11</v>
       </c>
-      <c r="Y301">
+      <c r="Y301" s="1">
         <v>0</v>
       </c>
       <c r="Z301">
@@ -30375,7 +30377,7 @@
     </row>
     <row r="302" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
-        <v>280</v>
+        <v>330</v>
       </c>
       <c r="B302">
         <v>0</v>
@@ -30446,7 +30448,7 @@
       <c r="X302">
         <v>10</v>
       </c>
-      <c r="Y302">
+      <c r="Y302" s="1">
         <v>6</v>
       </c>
       <c r="Z302">
@@ -30470,7 +30472,7 @@
     </row>
     <row r="303" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
-        <v>281</v>
+        <v>331</v>
       </c>
       <c r="B303">
         <v>1</v>
@@ -30541,7 +30543,7 @@
       <c r="X303">
         <v>4</v>
       </c>
-      <c r="Y303">
+      <c r="Y303" s="1">
         <v>1</v>
       </c>
       <c r="Z303">
@@ -30565,7 +30567,7 @@
     </row>
     <row r="304" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
-        <v>282</v>
+        <v>332</v>
       </c>
       <c r="B304">
         <v>0</v>
@@ -30636,7 +30638,7 @@
       <c r="X304">
         <v>17</v>
       </c>
-      <c r="Y304">
+      <c r="Y304" s="1">
         <v>10</v>
       </c>
       <c r="Z304">
@@ -30660,7 +30662,7 @@
     </row>
     <row r="305" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
-        <v>283</v>
+        <v>333</v>
       </c>
       <c r="B305">
         <v>0</v>
@@ -30731,7 +30733,7 @@
       <c r="X305">
         <v>2</v>
       </c>
-      <c r="Y305">
+      <c r="Y305" s="1">
         <v>7</v>
       </c>
       <c r="Z305">
@@ -30755,7 +30757,7 @@
     </row>
     <row r="306" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
-        <v>284</v>
+        <v>334</v>
       </c>
       <c r="B306">
         <v>0</v>
@@ -30826,7 +30828,7 @@
       <c r="X306">
         <v>3</v>
       </c>
-      <c r="Y306">
+      <c r="Y306" s="1">
         <v>1</v>
       </c>
       <c r="Z306">
@@ -30850,7 +30852,7 @@
     </row>
     <row r="307" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
-        <v>285</v>
+        <v>335</v>
       </c>
       <c r="B307">
         <v>0</v>
@@ -30921,7 +30923,7 @@
       <c r="X307">
         <v>9</v>
       </c>
-      <c r="Y307">
+      <c r="Y307" s="1">
         <v>1</v>
       </c>
       <c r="Z307">
@@ -30945,7 +30947,7 @@
     </row>
     <row r="308" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
-        <v>286</v>
+        <v>336</v>
       </c>
       <c r="B308">
         <v>0</v>
@@ -31016,7 +31018,7 @@
       <c r="X308">
         <v>7</v>
       </c>
-      <c r="Y308">
+      <c r="Y308" s="1">
         <v>2</v>
       </c>
       <c r="Z308">
@@ -31040,7 +31042,7 @@
     </row>
     <row r="309" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
-        <v>287</v>
+        <v>337</v>
       </c>
       <c r="B309">
         <v>0</v>
@@ -31111,7 +31113,7 @@
       <c r="X309">
         <v>0</v>
       </c>
-      <c r="Y309">
+      <c r="Y309" s="1">
         <v>0</v>
       </c>
       <c r="Z309">
@@ -31135,7 +31137,7 @@
     </row>
     <row r="310" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
-        <v>288</v>
+        <v>338</v>
       </c>
       <c r="B310">
         <v>0</v>
@@ -31206,7 +31208,7 @@
       <c r="X310">
         <v>0</v>
       </c>
-      <c r="Y310">
+      <c r="Y310" s="1">
         <v>0</v>
       </c>
       <c r="Z310">
@@ -31230,7 +31232,7 @@
     </row>
     <row r="311" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
-        <v>289</v>
+        <v>339</v>
       </c>
       <c r="B311">
         <v>0</v>
@@ -31301,7 +31303,7 @@
       <c r="X311">
         <v>0</v>
       </c>
-      <c r="Y311">
+      <c r="Y311" s="1">
         <v>0</v>
       </c>
       <c r="Z311">
@@ -31325,7 +31327,7 @@
     </row>
     <row r="312" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
-        <v>290</v>
+        <v>340</v>
       </c>
       <c r="B312">
         <v>0</v>
@@ -31396,7 +31398,7 @@
       <c r="X312">
         <v>0</v>
       </c>
-      <c r="Y312">
+      <c r="Y312" s="1">
         <v>3</v>
       </c>
       <c r="Z312">
@@ -31420,7 +31422,7 @@
     </row>
     <row r="313" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
-        <v>291</v>
+        <v>341</v>
       </c>
       <c r="B313">
         <v>0</v>
@@ -31491,7 +31493,7 @@
       <c r="X313">
         <v>1</v>
       </c>
-      <c r="Y313">
+      <c r="Y313" s="1">
         <v>23</v>
       </c>
       <c r="Z313">
@@ -31515,7 +31517,7 @@
     </row>
     <row r="314" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
-        <v>292</v>
+        <v>342</v>
       </c>
       <c r="B314">
         <v>0</v>
@@ -31586,7 +31588,7 @@
       <c r="X314">
         <v>1</v>
       </c>
-      <c r="Y314">
+      <c r="Y314" s="1">
         <v>13</v>
       </c>
       <c r="Z314">
@@ -31610,7 +31612,7 @@
     </row>
     <row r="315" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
-        <v>293</v>
+        <v>343</v>
       </c>
       <c r="B315">
         <v>0</v>
@@ -31681,7 +31683,7 @@
       <c r="X315">
         <v>1</v>
       </c>
-      <c r="Y315">
+      <c r="Y315" s="1">
         <v>15</v>
       </c>
       <c r="Z315">
@@ -31705,7 +31707,7 @@
     </row>
     <row r="316" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
-        <v>294</v>
+        <v>344</v>
       </c>
       <c r="B316">
         <v>0</v>
@@ -31776,7 +31778,7 @@
       <c r="X316">
         <v>1</v>
       </c>
-      <c r="Y316">
+      <c r="Y316" s="1">
         <v>6</v>
       </c>
       <c r="Z316">
@@ -31800,7 +31802,7 @@
     </row>
     <row r="317" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
-        <v>295</v>
+        <v>345</v>
       </c>
       <c r="B317">
         <v>0</v>
@@ -31871,7 +31873,7 @@
       <c r="X317">
         <v>2</v>
       </c>
-      <c r="Y317">
+      <c r="Y317" s="1">
         <v>6</v>
       </c>
       <c r="Z317">
@@ -31895,7 +31897,7 @@
     </row>
     <row r="318" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
-        <v>296</v>
+        <v>346</v>
       </c>
       <c r="B318">
         <v>0</v>
@@ -31966,7 +31968,7 @@
       <c r="X318">
         <v>5</v>
       </c>
-      <c r="Y318">
+      <c r="Y318" s="1">
         <v>3</v>
       </c>
       <c r="Z318">
@@ -31990,7 +31992,7 @@
     </row>
     <row r="319" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
-        <v>297</v>
+        <v>347</v>
       </c>
       <c r="B319">
         <v>0</v>
@@ -32061,7 +32063,7 @@
       <c r="X319">
         <v>6</v>
       </c>
-      <c r="Y319">
+      <c r="Y319" s="1">
         <v>0</v>
       </c>
       <c r="Z319">
@@ -32085,7 +32087,7 @@
     </row>
     <row r="320" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
-        <v>298</v>
+        <v>348</v>
       </c>
       <c r="B320">
         <v>0</v>
@@ -32156,7 +32158,7 @@
       <c r="X320">
         <v>6</v>
       </c>
-      <c r="Y320">
+      <c r="Y320" s="1">
         <v>3</v>
       </c>
       <c r="Z320">
@@ -32180,7 +32182,7 @@
     </row>
     <row r="321" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
-        <v>299</v>
+        <v>349</v>
       </c>
       <c r="B321">
         <v>0</v>
@@ -32251,7 +32253,7 @@
       <c r="X321">
         <v>1</v>
       </c>
-      <c r="Y321">
+      <c r="Y321" s="1">
         <v>0</v>
       </c>
       <c r="Z321">
@@ -32275,7 +32277,7 @@
     </row>
     <row r="322" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="B322">
         <v>0</v>
@@ -32346,7 +32348,7 @@
       <c r="X322">
         <v>6</v>
       </c>
-      <c r="Y322">
+      <c r="Y322" s="1">
         <v>17</v>
       </c>
       <c r="Z322">
@@ -32370,7 +32372,7 @@
     </row>
     <row r="323" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="B323">
         <v>0</v>
@@ -32441,7 +32443,7 @@
       <c r="X323">
         <v>2</v>
       </c>
-      <c r="Y323">
+      <c r="Y323" s="1">
         <v>0</v>
       </c>
       <c r="Z323">
@@ -32465,7 +32467,7 @@
     </row>
     <row r="324" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
-        <v>302</v>
+        <v>352</v>
       </c>
       <c r="B324">
         <v>0</v>
@@ -32536,7 +32538,7 @@
       <c r="X324">
         <v>0</v>
       </c>
-      <c r="Y324">
+      <c r="Y324" s="1">
         <v>0</v>
       </c>
       <c r="Z324">
@@ -32560,7 +32562,7 @@
     </row>
     <row r="325" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
-        <v>303</v>
+        <v>353</v>
       </c>
       <c r="B325">
         <v>0</v>
@@ -32631,7 +32633,7 @@
       <c r="X325">
         <v>7</v>
       </c>
-      <c r="Y325">
+      <c r="Y325" s="1">
         <v>0</v>
       </c>
       <c r="Z325">
@@ -32655,7 +32657,7 @@
     </row>
     <row r="326" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
-        <v>304</v>
+        <v>354</v>
       </c>
       <c r="B326">
         <v>0</v>
@@ -32726,7 +32728,7 @@
       <c r="X326">
         <v>29</v>
       </c>
-      <c r="Y326">
+      <c r="Y326" s="1">
         <v>1</v>
       </c>
       <c r="Z326">
@@ -32750,7 +32752,7 @@
     </row>
     <row r="327" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
-        <v>305</v>
+        <v>355</v>
       </c>
       <c r="B327">
         <v>0</v>
@@ -32821,7 +32823,7 @@
       <c r="X327">
         <v>3</v>
       </c>
-      <c r="Y327">
+      <c r="Y327" s="1">
         <v>1</v>
       </c>
       <c r="Z327">
@@ -32845,7 +32847,7 @@
     </row>
     <row r="328" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
-        <v>306</v>
+        <v>356</v>
       </c>
       <c r="B328">
         <v>0</v>
@@ -32916,7 +32918,7 @@
       <c r="X328">
         <v>3</v>
       </c>
-      <c r="Y328">
+      <c r="Y328" s="1">
         <v>3</v>
       </c>
       <c r="Z328">
@@ -32940,7 +32942,7 @@
     </row>
     <row r="329" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
-        <v>307</v>
+        <v>357</v>
       </c>
       <c r="B329">
         <v>0</v>
@@ -33011,7 +33013,7 @@
       <c r="X329">
         <v>2</v>
       </c>
-      <c r="Y329">
+      <c r="Y329" s="1">
         <v>1</v>
       </c>
       <c r="Z329">
@@ -33035,7 +33037,7 @@
     </row>
     <row r="330" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
-        <v>308</v>
+        <v>358</v>
       </c>
       <c r="B330">
         <v>0</v>
@@ -33106,7 +33108,7 @@
       <c r="X330">
         <v>5</v>
       </c>
-      <c r="Y330">
+      <c r="Y330" s="1">
         <v>2</v>
       </c>
       <c r="Z330">
@@ -33130,7 +33132,7 @@
     </row>
     <row r="331" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
-        <v>309</v>
+        <v>359</v>
       </c>
       <c r="B331">
         <v>0</v>
@@ -33201,7 +33203,7 @@
       <c r="X331">
         <v>6</v>
       </c>
-      <c r="Y331">
+      <c r="Y331" s="1">
         <v>3</v>
       </c>
       <c r="Z331">
@@ -33225,7 +33227,7 @@
     </row>
     <row r="332" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
-        <v>310</v>
+        <v>360</v>
       </c>
       <c r="B332">
         <v>0</v>
@@ -33296,7 +33298,7 @@
       <c r="X332">
         <v>6</v>
       </c>
-      <c r="Y332">
+      <c r="Y332" s="1">
         <v>11</v>
       </c>
       <c r="Z332">
@@ -33320,7 +33322,7 @@
     </row>
     <row r="333" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
-        <v>311</v>
+        <v>361</v>
       </c>
       <c r="B333">
         <v>0</v>
@@ -33391,7 +33393,7 @@
       <c r="X333">
         <v>2</v>
       </c>
-      <c r="Y333">
+      <c r="Y333" s="1">
         <v>0</v>
       </c>
       <c r="Z333">
@@ -33415,7 +33417,7 @@
     </row>
     <row r="334" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
-        <v>312</v>
+        <v>362</v>
       </c>
       <c r="B334">
         <v>5</v>
@@ -33486,7 +33488,7 @@
       <c r="X334">
         <v>0</v>
       </c>
-      <c r="Y334">
+      <c r="Y334" s="1">
         <v>0</v>
       </c>
       <c r="Z334">
@@ -33510,7 +33512,7 @@
     </row>
     <row r="335" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
-        <v>313</v>
+        <v>363</v>
       </c>
       <c r="B335">
         <v>0</v>
@@ -33581,7 +33583,7 @@
       <c r="X335">
         <v>0</v>
       </c>
-      <c r="Y335">
+      <c r="Y335" s="1">
         <v>0</v>
       </c>
       <c r="Z335">
@@ -33605,7 +33607,7 @@
     </row>
     <row r="336" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
-        <v>314</v>
+        <v>364</v>
       </c>
       <c r="B336">
         <v>1</v>
@@ -33676,7 +33678,7 @@
       <c r="X336">
         <v>1</v>
       </c>
-      <c r="Y336">
+      <c r="Y336" s="1">
         <v>0</v>
       </c>
       <c r="Z336">
@@ -33700,7 +33702,7 @@
     </row>
     <row r="337" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
-        <v>315</v>
+        <v>365</v>
       </c>
       <c r="B337">
         <v>0</v>
@@ -33771,7 +33773,7 @@
       <c r="X337">
         <v>3</v>
       </c>
-      <c r="Y337">
+      <c r="Y337" s="1">
         <v>0</v>
       </c>
       <c r="Z337">
@@ -33795,7 +33797,7 @@
     </row>
     <row r="338" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
-        <v>316</v>
+        <v>366</v>
       </c>
       <c r="B338">
         <v>0</v>
@@ -33866,7 +33868,7 @@
       <c r="X338">
         <v>2</v>
       </c>
-      <c r="Y338">
+      <c r="Y338" s="1">
         <v>1</v>
       </c>
       <c r="Z338">
@@ -33890,7 +33892,7 @@
     </row>
     <row r="339" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
-        <v>317</v>
+        <v>367</v>
       </c>
       <c r="B339">
         <v>0</v>
@@ -33961,7 +33963,7 @@
       <c r="X339">
         <v>0</v>
       </c>
-      <c r="Y339">
+      <c r="Y339" s="1">
         <v>0</v>
       </c>
       <c r="Z339">
@@ -33985,7 +33987,7 @@
     </row>
     <row r="340" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
-        <v>318</v>
+        <v>368</v>
       </c>
       <c r="B340">
         <v>0</v>
@@ -34056,7 +34058,7 @@
       <c r="X340">
         <v>1</v>
       </c>
-      <c r="Y340">
+      <c r="Y340" s="1">
         <v>9</v>
       </c>
       <c r="Z340">
@@ -34080,7 +34082,7 @@
     </row>
     <row r="341" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
-        <v>319</v>
+        <v>369</v>
       </c>
       <c r="B341">
         <v>0</v>
@@ -34151,7 +34153,7 @@
       <c r="X341">
         <v>0</v>
       </c>
-      <c r="Y341">
+      <c r="Y341" s="1">
         <v>16</v>
       </c>
       <c r="Z341">
@@ -34175,7 +34177,7 @@
     </row>
     <row r="342" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
-        <v>320</v>
+        <v>370</v>
       </c>
       <c r="B342">
         <v>0</v>
@@ -34246,7 +34248,7 @@
       <c r="X342">
         <v>0</v>
       </c>
-      <c r="Y342">
+      <c r="Y342" s="1">
         <v>0</v>
       </c>
       <c r="Z342">
@@ -34270,7 +34272,7 @@
     </row>
     <row r="343" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
-        <v>321</v>
+        <v>371</v>
       </c>
       <c r="B343">
         <v>0</v>
@@ -34341,7 +34343,7 @@
       <c r="X343">
         <v>1</v>
       </c>
-      <c r="Y343">
+      <c r="Y343" s="1">
         <v>0</v>
       </c>
       <c r="Z343">
@@ -34365,7 +34367,7 @@
     </row>
     <row r="344" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
-        <v>322</v>
+        <v>372</v>
       </c>
       <c r="B344">
         <v>0</v>
@@ -34436,7 +34438,7 @@
       <c r="X344">
         <v>2</v>
       </c>
-      <c r="Y344">
+      <c r="Y344" s="1">
         <v>1</v>
       </c>
       <c r="Z344">
@@ -34460,7 +34462,7 @@
     </row>
     <row r="345" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
-        <v>323</v>
+        <v>373</v>
       </c>
       <c r="B345">
         <v>0</v>
@@ -34531,7 +34533,7 @@
       <c r="X345">
         <v>0</v>
       </c>
-      <c r="Y345">
+      <c r="Y345" s="1">
         <v>0</v>
       </c>
       <c r="Z345">
@@ -34555,7 +34557,7 @@
     </row>
     <row r="346" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
-        <v>324</v>
+        <v>374</v>
       </c>
       <c r="B346">
         <v>0</v>
@@ -34626,7 +34628,7 @@
       <c r="X346">
         <v>0</v>
       </c>
-      <c r="Y346">
+      <c r="Y346" s="1">
         <v>0</v>
       </c>
       <c r="Z346">
@@ -34650,7 +34652,7 @@
     </row>
     <row r="347" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
-        <v>325</v>
+        <v>375</v>
       </c>
       <c r="B347">
         <v>0</v>
@@ -34721,7 +34723,7 @@
       <c r="X347">
         <v>0</v>
       </c>
-      <c r="Y347">
+      <c r="Y347" s="1">
         <v>0</v>
       </c>
       <c r="Z347">
@@ -34745,7 +34747,7 @@
     </row>
     <row r="348" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
-        <v>326</v>
+        <v>376</v>
       </c>
       <c r="B348">
         <v>0</v>
@@ -34816,7 +34818,7 @@
       <c r="X348">
         <v>0</v>
       </c>
-      <c r="Y348">
+      <c r="Y348" s="1">
         <v>0</v>
       </c>
       <c r="Z348">
@@ -34840,7 +34842,7 @@
     </row>
     <row r="349" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
-        <v>327</v>
+        <v>377</v>
       </c>
       <c r="B349">
         <v>0</v>
@@ -34911,7 +34913,7 @@
       <c r="X349">
         <v>0</v>
       </c>
-      <c r="Y349">
+      <c r="Y349" s="1">
         <v>0</v>
       </c>
       <c r="Z349">
@@ -34935,7 +34937,7 @@
     </row>
     <row r="350" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
-        <v>328</v>
+        <v>378</v>
       </c>
       <c r="B350">
         <v>0</v>
@@ -35006,7 +35008,7 @@
       <c r="X350">
         <v>1</v>
       </c>
-      <c r="Y350">
+      <c r="Y350" s="1">
         <v>0</v>
       </c>
       <c r="Z350">
@@ -35030,7 +35032,7 @@
     </row>
     <row r="351" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
-        <v>329</v>
+        <v>379</v>
       </c>
       <c r="B351">
         <v>0</v>
@@ -35101,7 +35103,7 @@
       <c r="X351">
         <v>0</v>
       </c>
-      <c r="Y351">
+      <c r="Y351" s="1">
         <v>0</v>
       </c>
       <c r="Z351">
@@ -35125,7 +35127,7 @@
     </row>
     <row r="352" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
-        <v>330</v>
+        <v>380</v>
       </c>
       <c r="B352">
         <v>0</v>
@@ -35196,7 +35198,7 @@
       <c r="X352">
         <v>9</v>
       </c>
-      <c r="Y352">
+      <c r="Y352" s="1">
         <v>0</v>
       </c>
       <c r="Z352">
@@ -35220,7 +35222,7 @@
     </row>
     <row r="353" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
-        <v>331</v>
+        <v>381</v>
       </c>
       <c r="B353">
         <v>0</v>
@@ -35291,7 +35293,7 @@
       <c r="X353">
         <v>8</v>
       </c>
-      <c r="Y353">
+      <c r="Y353" s="1">
         <v>0</v>
       </c>
       <c r="Z353">
@@ -35315,7 +35317,7 @@
     </row>
     <row r="354" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
-        <v>332</v>
+        <v>382</v>
       </c>
       <c r="B354">
         <v>0</v>
@@ -35386,7 +35388,7 @@
       <c r="X354">
         <v>7</v>
       </c>
-      <c r="Y354">
+      <c r="Y354" s="1">
         <v>0</v>
       </c>
       <c r="Z354">
@@ -35410,7 +35412,7 @@
     </row>
     <row r="355" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
-        <v>333</v>
+        <v>383</v>
       </c>
       <c r="B355">
         <v>0</v>
@@ -35481,7 +35483,7 @@
       <c r="X355">
         <v>3</v>
       </c>
-      <c r="Y355">
+      <c r="Y355" s="1">
         <v>2</v>
       </c>
       <c r="Z355">
@@ -35505,7 +35507,7 @@
     </row>
     <row r="356" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
-        <v>334</v>
+        <v>384</v>
       </c>
       <c r="B356">
         <v>0</v>
@@ -35576,7 +35578,7 @@
       <c r="X356">
         <v>18</v>
       </c>
-      <c r="Y356">
+      <c r="Y356" s="1">
         <v>12</v>
       </c>
       <c r="Z356">
@@ -35600,7 +35602,7 @@
     </row>
     <row r="357" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
-        <v>335</v>
+        <v>385</v>
       </c>
       <c r="B357">
         <v>0</v>
@@ -35671,7 +35673,7 @@
       <c r="X357">
         <v>10</v>
       </c>
-      <c r="Y357">
+      <c r="Y357" s="1">
         <v>6</v>
       </c>
       <c r="Z357">
@@ -35695,7 +35697,7 @@
     </row>
     <row r="358" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
-        <v>336</v>
+        <v>386</v>
       </c>
       <c r="B358">
         <v>32</v>
@@ -35766,7 +35768,7 @@
       <c r="X358">
         <v>3</v>
       </c>
-      <c r="Y358">
+      <c r="Y358" s="1">
         <v>0</v>
       </c>
       <c r="Z358">
@@ -35790,7 +35792,7 @@
     </row>
     <row r="359" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
-        <v>337</v>
+        <v>387</v>
       </c>
       <c r="B359">
         <v>14</v>
@@ -35861,7 +35863,7 @@
       <c r="X359">
         <v>2</v>
       </c>
-      <c r="Y359">
+      <c r="Y359" s="1">
         <v>1</v>
       </c>
       <c r="Z359">
@@ -35885,7 +35887,7 @@
     </row>
     <row r="360" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
-        <v>338</v>
+        <v>388</v>
       </c>
       <c r="B360">
         <v>0</v>
@@ -35956,7 +35958,7 @@
       <c r="X360">
         <v>19</v>
       </c>
-      <c r="Y360">
+      <c r="Y360" s="1">
         <v>2</v>
       </c>
       <c r="Z360">
@@ -35980,7 +35982,7 @@
     </row>
     <row r="361" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
-        <v>339</v>
+        <v>389</v>
       </c>
       <c r="B361">
         <v>0</v>
@@ -36051,7 +36053,7 @@
       <c r="X361">
         <v>31</v>
       </c>
-      <c r="Y361">
+      <c r="Y361" s="1">
         <v>2</v>
       </c>
       <c r="Z361">
@@ -36075,7 +36077,7 @@
     </row>
     <row r="362" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
-        <v>340</v>
+        <v>390</v>
       </c>
       <c r="B362">
         <v>0</v>
@@ -36146,7 +36148,7 @@
       <c r="X362">
         <v>50</v>
       </c>
-      <c r="Y362">
+      <c r="Y362" s="1">
         <v>7</v>
       </c>
       <c r="Z362">
@@ -36170,7 +36172,7 @@
     </row>
     <row r="363" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
-        <v>341</v>
+        <v>391</v>
       </c>
       <c r="B363">
         <v>0</v>
@@ -36241,7 +36243,7 @@
       <c r="X363">
         <v>10</v>
       </c>
-      <c r="Y363">
+      <c r="Y363" s="1">
         <v>8</v>
       </c>
       <c r="Z363">
@@ -36265,7 +36267,7 @@
     </row>
     <row r="364" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
-        <v>342</v>
+        <v>392</v>
       </c>
       <c r="B364">
         <v>0</v>
@@ -36336,7 +36338,7 @@
       <c r="X364">
         <v>8</v>
       </c>
-      <c r="Y364">
+      <c r="Y364" s="1">
         <v>4</v>
       </c>
       <c r="Z364">
@@ -36360,7 +36362,7 @@
     </row>
     <row r="365" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
-        <v>343</v>
+        <v>393</v>
       </c>
       <c r="B365">
         <v>0</v>
@@ -36431,7 +36433,7 @@
       <c r="X365">
         <v>1</v>
       </c>
-      <c r="Y365">
+      <c r="Y365" s="1">
         <v>1</v>
       </c>
       <c r="Z365">
@@ -36455,7 +36457,7 @@
     </row>
     <row r="366" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
-        <v>344</v>
+        <v>394</v>
       </c>
       <c r="B366">
         <v>0</v>
@@ -36526,7 +36528,7 @@
       <c r="X366">
         <v>0</v>
       </c>
-      <c r="Y366">
+      <c r="Y366" s="1">
         <v>7</v>
       </c>
       <c r="Z366">
@@ -36550,7 +36552,7 @@
     </row>
     <row r="367" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
-        <v>345</v>
+        <v>395</v>
       </c>
       <c r="B367">
         <v>0</v>
@@ -36621,7 +36623,7 @@
       <c r="X367">
         <v>2</v>
       </c>
-      <c r="Y367">
+      <c r="Y367" s="1">
         <v>5</v>
       </c>
       <c r="Z367">
@@ -36645,7 +36647,7 @@
     </row>
     <row r="368" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
-        <v>346</v>
+        <v>396</v>
       </c>
       <c r="B368">
         <v>0</v>
@@ -36716,7 +36718,7 @@
       <c r="X368">
         <v>16</v>
       </c>
-      <c r="Y368">
+      <c r="Y368" s="1">
         <v>1</v>
       </c>
       <c r="Z368">
@@ -36740,7 +36742,7 @@
     </row>
     <row r="369" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
-        <v>347</v>
+        <v>397</v>
       </c>
       <c r="B369">
         <v>0</v>
@@ -36811,7 +36813,7 @@
       <c r="X369">
         <v>15</v>
       </c>
-      <c r="Y369">
+      <c r="Y369" s="1">
         <v>7</v>
       </c>
       <c r="Z369">
@@ -36835,7 +36837,7 @@
     </row>
     <row r="370" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
-        <v>348</v>
+        <v>398</v>
       </c>
       <c r="B370">
         <v>0</v>
@@ -36906,7 +36908,7 @@
       <c r="X370">
         <v>33</v>
       </c>
-      <c r="Y370">
+      <c r="Y370" s="1">
         <v>14</v>
       </c>
       <c r="Z370">
@@ -36930,7 +36932,7 @@
     </row>
     <row r="371" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
-        <v>349</v>
+        <v>399</v>
       </c>
       <c r="B371">
         <v>0</v>
@@ -37001,7 +37003,7 @@
       <c r="X371">
         <v>40</v>
       </c>
-      <c r="Y371">
+      <c r="Y371" s="1">
         <v>9</v>
       </c>
       <c r="Z371">
@@ -37025,7 +37027,7 @@
     </row>
     <row r="372" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="B372">
         <v>0</v>
@@ -37096,7 +37098,7 @@
       <c r="X372">
         <v>9</v>
       </c>
-      <c r="Y372">
+      <c r="Y372" s="1">
         <v>0</v>
       </c>
       <c r="Z372">
@@ -37120,7 +37122,7 @@
     </row>
     <row r="373" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="B373">
         <v>5</v>
@@ -37191,7 +37193,7 @@
       <c r="X373">
         <v>0</v>
       </c>
-      <c r="Y373">
+      <c r="Y373" s="1">
         <v>0</v>
       </c>
       <c r="Z373">
@@ -37215,7 +37217,7 @@
     </row>
     <row r="374" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
-        <v>352</v>
+        <v>402</v>
       </c>
       <c r="B374">
         <v>7</v>
@@ -37286,7 +37288,7 @@
       <c r="X374">
         <v>0</v>
       </c>
-      <c r="Y374">
+      <c r="Y374" s="1">
         <v>0</v>
       </c>
       <c r="Z374">
@@ -37310,7 +37312,7 @@
     </row>
     <row r="375" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
-        <v>353</v>
+        <v>403</v>
       </c>
       <c r="B375">
         <v>0</v>
@@ -37381,7 +37383,7 @@
       <c r="X375">
         <v>0</v>
       </c>
-      <c r="Y375">
+      <c r="Y375" s="1">
         <v>1</v>
       </c>
       <c r="Z375">
@@ -37405,7 +37407,7 @@
     </row>
     <row r="376" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
-        <v>354</v>
+        <v>404</v>
       </c>
       <c r="B376">
         <v>0</v>
@@ -37476,7 +37478,7 @@
       <c r="X376">
         <v>15</v>
       </c>
-      <c r="Y376">
+      <c r="Y376" s="1">
         <v>2</v>
       </c>
       <c r="Z376">
@@ -37500,7 +37502,7 @@
     </row>
     <row r="377" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
-        <v>355</v>
+        <v>405</v>
       </c>
       <c r="B377">
         <v>0</v>
@@ -37571,7 +37573,7 @@
       <c r="X377">
         <v>3</v>
       </c>
-      <c r="Y377">
+      <c r="Y377" s="1">
         <v>0</v>
       </c>
       <c r="Z377">
@@ -37595,7 +37597,7 @@
     </row>
     <row r="378" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
-        <v>356</v>
+        <v>406</v>
       </c>
       <c r="B378">
         <v>0</v>
@@ -37666,7 +37668,7 @@
       <c r="X378">
         <v>0</v>
       </c>
-      <c r="Y378">
+      <c r="Y378" s="1">
         <v>0</v>
       </c>
       <c r="Z378">
@@ -37690,7 +37692,7 @@
     </row>
     <row r="379" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
-        <v>357</v>
+        <v>407</v>
       </c>
       <c r="B379">
         <v>0</v>
@@ -37761,7 +37763,7 @@
       <c r="X379">
         <v>5</v>
       </c>
-      <c r="Y379">
+      <c r="Y379" s="1">
         <v>1</v>
       </c>
       <c r="Z379">
@@ -37785,7 +37787,7 @@
     </row>
     <row r="380" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
-        <v>358</v>
+        <v>408</v>
       </c>
       <c r="B380">
         <v>0</v>
@@ -37856,7 +37858,7 @@
       <c r="X380">
         <v>2</v>
       </c>
-      <c r="Y380">
+      <c r="Y380" s="1">
         <v>0</v>
       </c>
       <c r="Z380">
@@ -37880,7 +37882,7 @@
     </row>
     <row r="381" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
-        <v>359</v>
+        <v>409</v>
       </c>
       <c r="B381">
         <v>0</v>
@@ -37951,7 +37953,7 @@
       <c r="X381">
         <v>2</v>
       </c>
-      <c r="Y381">
+      <c r="Y381" s="1">
         <v>1</v>
       </c>
       <c r="Z381">
@@ -37975,7 +37977,7 @@
     </row>
     <row r="382" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
-        <v>360</v>
+        <v>410</v>
       </c>
       <c r="B382">
         <v>0</v>
@@ -38046,7 +38048,7 @@
       <c r="X382">
         <v>1</v>
       </c>
-      <c r="Y382">
+      <c r="Y382" s="1">
         <v>0</v>
       </c>
       <c r="Z382">
@@ -38070,7 +38072,7 @@
     </row>
     <row r="383" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
-        <v>361</v>
+        <v>411</v>
       </c>
       <c r="B383">
         <v>8</v>
@@ -38141,7 +38143,7 @@
       <c r="X383">
         <v>0</v>
       </c>
-      <c r="Y383">
+      <c r="Y383" s="1">
         <v>2</v>
       </c>
       <c r="Z383">
@@ -38165,7 +38167,7 @@
     </row>
     <row r="384" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
-        <v>362</v>
+        <v>412</v>
       </c>
       <c r="B384">
         <v>0</v>
@@ -38236,7 +38238,7 @@
       <c r="X384">
         <v>9</v>
       </c>
-      <c r="Y384">
+      <c r="Y384" s="1">
         <v>3</v>
       </c>
       <c r="Z384">
@@ -38260,7 +38262,7 @@
     </row>
     <row r="385" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
-        <v>363</v>
+        <v>413</v>
       </c>
       <c r="B385">
         <v>1</v>
@@ -38331,7 +38333,7 @@
       <c r="X385">
         <v>13</v>
       </c>
-      <c r="Y385">
+      <c r="Y385" s="1">
         <v>0</v>
       </c>
       <c r="Z385">
@@ -38355,7 +38357,7 @@
     </row>
     <row r="386" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
-        <v>364</v>
+        <v>414</v>
       </c>
       <c r="B386">
         <v>0</v>
@@ -38426,7 +38428,7 @@
       <c r="X386">
         <v>7</v>
       </c>
-      <c r="Y386">
+      <c r="Y386" s="1">
         <v>1</v>
       </c>
       <c r="Z386">
@@ -38450,7 +38452,7 @@
     </row>
     <row r="387" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
-        <v>365</v>
+        <v>415</v>
       </c>
       <c r="B387">
         <v>12</v>
@@ -38521,7 +38523,7 @@
       <c r="X387">
         <v>1</v>
       </c>
-      <c r="Y387">
+      <c r="Y387" s="1">
         <v>0</v>
       </c>
       <c r="Z387">
@@ -38545,7 +38547,7 @@
     </row>
     <row r="388" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
-        <v>366</v>
+        <v>416</v>
       </c>
       <c r="B388">
         <v>0</v>
@@ -38616,7 +38618,7 @@
       <c r="X388">
         <v>5</v>
       </c>
-      <c r="Y388">
+      <c r="Y388" s="1">
         <v>0</v>
       </c>
       <c r="Z388">
@@ -38640,7 +38642,7 @@
     </row>
     <row r="389" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
-        <v>367</v>
+        <v>417</v>
       </c>
       <c r="B389">
         <v>10</v>
@@ -38711,7 +38713,7 @@
       <c r="X389">
         <v>12</v>
       </c>
-      <c r="Y389">
+      <c r="Y389" s="1">
         <v>0</v>
       </c>
       <c r="Z389">
@@ -38735,7 +38737,7 @@
     </row>
     <row r="390" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
-        <v>368</v>
+        <v>418</v>
       </c>
       <c r="B390">
         <v>0</v>
@@ -38806,7 +38808,7 @@
       <c r="X390">
         <v>8</v>
       </c>
-      <c r="Y390">
+      <c r="Y390" s="1">
         <v>0</v>
       </c>
       <c r="Z390">
@@ -38830,7 +38832,7 @@
     </row>
     <row r="391" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
-        <v>369</v>
+        <v>419</v>
       </c>
       <c r="B391">
         <v>0</v>
@@ -38901,7 +38903,7 @@
       <c r="X391">
         <v>30</v>
       </c>
-      <c r="Y391">
+      <c r="Y391" s="1">
         <v>0</v>
       </c>
       <c r="Z391">
@@ -38925,7 +38927,7 @@
     </row>
     <row r="392" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
-        <v>370</v>
+        <v>420</v>
       </c>
       <c r="B392">
         <v>0</v>
@@ -38996,7 +38998,7 @@
       <c r="X392">
         <v>1</v>
       </c>
-      <c r="Y392">
+      <c r="Y392" s="1">
         <v>9</v>
       </c>
       <c r="Z392">
@@ -39020,7 +39022,7 @@
     </row>
     <row r="393" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
-        <v>371</v>
+        <v>421</v>
       </c>
       <c r="B393">
         <v>0</v>
@@ -39091,7 +39093,7 @@
       <c r="X393">
         <v>0</v>
       </c>
-      <c r="Y393">
+      <c r="Y393" s="1">
         <v>0</v>
       </c>
       <c r="Z393">
@@ -39115,7 +39117,7 @@
     </row>
     <row r="394" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
-        <v>372</v>
+        <v>422</v>
       </c>
       <c r="B394">
         <v>0</v>
@@ -39186,7 +39188,7 @@
       <c r="X394">
         <v>0</v>
       </c>
-      <c r="Y394">
+      <c r="Y394" s="1">
         <v>5</v>
       </c>
       <c r="Z394">
@@ -39210,7 +39212,7 @@
     </row>
     <row r="395" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
-        <v>373</v>
+        <v>423</v>
       </c>
       <c r="B395">
         <v>0</v>
@@ -39281,7 +39283,7 @@
       <c r="X395">
         <v>0</v>
       </c>
-      <c r="Y395">
+      <c r="Y395" s="1">
         <v>7</v>
       </c>
       <c r="Z395">
@@ -39305,7 +39307,7 @@
     </row>
     <row r="396" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
-        <v>374</v>
+        <v>424</v>
       </c>
       <c r="B396">
         <v>0</v>
@@ -39376,7 +39378,7 @@
       <c r="X396">
         <v>1</v>
       </c>
-      <c r="Y396">
+      <c r="Y396" s="1">
         <v>0</v>
       </c>
       <c r="Z396">
@@ -39400,7 +39402,7 @@
     </row>
     <row r="397" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
-        <v>375</v>
+        <v>425</v>
       </c>
       <c r="B397">
         <v>0</v>
@@ -39471,7 +39473,7 @@
       <c r="X397">
         <v>0</v>
       </c>
-      <c r="Y397">
+      <c r="Y397" s="1">
         <v>0</v>
       </c>
       <c r="Z397">
@@ -39495,7 +39497,7 @@
     </row>
     <row r="398" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
-        <v>376</v>
+        <v>426</v>
       </c>
       <c r="B398">
         <v>0</v>
@@ -39566,7 +39568,7 @@
       <c r="X398">
         <v>0</v>
       </c>
-      <c r="Y398">
+      <c r="Y398" s="1">
         <v>5</v>
       </c>
       <c r="Z398">
@@ -39590,7 +39592,7 @@
     </row>
     <row r="399" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
-        <v>377</v>
+        <v>427</v>
       </c>
       <c r="B399">
         <v>0</v>
@@ -39661,7 +39663,7 @@
       <c r="X399">
         <v>2</v>
       </c>
-      <c r="Y399">
+      <c r="Y399" s="1">
         <v>4</v>
       </c>
       <c r="Z399">
@@ -39685,7 +39687,7 @@
     </row>
     <row r="400" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
-        <v>378</v>
+        <v>428</v>
       </c>
       <c r="B400">
         <v>0</v>
@@ -39756,7 +39758,7 @@
       <c r="X400">
         <v>0</v>
       </c>
-      <c r="Y400">
+      <c r="Y400" s="1">
         <v>1</v>
       </c>
       <c r="Z400">
@@ -39780,7 +39782,7 @@
     </row>
     <row r="401" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
-        <v>379</v>
+        <v>429</v>
       </c>
       <c r="B401">
         <v>0</v>
@@ -39851,7 +39853,7 @@
       <c r="X401">
         <v>0</v>
       </c>
-      <c r="Y401">
+      <c r="Y401" s="1">
         <v>0</v>
       </c>
       <c r="Z401">
@@ -39875,7 +39877,7 @@
     </row>
     <row r="402" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
-        <v>380</v>
+        <v>430</v>
       </c>
       <c r="B402">
         <v>0</v>
@@ -39946,7 +39948,7 @@
       <c r="X402">
         <v>0</v>
       </c>
-      <c r="Y402">
+      <c r="Y402" s="1">
         <v>4</v>
       </c>
       <c r="Z402">
@@ -39970,7 +39972,7 @@
     </row>
     <row r="403" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
-        <v>381</v>
+        <v>431</v>
       </c>
       <c r="B403">
         <v>0</v>
@@ -40041,7 +40043,7 @@
       <c r="X403">
         <v>0</v>
       </c>
-      <c r="Y403">
+      <c r="Y403" s="1">
         <v>3</v>
       </c>
       <c r="Z403">
@@ -40065,7 +40067,7 @@
     </row>
     <row r="404" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
-        <v>382</v>
+        <v>432</v>
       </c>
       <c r="B404">
         <v>0</v>
@@ -40136,7 +40138,7 @@
       <c r="X404">
         <v>0</v>
       </c>
-      <c r="Y404">
+      <c r="Y404" s="1">
         <v>14</v>
       </c>
       <c r="Z404">
@@ -40160,7 +40162,7 @@
     </row>
     <row r="405" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
-        <v>383</v>
+        <v>433</v>
       </c>
       <c r="B405">
         <v>0</v>
@@ -40231,7 +40233,7 @@
       <c r="X405">
         <v>0</v>
       </c>
-      <c r="Y405">
+      <c r="Y405" s="1">
         <v>5</v>
       </c>
       <c r="Z405">
@@ -40255,7 +40257,7 @@
     </row>
     <row r="406" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
-        <v>384</v>
+        <v>434</v>
       </c>
       <c r="B406">
         <v>17</v>
@@ -40326,7 +40328,7 @@
       <c r="X406">
         <v>0</v>
       </c>
-      <c r="Y406">
+      <c r="Y406" s="1">
         <v>0</v>
       </c>
       <c r="Z406">
@@ -40350,7 +40352,7 @@
     </row>
     <row r="407" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
-        <v>385</v>
+        <v>435</v>
       </c>
       <c r="B407">
         <v>0</v>
@@ -40421,7 +40423,7 @@
       <c r="X407">
         <v>0</v>
       </c>
-      <c r="Y407">
+      <c r="Y407" s="1">
         <v>8</v>
       </c>
       <c r="Z407">
@@ -40445,7 +40447,7 @@
     </row>
     <row r="408" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
-        <v>386</v>
+        <v>436</v>
       </c>
       <c r="B408">
         <v>0</v>
@@ -40516,7 +40518,7 @@
       <c r="X408">
         <v>0</v>
       </c>
-      <c r="Y408">
+      <c r="Y408" s="1">
         <v>4</v>
       </c>
       <c r="Z408">
@@ -40540,7 +40542,7 @@
     </row>
     <row r="409" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
-        <v>387</v>
+        <v>437</v>
       </c>
       <c r="B409">
         <v>4</v>
@@ -40573,7 +40575,7 @@
         <v>0</v>
       </c>
       <c r="L409">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M409">
         <v>0</v>
@@ -40611,8 +40613,8 @@
       <c r="X409">
         <v>0</v>
       </c>
-      <c r="Y409">
-        <v>7</v>
+      <c r="Y409" s="1">
+        <v>9</v>
       </c>
       <c r="Z409">
         <v>4</v>
@@ -40635,7 +40637,7 @@
     </row>
     <row r="410" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
-        <v>388</v>
+        <v>438</v>
       </c>
       <c r="B410">
         <v>1</v>
@@ -40706,7 +40708,7 @@
       <c r="X410">
         <v>0</v>
       </c>
-      <c r="Y410">
+      <c r="Y410" s="1">
         <v>0</v>
       </c>
       <c r="Z410">
@@ -40730,7 +40732,7 @@
     </row>
     <row r="411" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
-        <v>389</v>
+        <v>439</v>
       </c>
       <c r="B411">
         <v>0</v>
@@ -40801,7 +40803,7 @@
       <c r="X411">
         <v>0</v>
       </c>
-      <c r="Y411">
+      <c r="Y411" s="1">
         <v>9</v>
       </c>
       <c r="Z411">
@@ -40825,7 +40827,7 @@
     </row>
     <row r="412" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
-        <v>390</v>
+        <v>440</v>
       </c>
       <c r="B412">
         <v>0</v>
@@ -40896,7 +40898,7 @@
       <c r="X412">
         <v>6</v>
       </c>
-      <c r="Y412">
+      <c r="Y412" s="1">
         <v>4</v>
       </c>
       <c r="Z412">
@@ -40920,7 +40922,7 @@
     </row>
     <row r="413" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
-        <v>391</v>
+        <v>441</v>
       </c>
       <c r="B413">
         <v>0</v>
@@ -40991,7 +40993,7 @@
       <c r="X413">
         <v>2</v>
       </c>
-      <c r="Y413">
+      <c r="Y413" s="1">
         <v>0</v>
       </c>
       <c r="Z413">
@@ -41015,7 +41017,7 @@
     </row>
     <row r="414" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
-        <v>392</v>
+        <v>442</v>
       </c>
       <c r="B414">
         <v>0</v>
@@ -41086,7 +41088,7 @@
       <c r="X414">
         <v>0</v>
       </c>
-      <c r="Y414">
+      <c r="Y414" s="1">
         <v>0</v>
       </c>
       <c r="Z414">
@@ -41110,7 +41112,7 @@
     </row>
     <row r="415" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
-        <v>393</v>
+        <v>443</v>
       </c>
       <c r="B415">
         <v>0</v>
@@ -41181,7 +41183,7 @@
       <c r="X415">
         <v>0</v>
       </c>
-      <c r="Y415">
+      <c r="Y415" s="1">
         <v>3</v>
       </c>
       <c r="Z415">
@@ -41205,7 +41207,7 @@
     </row>
     <row r="416" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
-        <v>394</v>
+        <v>444</v>
       </c>
       <c r="B416">
         <v>0</v>
@@ -41276,7 +41278,7 @@
       <c r="X416">
         <v>0</v>
       </c>
-      <c r="Y416">
+      <c r="Y416" s="1">
         <v>1</v>
       </c>
       <c r="Z416">
@@ -41300,7 +41302,7 @@
     </row>
     <row r="417" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
-        <v>395</v>
+        <v>445</v>
       </c>
       <c r="B417">
         <v>0</v>
@@ -41371,7 +41373,7 @@
       <c r="X417">
         <v>1</v>
       </c>
-      <c r="Y417">
+      <c r="Y417" s="1">
         <v>1</v>
       </c>
       <c r="Z417">
@@ -41395,7 +41397,7 @@
     </row>
     <row r="418" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
-        <v>396</v>
+        <v>446</v>
       </c>
       <c r="B418">
         <v>0</v>
@@ -41466,7 +41468,7 @@
       <c r="X418">
         <v>0</v>
       </c>
-      <c r="Y418">
+      <c r="Y418" s="1">
         <v>1</v>
       </c>
       <c r="Z418">
@@ -41490,7 +41492,7 @@
     </row>
     <row r="419" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
-        <v>397</v>
+        <v>447</v>
       </c>
       <c r="B419">
         <v>0</v>
@@ -41561,7 +41563,7 @@
       <c r="X419">
         <v>0</v>
       </c>
-      <c r="Y419">
+      <c r="Y419" s="1">
         <v>1</v>
       </c>
       <c r="Z419">
@@ -41585,7 +41587,7 @@
     </row>
     <row r="420" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
-        <v>398</v>
+        <v>448</v>
       </c>
       <c r="B420">
         <v>0</v>
@@ -41656,7 +41658,7 @@
       <c r="X420">
         <v>0</v>
       </c>
-      <c r="Y420">
+      <c r="Y420" s="1">
         <v>4</v>
       </c>
       <c r="Z420">
@@ -41680,7 +41682,7 @@
     </row>
     <row r="421" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
-        <v>399</v>
+        <v>449</v>
       </c>
       <c r="B421">
         <v>0</v>
@@ -41751,7 +41753,7 @@
       <c r="X421">
         <v>0</v>
       </c>
-      <c r="Y421">
+      <c r="Y421" s="1">
         <v>6</v>
       </c>
       <c r="Z421">
@@ -41775,7 +41777,7 @@
     </row>
     <row r="422" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="B422">
         <v>0</v>
@@ -41846,7 +41848,7 @@
       <c r="X422">
         <v>0</v>
       </c>
-      <c r="Y422">
+      <c r="Y422" s="1">
         <v>22</v>
       </c>
       <c r="Z422">
@@ -41870,7 +41872,7 @@
     </row>
     <row r="423" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="B423">
         <v>0</v>
@@ -41941,7 +41943,7 @@
       <c r="X423">
         <v>0</v>
       </c>
-      <c r="Y423">
+      <c r="Y423" s="1">
         <v>1</v>
       </c>
       <c r="Z423">
@@ -41965,7 +41967,7 @@
     </row>
     <row r="424" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
-        <v>402</v>
+        <v>452</v>
       </c>
       <c r="B424">
         <v>0</v>
@@ -42036,7 +42038,7 @@
       <c r="X424">
         <v>0</v>
       </c>
-      <c r="Y424">
+      <c r="Y424" s="1">
         <v>0</v>
       </c>
       <c r="Z424">
@@ -42060,7 +42062,7 @@
     </row>
     <row r="425" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
-        <v>403</v>
+        <v>453</v>
       </c>
       <c r="B425">
         <v>0</v>
@@ -42131,7 +42133,7 @@
       <c r="X425">
         <v>0</v>
       </c>
-      <c r="Y425">
+      <c r="Y425" s="1">
         <v>4</v>
       </c>
       <c r="Z425">
@@ -42155,7 +42157,7 @@
     </row>
     <row r="426" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
-        <v>404</v>
+        <v>454</v>
       </c>
       <c r="B426">
         <v>0</v>
@@ -42226,7 +42228,7 @@
       <c r="X426">
         <v>0</v>
       </c>
-      <c r="Y426">
+      <c r="Y426" s="1">
         <v>0</v>
       </c>
       <c r="Z426">
@@ -42250,7 +42252,7 @@
     </row>
     <row r="427" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
-        <v>405</v>
+        <v>455</v>
       </c>
       <c r="B427">
         <v>0</v>
@@ -42321,7 +42323,7 @@
       <c r="X427">
         <v>0</v>
       </c>
-      <c r="Y427">
+      <c r="Y427" s="1">
         <v>4</v>
       </c>
       <c r="Z427">
@@ -42345,7 +42347,7 @@
     </row>
     <row r="428" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
-        <v>406</v>
+        <v>456</v>
       </c>
       <c r="B428">
         <v>0</v>
@@ -42416,7 +42418,7 @@
       <c r="X428">
         <v>0</v>
       </c>
-      <c r="Y428">
+      <c r="Y428" s="1">
         <v>3</v>
       </c>
       <c r="Z428">
@@ -42440,7 +42442,7 @@
     </row>
     <row r="429" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
-        <v>407</v>
+        <v>457</v>
       </c>
       <c r="B429">
         <v>0</v>
@@ -42511,7 +42513,7 @@
       <c r="X429">
         <v>0</v>
       </c>
-      <c r="Y429">
+      <c r="Y429" s="1">
         <v>6</v>
       </c>
       <c r="Z429">
@@ -42535,7 +42537,7 @@
     </row>
     <row r="430" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
-        <v>408</v>
+        <v>458</v>
       </c>
       <c r="B430">
         <v>0</v>
@@ -42606,7 +42608,7 @@
       <c r="X430">
         <v>1</v>
       </c>
-      <c r="Y430">
+      <c r="Y430" s="1">
         <v>7</v>
       </c>
       <c r="Z430">
@@ -42630,7 +42632,7 @@
     </row>
     <row r="431" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
-        <v>409</v>
+        <v>459</v>
       </c>
       <c r="B431">
         <v>0</v>
@@ -42701,7 +42703,7 @@
       <c r="X431">
         <v>8</v>
       </c>
-      <c r="Y431">
+      <c r="Y431" s="1">
         <v>4</v>
       </c>
       <c r="Z431">
@@ -42738,23 +42740,23 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>410</v>
+        <v>460</v>
       </c>
       <c r="B1" t="s">
-        <v>411</v>
+        <v>461</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>412</v>
+        <v>462</v>
       </c>
       <c r="B2" t="s">
-        <v>413</v>
+        <v>463</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>414</v>
+        <v>464</v>
       </c>
       <c r="B3">
         <v>820</v>
@@ -42762,7 +42764,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>415</v>
+        <v>465</v>
       </c>
       <c r="B4">
         <v>4054</v>
@@ -42770,10 +42772,10 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>416</v>
+        <v>466</v>
       </c>
       <c r="B5" t="s">
-        <v>417</v>
+        <v>467</v>
       </c>
     </row>
   </sheetData>

--- a/3 TP Analysis/01 - Data/PROCESSED_benthic_cover_March_2023.xlsx
+++ b/3 TP Analysis/01 - Data/PROCESSED_benthic_cover_March_2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Shannon/GitHub/NFI_benthic_community/3 TP Analysis/01 - Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00DB27DB-286E-A242-BF47-0739402D72A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62F06A4C-2438-A846-869B-DCC5ED918125}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="900" yWindow="500" windowWidth="27900" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -113,156 +113,6 @@
     <t>T</t>
   </si>
   <si>
-    <t>March_2023CEM4_10.JPG</t>
-  </si>
-  <si>
-    <t>March_2023CEM4_1.JPG</t>
-  </si>
-  <si>
-    <t>March_2023CEM4_2.JPG</t>
-  </si>
-  <si>
-    <t>March_2023CEM4_3.JPG</t>
-  </si>
-  <si>
-    <t>March_2023CEM4_4.JPG</t>
-  </si>
-  <si>
-    <t>March_2023CEM4_5.JPG</t>
-  </si>
-  <si>
-    <t>March_2023CEM4_6.JPG</t>
-  </si>
-  <si>
-    <t>March_2023CEM4_7.JPG</t>
-  </si>
-  <si>
-    <t>March_2023CEM4_8.JPG</t>
-  </si>
-  <si>
-    <t>March_2023CEM4_9.JPG</t>
-  </si>
-  <si>
-    <t>March_2023CEM5_10.JPG</t>
-  </si>
-  <si>
-    <t>March_2023CEM5_1.JPG</t>
-  </si>
-  <si>
-    <t>March_2023CEM5_2.JPG</t>
-  </si>
-  <si>
-    <t>March_2023CEM5_3.JPG</t>
-  </si>
-  <si>
-    <t>March_2023CEM5_4.JPG</t>
-  </si>
-  <si>
-    <t>March_2023CEM5_5.JPG</t>
-  </si>
-  <si>
-    <t>March_2023CEM5_6.JPG</t>
-  </si>
-  <si>
-    <t>March_2023CEM5_7.JPG</t>
-  </si>
-  <si>
-    <t>March_2023CEM5_8.JPG</t>
-  </si>
-  <si>
-    <t>March_2023CEM5_9.JPG</t>
-  </si>
-  <si>
-    <t>March_2023CEM6_10.JPG</t>
-  </si>
-  <si>
-    <t>March_2023CEM6_1.JPG</t>
-  </si>
-  <si>
-    <t>March_2023CEM6_2.JPG</t>
-  </si>
-  <si>
-    <t>March_2023CEM6_3.JPG</t>
-  </si>
-  <si>
-    <t>March_2023CEM6_4.JPG</t>
-  </si>
-  <si>
-    <t>March_2023CEM6_5.JPG</t>
-  </si>
-  <si>
-    <t>March_2023CEM6_6.JPG</t>
-  </si>
-  <si>
-    <t>March_2023CEM6_7.JPG</t>
-  </si>
-  <si>
-    <t>March_2023CEM6_8.JPG</t>
-  </si>
-  <si>
-    <t>March_2023CEM6_9.JPG</t>
-  </si>
-  <si>
-    <t>March_2023CEM7_10.JPG</t>
-  </si>
-  <si>
-    <t>March_2023CEM7_1.JPG</t>
-  </si>
-  <si>
-    <t>March_2023CEM7_2.JPG</t>
-  </si>
-  <si>
-    <t>March_2023CEM7_3.JPG</t>
-  </si>
-  <si>
-    <t>March_2023CEM7_4.JPG</t>
-  </si>
-  <si>
-    <t>March_2023CEM7_5.JPG</t>
-  </si>
-  <si>
-    <t>March_2023CEM7_6.JPG</t>
-  </si>
-  <si>
-    <t>March_2023CEM7_7.JPG</t>
-  </si>
-  <si>
-    <t>March_2023CEM7_8.JPG</t>
-  </si>
-  <si>
-    <t>March_2023CEM7_9.JPG</t>
-  </si>
-  <si>
-    <t>March_2023CEM8_10.JPG</t>
-  </si>
-  <si>
-    <t>March_2023CEM8_1.JPG</t>
-  </si>
-  <si>
-    <t>March_2023CEM8_2.JPG</t>
-  </si>
-  <si>
-    <t>March_2023CEM8_3.JPG</t>
-  </si>
-  <si>
-    <t>March_2023CEM8_4.JPG</t>
-  </si>
-  <si>
-    <t>March_2023CEM8_5.JPG</t>
-  </si>
-  <si>
-    <t>March_2023CEM8_6.JPG</t>
-  </si>
-  <si>
-    <t>March_2023CEM8_7.JPG</t>
-  </si>
-  <si>
-    <t>March_2023CEM8_8.JPG</t>
-  </si>
-  <si>
-    <t>March_2023CEM8_9.JPG</t>
-  </si>
-  <si>
     <t>March_2023EB10_10.JPG</t>
   </si>
   <si>
@@ -1428,6 +1278,156 @@
   </si>
   <si>
     <t>Image_ID</t>
+  </si>
+  <si>
+    <t>March_2023CB4_10.JPG</t>
+  </si>
+  <si>
+    <t>March_2023CB4_1.JPG</t>
+  </si>
+  <si>
+    <t>March_2023CB4_2.JPG</t>
+  </si>
+  <si>
+    <t>March_2023CB4_3.JPG</t>
+  </si>
+  <si>
+    <t>March_2023CB4_4.JPG</t>
+  </si>
+  <si>
+    <t>March_2023CB4_5.JPG</t>
+  </si>
+  <si>
+    <t>March_2023CB4_6.JPG</t>
+  </si>
+  <si>
+    <t>March_2023CB4_7.JPG</t>
+  </si>
+  <si>
+    <t>March_2023CB4_8.JPG</t>
+  </si>
+  <si>
+    <t>March_2023CB4_9.JPG</t>
+  </si>
+  <si>
+    <t>March_2023CB5_10.JPG</t>
+  </si>
+  <si>
+    <t>March_2023CB5_1.JPG</t>
+  </si>
+  <si>
+    <t>March_2023CB5_2.JPG</t>
+  </si>
+  <si>
+    <t>March_2023CB5_3.JPG</t>
+  </si>
+  <si>
+    <t>March_2023CB5_4.JPG</t>
+  </si>
+  <si>
+    <t>March_2023CB5_5.JPG</t>
+  </si>
+  <si>
+    <t>March_2023CB5_6.JPG</t>
+  </si>
+  <si>
+    <t>March_2023CB5_7.JPG</t>
+  </si>
+  <si>
+    <t>March_2023CB5_8.JPG</t>
+  </si>
+  <si>
+    <t>March_2023CB5_9.JPG</t>
+  </si>
+  <si>
+    <t>March_2023CB6_10.JPG</t>
+  </si>
+  <si>
+    <t>March_2023CB6_1.JPG</t>
+  </si>
+  <si>
+    <t>March_2023CB6_2.JPG</t>
+  </si>
+  <si>
+    <t>March_2023CB6_3.JPG</t>
+  </si>
+  <si>
+    <t>March_2023CB6_4.JPG</t>
+  </si>
+  <si>
+    <t>March_2023CB6_5.JPG</t>
+  </si>
+  <si>
+    <t>March_2023CB6_6.JPG</t>
+  </si>
+  <si>
+    <t>March_2023CB6_7.JPG</t>
+  </si>
+  <si>
+    <t>March_2023CB6_8.JPG</t>
+  </si>
+  <si>
+    <t>March_2023CB6_9.JPG</t>
+  </si>
+  <si>
+    <t>March_2023CB7_10.JPG</t>
+  </si>
+  <si>
+    <t>March_2023CB7_1.JPG</t>
+  </si>
+  <si>
+    <t>March_2023CB7_2.JPG</t>
+  </si>
+  <si>
+    <t>March_2023CB7_3.JPG</t>
+  </si>
+  <si>
+    <t>March_2023CB7_4.JPG</t>
+  </si>
+  <si>
+    <t>March_2023CB7_5.JPG</t>
+  </si>
+  <si>
+    <t>March_2023CB7_6.JPG</t>
+  </si>
+  <si>
+    <t>March_2023CB7_7.JPG</t>
+  </si>
+  <si>
+    <t>March_2023CB7_8.JPG</t>
+  </si>
+  <si>
+    <t>March_2023CB7_9.JPG</t>
+  </si>
+  <si>
+    <t>March_2023CB8_10.JPG</t>
+  </si>
+  <si>
+    <t>March_2023CB8_1.JPG</t>
+  </si>
+  <si>
+    <t>March_2023CB8_2.JPG</t>
+  </si>
+  <si>
+    <t>March_2023CB8_3.JPG</t>
+  </si>
+  <si>
+    <t>March_2023CB8_4.JPG</t>
+  </si>
+  <si>
+    <t>March_2023CB8_5.JPG</t>
+  </si>
+  <si>
+    <t>March_2023CB8_6.JPG</t>
+  </si>
+  <si>
+    <t>March_2023CB8_7.JPG</t>
+  </si>
+  <si>
+    <t>March_2023CB8_8.JPG</t>
+  </si>
+  <si>
+    <t>March_2023CB8_9.JPG</t>
   </si>
 </sst>
 </file>
@@ -1770,8 +1770,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE431"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A390" zoomScale="125" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1782,7 +1782,7 @@
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>468</v>
+        <v>418</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1877,7 +1877,7 @@
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>419</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1972,7 +1972,7 @@
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>420</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -2067,7 +2067,7 @@
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>421</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -2162,7 +2162,7 @@
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>422</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -2257,7 +2257,7 @@
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>423</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -2352,7 +2352,7 @@
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>424</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -2447,7 +2447,7 @@
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>425</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -2542,7 +2542,7 @@
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>37</v>
+        <v>426</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -2637,7 +2637,7 @@
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>38</v>
+        <v>427</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -2732,7 +2732,7 @@
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>39</v>
+        <v>428</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -2827,7 +2827,7 @@
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>40</v>
+        <v>429</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -2922,7 +2922,7 @@
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>41</v>
+        <v>430</v>
       </c>
       <c r="B13">
         <v>7</v>
@@ -3017,7 +3017,7 @@
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>42</v>
+        <v>431</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -3112,7 +3112,7 @@
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>43</v>
+        <v>432</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -3207,7 +3207,7 @@
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>44</v>
+        <v>433</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -3302,7 +3302,7 @@
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>45</v>
+        <v>434</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -3397,7 +3397,7 @@
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>46</v>
+        <v>435</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -3492,7 +3492,7 @@
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>47</v>
+        <v>436</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -3587,7 +3587,7 @@
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>48</v>
+        <v>437</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -3682,7 +3682,7 @@
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>49</v>
+        <v>438</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -3777,7 +3777,7 @@
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>50</v>
+        <v>439</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -3872,7 +3872,7 @@
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>51</v>
+        <v>440</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -3967,7 +3967,7 @@
     </row>
     <row r="24" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>52</v>
+        <v>441</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -4062,7 +4062,7 @@
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>53</v>
+        <v>442</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -4157,7 +4157,7 @@
     </row>
     <row r="26" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>54</v>
+        <v>443</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -4252,7 +4252,7 @@
     </row>
     <row r="27" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>55</v>
+        <v>444</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -4347,7 +4347,7 @@
     </row>
     <row r="28" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>56</v>
+        <v>445</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -4442,7 +4442,7 @@
     </row>
     <row r="29" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>57</v>
+        <v>446</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -4537,7 +4537,7 @@
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>58</v>
+        <v>447</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -4632,7 +4632,7 @@
     </row>
     <row r="31" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>59</v>
+        <v>448</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -4727,7 +4727,7 @@
     </row>
     <row r="32" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>60</v>
+        <v>449</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -4822,7 +4822,7 @@
     </row>
     <row r="33" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>61</v>
+        <v>450</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -4917,7 +4917,7 @@
     </row>
     <row r="34" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>62</v>
+        <v>451</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -5012,7 +5012,7 @@
     </row>
     <row r="35" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>63</v>
+        <v>452</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -5107,7 +5107,7 @@
     </row>
     <row r="36" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>64</v>
+        <v>453</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -5202,7 +5202,7 @@
     </row>
     <row r="37" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>65</v>
+        <v>454</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -5297,7 +5297,7 @@
     </row>
     <row r="38" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>66</v>
+        <v>455</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -5392,7 +5392,7 @@
     </row>
     <row r="39" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>67</v>
+        <v>456</v>
       </c>
       <c r="B39">
         <v>3</v>
@@ -5487,7 +5487,7 @@
     </row>
     <row r="40" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>68</v>
+        <v>457</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -5582,7 +5582,7 @@
     </row>
     <row r="41" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>69</v>
+        <v>458</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -5677,7 +5677,7 @@
     </row>
     <row r="42" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>70</v>
+        <v>459</v>
       </c>
       <c r="B42">
         <v>19</v>
@@ -5772,7 +5772,7 @@
     </row>
     <row r="43" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>71</v>
+        <v>460</v>
       </c>
       <c r="B43">
         <v>9</v>
@@ -5867,7 +5867,7 @@
     </row>
     <row r="44" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>72</v>
+        <v>461</v>
       </c>
       <c r="B44">
         <v>6</v>
@@ -5962,7 +5962,7 @@
     </row>
     <row r="45" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>73</v>
+        <v>462</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -6057,7 +6057,7 @@
     </row>
     <row r="46" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>74</v>
+        <v>463</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -6152,7 +6152,7 @@
     </row>
     <row r="47" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>75</v>
+        <v>464</v>
       </c>
       <c r="B47">
         <v>22</v>
@@ -6247,7 +6247,7 @@
     </row>
     <row r="48" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>76</v>
+        <v>465</v>
       </c>
       <c r="B48">
         <v>17</v>
@@ -6342,7 +6342,7 @@
     </row>
     <row r="49" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>77</v>
+        <v>466</v>
       </c>
       <c r="B49">
         <v>2</v>
@@ -6437,7 +6437,7 @@
     </row>
     <row r="50" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>78</v>
+        <v>467</v>
       </c>
       <c r="B50">
         <v>6</v>
@@ -6532,7 +6532,7 @@
     </row>
     <row r="51" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>79</v>
+        <v>468</v>
       </c>
       <c r="B51">
         <v>6</v>
@@ -6627,7 +6627,7 @@
     </row>
     <row r="52" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="B52">
         <v>2</v>
@@ -6722,7 +6722,7 @@
     </row>
     <row r="53" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>81</v>
+        <v>31</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -6817,7 +6817,7 @@
     </row>
     <row r="54" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>82</v>
+        <v>32</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -6912,7 +6912,7 @@
     </row>
     <row r="55" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>83</v>
+        <v>33</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -7007,7 +7007,7 @@
     </row>
     <row r="56" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>84</v>
+        <v>34</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -7102,7 +7102,7 @@
     </row>
     <row r="57" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>85</v>
+        <v>35</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -7197,7 +7197,7 @@
     </row>
     <row r="58" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>86</v>
+        <v>36</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -7292,7 +7292,7 @@
     </row>
     <row r="59" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>87</v>
+        <v>37</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -7387,7 +7387,7 @@
     </row>
     <row r="60" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>88</v>
+        <v>38</v>
       </c>
       <c r="B60">
         <v>1</v>
@@ -7482,7 +7482,7 @@
     </row>
     <row r="61" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>89</v>
+        <v>39</v>
       </c>
       <c r="B61">
         <v>1</v>
@@ -7577,7 +7577,7 @@
     </row>
     <row r="62" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -7672,7 +7672,7 @@
     </row>
     <row r="63" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>91</v>
+        <v>41</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -7767,7 +7767,7 @@
     </row>
     <row r="64" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>92</v>
+        <v>42</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -7862,7 +7862,7 @@
     </row>
     <row r="65" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>93</v>
+        <v>43</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -7957,7 +7957,7 @@
     </row>
     <row r="66" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>94</v>
+        <v>44</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -8052,7 +8052,7 @@
     </row>
     <row r="67" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>95</v>
+        <v>45</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -8147,7 +8147,7 @@
     </row>
     <row r="68" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>96</v>
+        <v>46</v>
       </c>
       <c r="B68">
         <v>7</v>
@@ -8242,7 +8242,7 @@
     </row>
     <row r="69" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>97</v>
+        <v>47</v>
       </c>
       <c r="B69">
         <v>56</v>
@@ -8337,7 +8337,7 @@
     </row>
     <row r="70" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>98</v>
+        <v>48</v>
       </c>
       <c r="B70">
         <v>75</v>
@@ -8432,7 +8432,7 @@
     </row>
     <row r="71" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>99</v>
+        <v>49</v>
       </c>
       <c r="B71">
         <v>6</v>
@@ -8527,7 +8527,7 @@
     </row>
     <row r="72" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -8622,7 +8622,7 @@
     </row>
     <row r="73" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -8717,7 +8717,7 @@
     </row>
     <row r="74" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>102</v>
+        <v>52</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -8812,7 +8812,7 @@
     </row>
     <row r="75" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>103</v>
+        <v>53</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -8907,7 +8907,7 @@
     </row>
     <row r="76" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>104</v>
+        <v>54</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -9002,7 +9002,7 @@
     </row>
     <row r="77" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>105</v>
+        <v>55</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -9097,7 +9097,7 @@
     </row>
     <row r="78" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>106</v>
+        <v>56</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -9192,7 +9192,7 @@
     </row>
     <row r="79" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>107</v>
+        <v>57</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -9287,7 +9287,7 @@
     </row>
     <row r="80" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>108</v>
+        <v>58</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -9382,7 +9382,7 @@
     </row>
     <row r="81" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>109</v>
+        <v>59</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -9477,7 +9477,7 @@
     </row>
     <row r="82" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -9572,7 +9572,7 @@
     </row>
     <row r="83" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>111</v>
+        <v>61</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -9667,7 +9667,7 @@
     </row>
     <row r="84" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>112</v>
+        <v>62</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -9762,7 +9762,7 @@
     </row>
     <row r="85" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>113</v>
+        <v>63</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -9857,7 +9857,7 @@
     </row>
     <row r="86" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>114</v>
+        <v>64</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -9952,7 +9952,7 @@
     </row>
     <row r="87" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>115</v>
+        <v>65</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -10047,7 +10047,7 @@
     </row>
     <row r="88" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>116</v>
+        <v>66</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -10142,7 +10142,7 @@
     </row>
     <row r="89" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>117</v>
+        <v>67</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -10237,7 +10237,7 @@
     </row>
     <row r="90" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>118</v>
+        <v>68</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -10332,7 +10332,7 @@
     </row>
     <row r="91" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>119</v>
+        <v>69</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -10427,7 +10427,7 @@
     </row>
     <row r="92" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -10522,7 +10522,7 @@
     </row>
     <row r="93" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>121</v>
+        <v>71</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -10617,7 +10617,7 @@
     </row>
     <row r="94" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>122</v>
+        <v>72</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -10712,7 +10712,7 @@
     </row>
     <row r="95" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>123</v>
+        <v>73</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -10807,7 +10807,7 @@
     </row>
     <row r="96" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>124</v>
+        <v>74</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -10902,7 +10902,7 @@
     </row>
     <row r="97" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>125</v>
+        <v>75</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -10997,7 +10997,7 @@
     </row>
     <row r="98" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>126</v>
+        <v>76</v>
       </c>
       <c r="B98">
         <v>0</v>
@@ -11092,7 +11092,7 @@
     </row>
     <row r="99" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>127</v>
+        <v>77</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -11187,7 +11187,7 @@
     </row>
     <row r="100" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>128</v>
+        <v>78</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -11282,7 +11282,7 @@
     </row>
     <row r="101" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>129</v>
+        <v>79</v>
       </c>
       <c r="B101">
         <v>0</v>
@@ -11377,7 +11377,7 @@
     </row>
     <row r="102" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -11472,7 +11472,7 @@
     </row>
     <row r="103" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>131</v>
+        <v>81</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -11567,7 +11567,7 @@
     </row>
     <row r="104" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>132</v>
+        <v>82</v>
       </c>
       <c r="B104">
         <v>1</v>
@@ -11662,7 +11662,7 @@
     </row>
     <row r="105" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>133</v>
+        <v>83</v>
       </c>
       <c r="B105">
         <v>0</v>
@@ -11757,7 +11757,7 @@
     </row>
     <row r="106" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>134</v>
+        <v>84</v>
       </c>
       <c r="B106">
         <v>0</v>
@@ -11852,7 +11852,7 @@
     </row>
     <row r="107" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>135</v>
+        <v>85</v>
       </c>
       <c r="B107">
         <v>0</v>
@@ -11947,7 +11947,7 @@
     </row>
     <row r="108" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>136</v>
+        <v>86</v>
       </c>
       <c r="B108">
         <v>0</v>
@@ -12042,7 +12042,7 @@
     </row>
     <row r="109" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>137</v>
+        <v>87</v>
       </c>
       <c r="B109">
         <v>0</v>
@@ -12137,7 +12137,7 @@
     </row>
     <row r="110" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>138</v>
+        <v>88</v>
       </c>
       <c r="B110">
         <v>0</v>
@@ -12232,7 +12232,7 @@
     </row>
     <row r="111" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>139</v>
+        <v>89</v>
       </c>
       <c r="B111">
         <v>0</v>
@@ -12327,7 +12327,7 @@
     </row>
     <row r="112" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>140</v>
+        <v>90</v>
       </c>
       <c r="B112">
         <v>0</v>
@@ -12422,7 +12422,7 @@
     </row>
     <row r="113" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>141</v>
+        <v>91</v>
       </c>
       <c r="B113">
         <v>0</v>
@@ -12517,7 +12517,7 @@
     </row>
     <row r="114" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>142</v>
+        <v>92</v>
       </c>
       <c r="B114">
         <v>0</v>
@@ -12612,7 +12612,7 @@
     </row>
     <row r="115" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>143</v>
+        <v>93</v>
       </c>
       <c r="B115">
         <v>0</v>
@@ -12707,7 +12707,7 @@
     </row>
     <row r="116" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>144</v>
+        <v>94</v>
       </c>
       <c r="B116">
         <v>0</v>
@@ -12802,7 +12802,7 @@
     </row>
     <row r="117" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>145</v>
+        <v>95</v>
       </c>
       <c r="B117">
         <v>0</v>
@@ -12897,7 +12897,7 @@
     </row>
     <row r="118" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>146</v>
+        <v>96</v>
       </c>
       <c r="B118">
         <v>0</v>
@@ -12992,7 +12992,7 @@
     </row>
     <row r="119" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>147</v>
+        <v>97</v>
       </c>
       <c r="B119">
         <v>0</v>
@@ -13087,7 +13087,7 @@
     </row>
     <row r="120" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>148</v>
+        <v>98</v>
       </c>
       <c r="B120">
         <v>0</v>
@@ -13182,7 +13182,7 @@
     </row>
     <row r="121" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>149</v>
+        <v>99</v>
       </c>
       <c r="B121">
         <v>0</v>
@@ -13277,7 +13277,7 @@
     </row>
     <row r="122" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="B122">
         <v>0</v>
@@ -13372,7 +13372,7 @@
     </row>
     <row r="123" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>151</v>
+        <v>101</v>
       </c>
       <c r="B123">
         <v>0</v>
@@ -13467,7 +13467,7 @@
     </row>
     <row r="124" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>152</v>
+        <v>102</v>
       </c>
       <c r="B124">
         <v>0</v>
@@ -13562,7 +13562,7 @@
     </row>
     <row r="125" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>153</v>
+        <v>103</v>
       </c>
       <c r="B125">
         <v>0</v>
@@ -13657,7 +13657,7 @@
     </row>
     <row r="126" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>154</v>
+        <v>104</v>
       </c>
       <c r="B126">
         <v>0</v>
@@ -13752,7 +13752,7 @@
     </row>
     <row r="127" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>155</v>
+        <v>105</v>
       </c>
       <c r="B127">
         <v>0</v>
@@ -13847,7 +13847,7 @@
     </row>
     <row r="128" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>156</v>
+        <v>106</v>
       </c>
       <c r="B128">
         <v>0</v>
@@ -13942,7 +13942,7 @@
     </row>
     <row r="129" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>157</v>
+        <v>107</v>
       </c>
       <c r="B129">
         <v>0</v>
@@ -14037,7 +14037,7 @@
     </row>
     <row r="130" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>158</v>
+        <v>108</v>
       </c>
       <c r="B130">
         <v>0</v>
@@ -14132,7 +14132,7 @@
     </row>
     <row r="131" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>159</v>
+        <v>109</v>
       </c>
       <c r="B131">
         <v>0</v>
@@ -14227,7 +14227,7 @@
     </row>
     <row r="132" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>160</v>
+        <v>110</v>
       </c>
       <c r="B132">
         <v>0</v>
@@ -14322,7 +14322,7 @@
     </row>
     <row r="133" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>161</v>
+        <v>111</v>
       </c>
       <c r="B133">
         <v>0</v>
@@ -14417,7 +14417,7 @@
     </row>
     <row r="134" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>162</v>
+        <v>112</v>
       </c>
       <c r="B134">
         <v>0</v>
@@ -14512,7 +14512,7 @@
     </row>
     <row r="135" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>163</v>
+        <v>113</v>
       </c>
       <c r="B135">
         <v>0</v>
@@ -14607,7 +14607,7 @@
     </row>
     <row r="136" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>164</v>
+        <v>114</v>
       </c>
       <c r="B136">
         <v>0</v>
@@ -14702,7 +14702,7 @@
     </row>
     <row r="137" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>165</v>
+        <v>115</v>
       </c>
       <c r="B137">
         <v>0</v>
@@ -14797,7 +14797,7 @@
     </row>
     <row r="138" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>166</v>
+        <v>116</v>
       </c>
       <c r="B138">
         <v>0</v>
@@ -14892,7 +14892,7 @@
     </row>
     <row r="139" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>167</v>
+        <v>117</v>
       </c>
       <c r="B139">
         <v>0</v>
@@ -14987,7 +14987,7 @@
     </row>
     <row r="140" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>168</v>
+        <v>118</v>
       </c>
       <c r="B140">
         <v>0</v>
@@ -15082,7 +15082,7 @@
     </row>
     <row r="141" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>169</v>
+        <v>119</v>
       </c>
       <c r="B141">
         <v>0</v>
@@ -15177,7 +15177,7 @@
     </row>
     <row r="142" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>170</v>
+        <v>120</v>
       </c>
       <c r="B142">
         <v>0</v>
@@ -15272,7 +15272,7 @@
     </row>
     <row r="143" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>171</v>
+        <v>121</v>
       </c>
       <c r="B143">
         <v>0</v>
@@ -15367,7 +15367,7 @@
     </row>
     <row r="144" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>172</v>
+        <v>122</v>
       </c>
       <c r="B144">
         <v>0</v>
@@ -15462,7 +15462,7 @@
     </row>
     <row r="145" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>173</v>
+        <v>123</v>
       </c>
       <c r="B145">
         <v>0</v>
@@ -15557,7 +15557,7 @@
     </row>
     <row r="146" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>174</v>
+        <v>124</v>
       </c>
       <c r="B146">
         <v>0</v>
@@ -15652,7 +15652,7 @@
     </row>
     <row r="147" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>175</v>
+        <v>125</v>
       </c>
       <c r="B147">
         <v>10</v>
@@ -15747,7 +15747,7 @@
     </row>
     <row r="148" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>176</v>
+        <v>126</v>
       </c>
       <c r="B148">
         <v>0</v>
@@ -15842,7 +15842,7 @@
     </row>
     <row r="149" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>177</v>
+        <v>127</v>
       </c>
       <c r="B149">
         <v>0</v>
@@ -15937,7 +15937,7 @@
     </row>
     <row r="150" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>178</v>
+        <v>128</v>
       </c>
       <c r="B150">
         <v>0</v>
@@ -16032,7 +16032,7 @@
     </row>
     <row r="151" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>179</v>
+        <v>129</v>
       </c>
       <c r="B151">
         <v>0</v>
@@ -16127,7 +16127,7 @@
     </row>
     <row r="152" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>180</v>
+        <v>130</v>
       </c>
       <c r="B152">
         <v>11</v>
@@ -16222,7 +16222,7 @@
     </row>
     <row r="153" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>181</v>
+        <v>131</v>
       </c>
       <c r="B153">
         <v>0</v>
@@ -16317,7 +16317,7 @@
     </row>
     <row r="154" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>182</v>
+        <v>132</v>
       </c>
       <c r="B154">
         <v>5</v>
@@ -16412,7 +16412,7 @@
     </row>
     <row r="155" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>183</v>
+        <v>133</v>
       </c>
       <c r="B155">
         <v>8</v>
@@ -16507,7 +16507,7 @@
     </row>
     <row r="156" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>184</v>
+        <v>134</v>
       </c>
       <c r="B156">
         <v>1</v>
@@ -16602,7 +16602,7 @@
     </row>
     <row r="157" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>185</v>
+        <v>135</v>
       </c>
       <c r="B157">
         <v>0</v>
@@ -16697,7 +16697,7 @@
     </row>
     <row r="158" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>186</v>
+        <v>136</v>
       </c>
       <c r="B158">
         <v>36</v>
@@ -16792,7 +16792,7 @@
     </row>
     <row r="159" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>187</v>
+        <v>137</v>
       </c>
       <c r="B159">
         <v>23</v>
@@ -16887,7 +16887,7 @@
     </row>
     <row r="160" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>188</v>
+        <v>138</v>
       </c>
       <c r="B160">
         <v>2</v>
@@ -16982,7 +16982,7 @@
     </row>
     <row r="161" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>189</v>
+        <v>139</v>
       </c>
       <c r="B161">
         <v>10</v>
@@ -17077,7 +17077,7 @@
     </row>
     <row r="162" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>190</v>
+        <v>140</v>
       </c>
       <c r="B162">
         <v>64</v>
@@ -17172,7 +17172,7 @@
     </row>
     <row r="163" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>191</v>
+        <v>141</v>
       </c>
       <c r="B163">
         <v>14</v>
@@ -17267,7 +17267,7 @@
     </row>
     <row r="164" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>192</v>
+        <v>142</v>
       </c>
       <c r="B164">
         <v>63</v>
@@ -17362,7 +17362,7 @@
     </row>
     <row r="165" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>193</v>
+        <v>143</v>
       </c>
       <c r="B165">
         <v>84</v>
@@ -17457,7 +17457,7 @@
     </row>
     <row r="166" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>194</v>
+        <v>144</v>
       </c>
       <c r="B166">
         <v>2</v>
@@ -17552,7 +17552,7 @@
     </row>
     <row r="167" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>195</v>
+        <v>145</v>
       </c>
       <c r="B167">
         <v>22</v>
@@ -17647,7 +17647,7 @@
     </row>
     <row r="168" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>196</v>
+        <v>146</v>
       </c>
       <c r="B168">
         <v>25</v>
@@ -17742,7 +17742,7 @@
     </row>
     <row r="169" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>197</v>
+        <v>147</v>
       </c>
       <c r="B169">
         <v>28</v>
@@ -17837,7 +17837,7 @@
     </row>
     <row r="170" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>198</v>
+        <v>148</v>
       </c>
       <c r="B170">
         <v>3</v>
@@ -17932,7 +17932,7 @@
     </row>
     <row r="171" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>199</v>
+        <v>149</v>
       </c>
       <c r="B171">
         <v>84</v>
@@ -18027,7 +18027,7 @@
     </row>
     <row r="172" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="B172">
         <v>0</v>
@@ -18122,7 +18122,7 @@
     </row>
     <row r="173" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="B173">
         <v>0</v>
@@ -18217,7 +18217,7 @@
     </row>
     <row r="174" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>202</v>
+        <v>152</v>
       </c>
       <c r="B174">
         <v>0</v>
@@ -18312,7 +18312,7 @@
     </row>
     <row r="175" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>203</v>
+        <v>153</v>
       </c>
       <c r="B175">
         <v>0</v>
@@ -18407,7 +18407,7 @@
     </row>
     <row r="176" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>204</v>
+        <v>154</v>
       </c>
       <c r="B176">
         <v>0</v>
@@ -18502,7 +18502,7 @@
     </row>
     <row r="177" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>205</v>
+        <v>155</v>
       </c>
       <c r="B177">
         <v>0</v>
@@ -18597,7 +18597,7 @@
     </row>
     <row r="178" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>206</v>
+        <v>156</v>
       </c>
       <c r="B178">
         <v>0</v>
@@ -18692,7 +18692,7 @@
     </row>
     <row r="179" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>207</v>
+        <v>157</v>
       </c>
       <c r="B179">
         <v>0</v>
@@ -18787,7 +18787,7 @@
     </row>
     <row r="180" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>208</v>
+        <v>158</v>
       </c>
       <c r="B180">
         <v>0</v>
@@ -18882,7 +18882,7 @@
     </row>
     <row r="181" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>209</v>
+        <v>159</v>
       </c>
       <c r="B181">
         <v>0</v>
@@ -18977,7 +18977,7 @@
     </row>
     <row r="182" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>210</v>
+        <v>160</v>
       </c>
       <c r="B182">
         <v>0</v>
@@ -19072,7 +19072,7 @@
     </row>
     <row r="183" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>211</v>
+        <v>161</v>
       </c>
       <c r="B183">
         <v>0</v>
@@ -19167,7 +19167,7 @@
     </row>
     <row r="184" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>212</v>
+        <v>162</v>
       </c>
       <c r="B184">
         <v>1</v>
@@ -19262,7 +19262,7 @@
     </row>
     <row r="185" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>213</v>
+        <v>163</v>
       </c>
       <c r="B185">
         <v>2</v>
@@ -19357,7 +19357,7 @@
     </row>
     <row r="186" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>214</v>
+        <v>164</v>
       </c>
       <c r="B186">
         <v>3</v>
@@ -19452,7 +19452,7 @@
     </row>
     <row r="187" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>215</v>
+        <v>165</v>
       </c>
       <c r="B187">
         <v>0</v>
@@ -19547,7 +19547,7 @@
     </row>
     <row r="188" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>216</v>
+        <v>166</v>
       </c>
       <c r="B188">
         <v>0</v>
@@ -19642,7 +19642,7 @@
     </row>
     <row r="189" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>217</v>
+        <v>167</v>
       </c>
       <c r="B189">
         <v>0</v>
@@ -19737,7 +19737,7 @@
     </row>
     <row r="190" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>218</v>
+        <v>168</v>
       </c>
       <c r="B190">
         <v>0</v>
@@ -19832,7 +19832,7 @@
     </row>
     <row r="191" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>219</v>
+        <v>169</v>
       </c>
       <c r="B191">
         <v>0</v>
@@ -19927,7 +19927,7 @@
     </row>
     <row r="192" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>220</v>
+        <v>170</v>
       </c>
       <c r="B192">
         <v>0</v>
@@ -20022,7 +20022,7 @@
     </row>
     <row r="193" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>221</v>
+        <v>171</v>
       </c>
       <c r="B193">
         <v>3</v>
@@ -20117,7 +20117,7 @@
     </row>
     <row r="194" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>222</v>
+        <v>172</v>
       </c>
       <c r="B194">
         <v>0</v>
@@ -20212,7 +20212,7 @@
     </row>
     <row r="195" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>223</v>
+        <v>173</v>
       </c>
       <c r="B195">
         <v>12</v>
@@ -20307,7 +20307,7 @@
     </row>
     <row r="196" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>224</v>
+        <v>174</v>
       </c>
       <c r="B196">
         <v>0</v>
@@ -20402,7 +20402,7 @@
     </row>
     <row r="197" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>225</v>
+        <v>175</v>
       </c>
       <c r="B197">
         <v>0</v>
@@ -20497,7 +20497,7 @@
     </row>
     <row r="198" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>226</v>
+        <v>176</v>
       </c>
       <c r="B198">
         <v>5</v>
@@ -20592,7 +20592,7 @@
     </row>
     <row r="199" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>227</v>
+        <v>177</v>
       </c>
       <c r="B199">
         <v>0</v>
@@ -20687,7 +20687,7 @@
     </row>
     <row r="200" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>228</v>
+        <v>178</v>
       </c>
       <c r="B200">
         <v>27</v>
@@ -20782,7 +20782,7 @@
     </row>
     <row r="201" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>229</v>
+        <v>179</v>
       </c>
       <c r="B201">
         <v>7</v>
@@ -20877,7 +20877,7 @@
     </row>
     <row r="202" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>230</v>
+        <v>180</v>
       </c>
       <c r="B202">
         <v>0</v>
@@ -20972,7 +20972,7 @@
     </row>
     <row r="203" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>231</v>
+        <v>181</v>
       </c>
       <c r="B203">
         <v>0</v>
@@ -21067,7 +21067,7 @@
     </row>
     <row r="204" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>232</v>
+        <v>182</v>
       </c>
       <c r="B204">
         <v>0</v>
@@ -21162,7 +21162,7 @@
     </row>
     <row r="205" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>233</v>
+        <v>183</v>
       </c>
       <c r="B205">
         <v>0</v>
@@ -21257,7 +21257,7 @@
     </row>
     <row r="206" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>234</v>
+        <v>184</v>
       </c>
       <c r="B206">
         <v>0</v>
@@ -21352,7 +21352,7 @@
     </row>
     <row r="207" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>235</v>
+        <v>185</v>
       </c>
       <c r="B207">
         <v>0</v>
@@ -21447,7 +21447,7 @@
     </row>
     <row r="208" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>236</v>
+        <v>186</v>
       </c>
       <c r="B208">
         <v>0</v>
@@ -21542,7 +21542,7 @@
     </row>
     <row r="209" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>237</v>
+        <v>187</v>
       </c>
       <c r="B209">
         <v>0</v>
@@ -21637,7 +21637,7 @@
     </row>
     <row r="210" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>238</v>
+        <v>188</v>
       </c>
       <c r="B210">
         <v>0</v>
@@ -21732,7 +21732,7 @@
     </row>
     <row r="211" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>239</v>
+        <v>189</v>
       </c>
       <c r="B211">
         <v>0</v>
@@ -21827,7 +21827,7 @@
     </row>
     <row r="212" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>240</v>
+        <v>190</v>
       </c>
       <c r="B212">
         <v>0</v>
@@ -21922,7 +21922,7 @@
     </row>
     <row r="213" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>241</v>
+        <v>191</v>
       </c>
       <c r="B213">
         <v>0</v>
@@ -22017,7 +22017,7 @@
     </row>
     <row r="214" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>242</v>
+        <v>192</v>
       </c>
       <c r="B214">
         <v>0</v>
@@ -22112,7 +22112,7 @@
     </row>
     <row r="215" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>243</v>
+        <v>193</v>
       </c>
       <c r="B215">
         <v>0</v>
@@ -22207,7 +22207,7 @@
     </row>
     <row r="216" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>244</v>
+        <v>194</v>
       </c>
       <c r="B216">
         <v>0</v>
@@ -22302,7 +22302,7 @@
     </row>
     <row r="217" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>245</v>
+        <v>195</v>
       </c>
       <c r="B217">
         <v>0</v>
@@ -22397,7 +22397,7 @@
     </row>
     <row r="218" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>246</v>
+        <v>196</v>
       </c>
       <c r="B218">
         <v>0</v>
@@ -22492,7 +22492,7 @@
     </row>
     <row r="219" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>247</v>
+        <v>197</v>
       </c>
       <c r="B219">
         <v>0</v>
@@ -22587,7 +22587,7 @@
     </row>
     <row r="220" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>248</v>
+        <v>198</v>
       </c>
       <c r="B220">
         <v>0</v>
@@ -22682,7 +22682,7 @@
     </row>
     <row r="221" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>249</v>
+        <v>199</v>
       </c>
       <c r="B221">
         <v>0</v>
@@ -22777,7 +22777,7 @@
     </row>
     <row r="222" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="B222">
         <v>0</v>
@@ -22872,7 +22872,7 @@
     </row>
     <row r="223" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="B223">
         <v>0</v>
@@ -22967,7 +22967,7 @@
     </row>
     <row r="224" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>252</v>
+        <v>202</v>
       </c>
       <c r="B224">
         <v>0</v>
@@ -23062,7 +23062,7 @@
     </row>
     <row r="225" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>253</v>
+        <v>203</v>
       </c>
       <c r="B225">
         <v>0</v>
@@ -23157,7 +23157,7 @@
     </row>
     <row r="226" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>254</v>
+        <v>204</v>
       </c>
       <c r="B226">
         <v>0</v>
@@ -23252,7 +23252,7 @@
     </row>
     <row r="227" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>255</v>
+        <v>205</v>
       </c>
       <c r="B227">
         <v>0</v>
@@ -23347,7 +23347,7 @@
     </row>
     <row r="228" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>256</v>
+        <v>206</v>
       </c>
       <c r="B228">
         <v>0</v>
@@ -23442,7 +23442,7 @@
     </row>
     <row r="229" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>257</v>
+        <v>207</v>
       </c>
       <c r="B229">
         <v>0</v>
@@ -23537,7 +23537,7 @@
     </row>
     <row r="230" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>258</v>
+        <v>208</v>
       </c>
       <c r="B230">
         <v>0</v>
@@ -23632,7 +23632,7 @@
     </row>
     <row r="231" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>259</v>
+        <v>209</v>
       </c>
       <c r="B231">
         <v>0</v>
@@ -23727,7 +23727,7 @@
     </row>
     <row r="232" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>260</v>
+        <v>210</v>
       </c>
       <c r="B232">
         <v>0</v>
@@ -23822,7 +23822,7 @@
     </row>
     <row r="233" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>261</v>
+        <v>211</v>
       </c>
       <c r="B233">
         <v>0</v>
@@ -23917,7 +23917,7 @@
     </row>
     <row r="234" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>262</v>
+        <v>212</v>
       </c>
       <c r="B234">
         <v>0</v>
@@ -24012,7 +24012,7 @@
     </row>
     <row r="235" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>263</v>
+        <v>213</v>
       </c>
       <c r="B235">
         <v>0</v>
@@ -24107,7 +24107,7 @@
     </row>
     <row r="236" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>264</v>
+        <v>214</v>
       </c>
       <c r="B236">
         <v>0</v>
@@ -24202,7 +24202,7 @@
     </row>
     <row r="237" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>265</v>
+        <v>215</v>
       </c>
       <c r="B237">
         <v>0</v>
@@ -24297,7 +24297,7 @@
     </row>
     <row r="238" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>266</v>
+        <v>216</v>
       </c>
       <c r="B238">
         <v>0</v>
@@ -24392,7 +24392,7 @@
     </row>
     <row r="239" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>267</v>
+        <v>217</v>
       </c>
       <c r="B239">
         <v>0</v>
@@ -24487,7 +24487,7 @@
     </row>
     <row r="240" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>268</v>
+        <v>218</v>
       </c>
       <c r="B240">
         <v>0</v>
@@ -24582,7 +24582,7 @@
     </row>
     <row r="241" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>269</v>
+        <v>219</v>
       </c>
       <c r="B241">
         <v>0</v>
@@ -24677,7 +24677,7 @@
     </row>
     <row r="242" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>270</v>
+        <v>220</v>
       </c>
       <c r="B242">
         <v>0</v>
@@ -24772,7 +24772,7 @@
     </row>
     <row r="243" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>271</v>
+        <v>221</v>
       </c>
       <c r="B243">
         <v>0</v>
@@ -24867,7 +24867,7 @@
     </row>
     <row r="244" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>272</v>
+        <v>222</v>
       </c>
       <c r="B244">
         <v>0</v>
@@ -24962,7 +24962,7 @@
     </row>
     <row r="245" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>273</v>
+        <v>223</v>
       </c>
       <c r="B245">
         <v>0</v>
@@ -25057,7 +25057,7 @@
     </row>
     <row r="246" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>274</v>
+        <v>224</v>
       </c>
       <c r="B246">
         <v>0</v>
@@ -25152,7 +25152,7 @@
     </row>
     <row r="247" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>275</v>
+        <v>225</v>
       </c>
       <c r="B247">
         <v>0</v>
@@ -25247,7 +25247,7 @@
     </row>
     <row r="248" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>276</v>
+        <v>226</v>
       </c>
       <c r="B248">
         <v>0</v>
@@ -25342,7 +25342,7 @@
     </row>
     <row r="249" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>277</v>
+        <v>227</v>
       </c>
       <c r="B249">
         <v>0</v>
@@ -25437,7 +25437,7 @@
     </row>
     <row r="250" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>278</v>
+        <v>228</v>
       </c>
       <c r="B250">
         <v>0</v>
@@ -25532,7 +25532,7 @@
     </row>
     <row r="251" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>279</v>
+        <v>229</v>
       </c>
       <c r="B251">
         <v>0</v>
@@ -25627,7 +25627,7 @@
     </row>
     <row r="252" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>280</v>
+        <v>230</v>
       </c>
       <c r="B252">
         <v>0</v>
@@ -25722,7 +25722,7 @@
     </row>
     <row r="253" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>281</v>
+        <v>231</v>
       </c>
       <c r="B253">
         <v>0</v>
@@ -25817,7 +25817,7 @@
     </row>
     <row r="254" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="B254">
         <v>0</v>
@@ -25912,7 +25912,7 @@
     </row>
     <row r="255" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>283</v>
+        <v>233</v>
       </c>
       <c r="B255">
         <v>0</v>
@@ -26007,7 +26007,7 @@
     </row>
     <row r="256" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>284</v>
+        <v>234</v>
       </c>
       <c r="B256">
         <v>0</v>
@@ -26102,7 +26102,7 @@
     </row>
     <row r="257" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>285</v>
+        <v>235</v>
       </c>
       <c r="B257">
         <v>0</v>
@@ -26197,7 +26197,7 @@
     </row>
     <row r="258" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>286</v>
+        <v>236</v>
       </c>
       <c r="B258">
         <v>0</v>
@@ -26292,7 +26292,7 @@
     </row>
     <row r="259" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
-        <v>287</v>
+        <v>237</v>
       </c>
       <c r="B259">
         <v>1</v>
@@ -26387,7 +26387,7 @@
     </row>
     <row r="260" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>288</v>
+        <v>238</v>
       </c>
       <c r="B260">
         <v>0</v>
@@ -26482,7 +26482,7 @@
     </row>
     <row r="261" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
-        <v>289</v>
+        <v>239</v>
       </c>
       <c r="B261">
         <v>0</v>
@@ -26577,7 +26577,7 @@
     </row>
     <row r="262" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
-        <v>290</v>
+        <v>240</v>
       </c>
       <c r="B262">
         <v>0</v>
@@ -26672,7 +26672,7 @@
     </row>
     <row r="263" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
-        <v>291</v>
+        <v>241</v>
       </c>
       <c r="B263">
         <v>0</v>
@@ -26767,7 +26767,7 @@
     </row>
     <row r="264" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
-        <v>292</v>
+        <v>242</v>
       </c>
       <c r="B264">
         <v>0</v>
@@ -26862,7 +26862,7 @@
     </row>
     <row r="265" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>293</v>
+        <v>243</v>
       </c>
       <c r="B265">
         <v>0</v>
@@ -26957,7 +26957,7 @@
     </row>
     <row r="266" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
-        <v>294</v>
+        <v>244</v>
       </c>
       <c r="B266">
         <v>0</v>
@@ -27052,7 +27052,7 @@
     </row>
     <row r="267" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
-        <v>295</v>
+        <v>245</v>
       </c>
       <c r="B267">
         <v>0</v>
@@ -27147,7 +27147,7 @@
     </row>
     <row r="268" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
-        <v>296</v>
+        <v>246</v>
       </c>
       <c r="B268">
         <v>0</v>
@@ -27242,7 +27242,7 @@
     </row>
     <row r="269" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
-        <v>297</v>
+        <v>247</v>
       </c>
       <c r="B269">
         <v>0</v>
@@ -27337,7 +27337,7 @@
     </row>
     <row r="270" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
-        <v>298</v>
+        <v>248</v>
       </c>
       <c r="B270">
         <v>0</v>
@@ -27432,7 +27432,7 @@
     </row>
     <row r="271" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
-        <v>299</v>
+        <v>249</v>
       </c>
       <c r="B271">
         <v>0</v>
@@ -27527,7 +27527,7 @@
     </row>
     <row r="272" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="B272">
         <v>0</v>
@@ -27622,7 +27622,7 @@
     </row>
     <row r="273" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="B273">
         <v>0</v>
@@ -27717,7 +27717,7 @@
     </row>
     <row r="274" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>302</v>
+        <v>252</v>
       </c>
       <c r="B274">
         <v>0</v>
@@ -27812,7 +27812,7 @@
     </row>
     <row r="275" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
-        <v>303</v>
+        <v>253</v>
       </c>
       <c r="B275">
         <v>0</v>
@@ -27907,7 +27907,7 @@
     </row>
     <row r="276" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
-        <v>304</v>
+        <v>254</v>
       </c>
       <c r="B276">
         <v>0</v>
@@ -28002,7 +28002,7 @@
     </row>
     <row r="277" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
-        <v>305</v>
+        <v>255</v>
       </c>
       <c r="B277">
         <v>0</v>
@@ -28097,7 +28097,7 @@
     </row>
     <row r="278" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
-        <v>306</v>
+        <v>256</v>
       </c>
       <c r="B278">
         <v>0</v>
@@ -28192,7 +28192,7 @@
     </row>
     <row r="279" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
-        <v>307</v>
+        <v>257</v>
       </c>
       <c r="B279">
         <v>0</v>
@@ -28287,7 +28287,7 @@
     </row>
     <row r="280" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
-        <v>308</v>
+        <v>258</v>
       </c>
       <c r="B280">
         <v>0</v>
@@ -28382,7 +28382,7 @@
     </row>
     <row r="281" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
-        <v>309</v>
+        <v>259</v>
       </c>
       <c r="B281">
         <v>0</v>
@@ -28477,7 +28477,7 @@
     </row>
     <row r="282" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
-        <v>310</v>
+        <v>260</v>
       </c>
       <c r="B282">
         <v>0</v>
@@ -28572,7 +28572,7 @@
     </row>
     <row r="283" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
-        <v>311</v>
+        <v>261</v>
       </c>
       <c r="B283">
         <v>0</v>
@@ -28667,7 +28667,7 @@
     </row>
     <row r="284" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
-        <v>312</v>
+        <v>262</v>
       </c>
       <c r="B284">
         <v>0</v>
@@ -28762,7 +28762,7 @@
     </row>
     <row r="285" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
-        <v>313</v>
+        <v>263</v>
       </c>
       <c r="B285">
         <v>0</v>
@@ -28857,7 +28857,7 @@
     </row>
     <row r="286" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
-        <v>314</v>
+        <v>264</v>
       </c>
       <c r="B286">
         <v>0</v>
@@ -28952,7 +28952,7 @@
     </row>
     <row r="287" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
-        <v>315</v>
+        <v>265</v>
       </c>
       <c r="B287">
         <v>0</v>
@@ -29047,7 +29047,7 @@
     </row>
     <row r="288" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
-        <v>316</v>
+        <v>266</v>
       </c>
       <c r="B288">
         <v>0</v>
@@ -29142,7 +29142,7 @@
     </row>
     <row r="289" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
-        <v>317</v>
+        <v>267</v>
       </c>
       <c r="B289">
         <v>0</v>
@@ -29237,7 +29237,7 @@
     </row>
     <row r="290" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
-        <v>318</v>
+        <v>268</v>
       </c>
       <c r="B290">
         <v>0</v>
@@ -29332,7 +29332,7 @@
     </row>
     <row r="291" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
-        <v>319</v>
+        <v>269</v>
       </c>
       <c r="B291">
         <v>0</v>
@@ -29427,7 +29427,7 @@
     </row>
     <row r="292" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
-        <v>320</v>
+        <v>270</v>
       </c>
       <c r="B292">
         <v>0</v>
@@ -29522,7 +29522,7 @@
     </row>
     <row r="293" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
-        <v>321</v>
+        <v>271</v>
       </c>
       <c r="B293">
         <v>6</v>
@@ -29617,7 +29617,7 @@
     </row>
     <row r="294" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
-        <v>322</v>
+        <v>272</v>
       </c>
       <c r="B294">
         <v>0</v>
@@ -29712,7 +29712,7 @@
     </row>
     <row r="295" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
-        <v>323</v>
+        <v>273</v>
       </c>
       <c r="B295">
         <v>0</v>
@@ -29807,7 +29807,7 @@
     </row>
     <row r="296" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
-        <v>324</v>
+        <v>274</v>
       </c>
       <c r="B296">
         <v>0</v>
@@ -29902,7 +29902,7 @@
     </row>
     <row r="297" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
-        <v>325</v>
+        <v>275</v>
       </c>
       <c r="B297">
         <v>0</v>
@@ -29997,7 +29997,7 @@
     </row>
     <row r="298" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
-        <v>326</v>
+        <v>276</v>
       </c>
       <c r="B298">
         <v>0</v>
@@ -30092,7 +30092,7 @@
     </row>
     <row r="299" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
-        <v>327</v>
+        <v>277</v>
       </c>
       <c r="B299">
         <v>0</v>
@@ -30187,7 +30187,7 @@
     </row>
     <row r="300" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
-        <v>328</v>
+        <v>278</v>
       </c>
       <c r="B300">
         <v>0</v>
@@ -30282,7 +30282,7 @@
     </row>
     <row r="301" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
-        <v>329</v>
+        <v>279</v>
       </c>
       <c r="B301">
         <v>0</v>
@@ -30377,7 +30377,7 @@
     </row>
     <row r="302" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
-        <v>330</v>
+        <v>280</v>
       </c>
       <c r="B302">
         <v>0</v>
@@ -30472,7 +30472,7 @@
     </row>
     <row r="303" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
-        <v>331</v>
+        <v>281</v>
       </c>
       <c r="B303">
         <v>1</v>
@@ -30567,7 +30567,7 @@
     </row>
     <row r="304" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
-        <v>332</v>
+        <v>282</v>
       </c>
       <c r="B304">
         <v>0</v>
@@ -30662,7 +30662,7 @@
     </row>
     <row r="305" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="B305">
         <v>0</v>
@@ -30757,7 +30757,7 @@
     </row>
     <row r="306" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
-        <v>334</v>
+        <v>284</v>
       </c>
       <c r="B306">
         <v>0</v>
@@ -30852,7 +30852,7 @@
     </row>
     <row r="307" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
-        <v>335</v>
+        <v>285</v>
       </c>
       <c r="B307">
         <v>0</v>
@@ -30947,7 +30947,7 @@
     </row>
     <row r="308" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
-        <v>336</v>
+        <v>286</v>
       </c>
       <c r="B308">
         <v>0</v>
@@ -31042,7 +31042,7 @@
     </row>
     <row r="309" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
-        <v>337</v>
+        <v>287</v>
       </c>
       <c r="B309">
         <v>0</v>
@@ -31137,7 +31137,7 @@
     </row>
     <row r="310" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
-        <v>338</v>
+        <v>288</v>
       </c>
       <c r="B310">
         <v>0</v>
@@ -31232,7 +31232,7 @@
     </row>
     <row r="311" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
-        <v>339</v>
+        <v>289</v>
       </c>
       <c r="B311">
         <v>0</v>
@@ -31327,7 +31327,7 @@
     </row>
     <row r="312" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
-        <v>340</v>
+        <v>290</v>
       </c>
       <c r="B312">
         <v>0</v>
@@ -31422,7 +31422,7 @@
     </row>
     <row r="313" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
-        <v>341</v>
+        <v>291</v>
       </c>
       <c r="B313">
         <v>0</v>
@@ -31517,7 +31517,7 @@
     </row>
     <row r="314" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
-        <v>342</v>
+        <v>292</v>
       </c>
       <c r="B314">
         <v>0</v>
@@ -31612,7 +31612,7 @@
     </row>
     <row r="315" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
-        <v>343</v>
+        <v>293</v>
       </c>
       <c r="B315">
         <v>0</v>
@@ -31707,7 +31707,7 @@
     </row>
     <row r="316" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
-        <v>344</v>
+        <v>294</v>
       </c>
       <c r="B316">
         <v>0</v>
@@ -31802,7 +31802,7 @@
     </row>
     <row r="317" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
-        <v>345</v>
+        <v>295</v>
       </c>
       <c r="B317">
         <v>0</v>
@@ -31897,7 +31897,7 @@
     </row>
     <row r="318" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
-        <v>346</v>
+        <v>296</v>
       </c>
       <c r="B318">
         <v>0</v>
@@ -31992,7 +31992,7 @@
     </row>
     <row r="319" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
-        <v>347</v>
+        <v>297</v>
       </c>
       <c r="B319">
         <v>0</v>
@@ -32087,7 +32087,7 @@
     </row>
     <row r="320" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
-        <v>348</v>
+        <v>298</v>
       </c>
       <c r="B320">
         <v>0</v>
@@ -32182,7 +32182,7 @@
     </row>
     <row r="321" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
-        <v>349</v>
+        <v>299</v>
       </c>
       <c r="B321">
         <v>0</v>
@@ -32277,7 +32277,7 @@
     </row>
     <row r="322" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="B322">
         <v>0</v>
@@ -32372,7 +32372,7 @@
     </row>
     <row r="323" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="B323">
         <v>0</v>
@@ -32467,7 +32467,7 @@
     </row>
     <row r="324" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
-        <v>352</v>
+        <v>302</v>
       </c>
       <c r="B324">
         <v>0</v>
@@ -32562,7 +32562,7 @@
     </row>
     <row r="325" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
-        <v>353</v>
+        <v>303</v>
       </c>
       <c r="B325">
         <v>0</v>
@@ -32657,7 +32657,7 @@
     </row>
     <row r="326" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
-        <v>354</v>
+        <v>304</v>
       </c>
       <c r="B326">
         <v>0</v>
@@ -32752,7 +32752,7 @@
     </row>
     <row r="327" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
-        <v>355</v>
+        <v>305</v>
       </c>
       <c r="B327">
         <v>0</v>
@@ -32847,7 +32847,7 @@
     </row>
     <row r="328" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
-        <v>356</v>
+        <v>306</v>
       </c>
       <c r="B328">
         <v>0</v>
@@ -32942,7 +32942,7 @@
     </row>
     <row r="329" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
-        <v>357</v>
+        <v>307</v>
       </c>
       <c r="B329">
         <v>0</v>
@@ -33037,7 +33037,7 @@
     </row>
     <row r="330" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
-        <v>358</v>
+        <v>308</v>
       </c>
       <c r="B330">
         <v>0</v>
@@ -33132,7 +33132,7 @@
     </row>
     <row r="331" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
-        <v>359</v>
+        <v>309</v>
       </c>
       <c r="B331">
         <v>0</v>
@@ -33227,7 +33227,7 @@
     </row>
     <row r="332" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
-        <v>360</v>
+        <v>310</v>
       </c>
       <c r="B332">
         <v>0</v>
@@ -33322,7 +33322,7 @@
     </row>
     <row r="333" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
-        <v>361</v>
+        <v>311</v>
       </c>
       <c r="B333">
         <v>0</v>
@@ -33417,7 +33417,7 @@
     </row>
     <row r="334" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
-        <v>362</v>
+        <v>312</v>
       </c>
       <c r="B334">
         <v>5</v>
@@ -33512,7 +33512,7 @@
     </row>
     <row r="335" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
-        <v>363</v>
+        <v>313</v>
       </c>
       <c r="B335">
         <v>0</v>
@@ -33607,7 +33607,7 @@
     </row>
     <row r="336" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
-        <v>364</v>
+        <v>314</v>
       </c>
       <c r="B336">
         <v>1</v>
@@ -33702,7 +33702,7 @@
     </row>
     <row r="337" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
-        <v>365</v>
+        <v>315</v>
       </c>
       <c r="B337">
         <v>0</v>
@@ -33797,7 +33797,7 @@
     </row>
     <row r="338" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
-        <v>366</v>
+        <v>316</v>
       </c>
       <c r="B338">
         <v>0</v>
@@ -33892,7 +33892,7 @@
     </row>
     <row r="339" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
-        <v>367</v>
+        <v>317</v>
       </c>
       <c r="B339">
         <v>0</v>
@@ -33987,7 +33987,7 @@
     </row>
     <row r="340" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
-        <v>368</v>
+        <v>318</v>
       </c>
       <c r="B340">
         <v>0</v>
@@ -34082,7 +34082,7 @@
     </row>
     <row r="341" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
-        <v>369</v>
+        <v>319</v>
       </c>
       <c r="B341">
         <v>0</v>
@@ -34177,7 +34177,7 @@
     </row>
     <row r="342" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
-        <v>370</v>
+        <v>320</v>
       </c>
       <c r="B342">
         <v>0</v>
@@ -34272,7 +34272,7 @@
     </row>
     <row r="343" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
-        <v>371</v>
+        <v>321</v>
       </c>
       <c r="B343">
         <v>0</v>
@@ -34367,7 +34367,7 @@
     </row>
     <row r="344" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
-        <v>372</v>
+        <v>322</v>
       </c>
       <c r="B344">
         <v>0</v>
@@ -34462,7 +34462,7 @@
     </row>
     <row r="345" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
-        <v>373</v>
+        <v>323</v>
       </c>
       <c r="B345">
         <v>0</v>
@@ -34557,7 +34557,7 @@
     </row>
     <row r="346" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
-        <v>374</v>
+        <v>324</v>
       </c>
       <c r="B346">
         <v>0</v>
@@ -34652,7 +34652,7 @@
     </row>
     <row r="347" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
-        <v>375</v>
+        <v>325</v>
       </c>
       <c r="B347">
         <v>0</v>
@@ -34747,7 +34747,7 @@
     </row>
     <row r="348" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
-        <v>376</v>
+        <v>326</v>
       </c>
       <c r="B348">
         <v>0</v>
@@ -34842,7 +34842,7 @@
     </row>
     <row r="349" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
-        <v>377</v>
+        <v>327</v>
       </c>
       <c r="B349">
         <v>0</v>
@@ -34937,7 +34937,7 @@
     </row>
     <row r="350" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
-        <v>378</v>
+        <v>328</v>
       </c>
       <c r="B350">
         <v>0</v>
@@ -35032,7 +35032,7 @@
     </row>
     <row r="351" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
-        <v>379</v>
+        <v>329</v>
       </c>
       <c r="B351">
         <v>0</v>
@@ -35127,7 +35127,7 @@
     </row>
     <row r="352" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
-        <v>380</v>
+        <v>330</v>
       </c>
       <c r="B352">
         <v>0</v>
@@ -35222,7 +35222,7 @@
     </row>
     <row r="353" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
       <c r="B353">
         <v>0</v>
@@ -35317,7 +35317,7 @@
     </row>
     <row r="354" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
-        <v>382</v>
+        <v>332</v>
       </c>
       <c r="B354">
         <v>0</v>
@@ -35412,7 +35412,7 @@
     </row>
     <row r="355" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
-        <v>383</v>
+        <v>333</v>
       </c>
       <c r="B355">
         <v>0</v>
@@ -35507,7 +35507,7 @@
     </row>
     <row r="356" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
-        <v>384</v>
+        <v>334</v>
       </c>
       <c r="B356">
         <v>0</v>
@@ -35602,7 +35602,7 @@
     </row>
     <row r="357" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
-        <v>385</v>
+        <v>335</v>
       </c>
       <c r="B357">
         <v>0</v>
@@ -35697,7 +35697,7 @@
     </row>
     <row r="358" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
-        <v>386</v>
+        <v>336</v>
       </c>
       <c r="B358">
         <v>32</v>
@@ -35792,7 +35792,7 @@
     </row>
     <row r="359" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
-        <v>387</v>
+        <v>337</v>
       </c>
       <c r="B359">
         <v>14</v>
@@ -35887,7 +35887,7 @@
     </row>
     <row r="360" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
-        <v>388</v>
+        <v>338</v>
       </c>
       <c r="B360">
         <v>0</v>
@@ -35982,7 +35982,7 @@
     </row>
     <row r="361" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
-        <v>389</v>
+        <v>339</v>
       </c>
       <c r="B361">
         <v>0</v>
@@ -36077,7 +36077,7 @@
     </row>
     <row r="362" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
-        <v>390</v>
+        <v>340</v>
       </c>
       <c r="B362">
         <v>0</v>
@@ -36172,7 +36172,7 @@
     </row>
     <row r="363" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
-        <v>391</v>
+        <v>341</v>
       </c>
       <c r="B363">
         <v>0</v>
@@ -36267,7 +36267,7 @@
     </row>
     <row r="364" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
-        <v>392</v>
+        <v>342</v>
       </c>
       <c r="B364">
         <v>0</v>
@@ -36362,7 +36362,7 @@
     </row>
     <row r="365" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
-        <v>393</v>
+        <v>343</v>
       </c>
       <c r="B365">
         <v>0</v>
@@ -36457,7 +36457,7 @@
     </row>
     <row r="366" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
-        <v>394</v>
+        <v>344</v>
       </c>
       <c r="B366">
         <v>0</v>
@@ -36552,7 +36552,7 @@
     </row>
     <row r="367" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
-        <v>395</v>
+        <v>345</v>
       </c>
       <c r="B367">
         <v>0</v>
@@ -36647,7 +36647,7 @@
     </row>
     <row r="368" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
-        <v>396</v>
+        <v>346</v>
       </c>
       <c r="B368">
         <v>0</v>
@@ -36742,7 +36742,7 @@
     </row>
     <row r="369" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
-        <v>397</v>
+        <v>347</v>
       </c>
       <c r="B369">
         <v>0</v>
@@ -36837,7 +36837,7 @@
     </row>
     <row r="370" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
-        <v>398</v>
+        <v>348</v>
       </c>
       <c r="B370">
         <v>0</v>
@@ -36932,7 +36932,7 @@
     </row>
     <row r="371" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
-        <v>399</v>
+        <v>349</v>
       </c>
       <c r="B371">
         <v>0</v>
@@ -37027,7 +37027,7 @@
     </row>
     <row r="372" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="B372">
         <v>0</v>
@@ -37122,7 +37122,7 @@
     </row>
     <row r="373" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="B373">
         <v>5</v>
@@ -37217,7 +37217,7 @@
     </row>
     <row r="374" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
-        <v>402</v>
+        <v>352</v>
       </c>
       <c r="B374">
         <v>7</v>
@@ -37312,7 +37312,7 @@
     </row>
     <row r="375" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
-        <v>403</v>
+        <v>353</v>
       </c>
       <c r="B375">
         <v>0</v>
@@ -37407,7 +37407,7 @@
     </row>
     <row r="376" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
-        <v>404</v>
+        <v>354</v>
       </c>
       <c r="B376">
         <v>0</v>
@@ -37502,7 +37502,7 @@
     </row>
     <row r="377" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
-        <v>405</v>
+        <v>355</v>
       </c>
       <c r="B377">
         <v>0</v>
@@ -37597,7 +37597,7 @@
     </row>
     <row r="378" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
-        <v>406</v>
+        <v>356</v>
       </c>
       <c r="B378">
         <v>0</v>
@@ -37692,7 +37692,7 @@
     </row>
     <row r="379" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
-        <v>407</v>
+        <v>357</v>
       </c>
       <c r="B379">
         <v>0</v>
@@ -37787,7 +37787,7 @@
     </row>
     <row r="380" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
-        <v>408</v>
+        <v>358</v>
       </c>
       <c r="B380">
         <v>0</v>
@@ -37882,7 +37882,7 @@
     </row>
     <row r="381" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
-        <v>409</v>
+        <v>359</v>
       </c>
       <c r="B381">
         <v>0</v>
@@ -37977,7 +37977,7 @@
     </row>
     <row r="382" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
-        <v>410</v>
+        <v>360</v>
       </c>
       <c r="B382">
         <v>0</v>
@@ -38072,7 +38072,7 @@
     </row>
     <row r="383" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
-        <v>411</v>
+        <v>361</v>
       </c>
       <c r="B383">
         <v>8</v>
@@ -38167,7 +38167,7 @@
     </row>
     <row r="384" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
-        <v>412</v>
+        <v>362</v>
       </c>
       <c r="B384">
         <v>0</v>
@@ -38262,7 +38262,7 @@
     </row>
     <row r="385" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
-        <v>413</v>
+        <v>363</v>
       </c>
       <c r="B385">
         <v>1</v>
@@ -38357,7 +38357,7 @@
     </row>
     <row r="386" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
-        <v>414</v>
+        <v>364</v>
       </c>
       <c r="B386">
         <v>0</v>
@@ -38452,7 +38452,7 @@
     </row>
     <row r="387" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
-        <v>415</v>
+        <v>365</v>
       </c>
       <c r="B387">
         <v>12</v>
@@ -38547,7 +38547,7 @@
     </row>
     <row r="388" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
-        <v>416</v>
+        <v>366</v>
       </c>
       <c r="B388">
         <v>0</v>
@@ -38642,7 +38642,7 @@
     </row>
     <row r="389" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
-        <v>417</v>
+        <v>367</v>
       </c>
       <c r="B389">
         <v>10</v>
@@ -38737,7 +38737,7 @@
     </row>
     <row r="390" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
-        <v>418</v>
+        <v>368</v>
       </c>
       <c r="B390">
         <v>0</v>
@@ -38832,7 +38832,7 @@
     </row>
     <row r="391" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
-        <v>419</v>
+        <v>369</v>
       </c>
       <c r="B391">
         <v>0</v>
@@ -38927,7 +38927,7 @@
     </row>
     <row r="392" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
-        <v>420</v>
+        <v>370</v>
       </c>
       <c r="B392">
         <v>0</v>
@@ -39022,7 +39022,7 @@
     </row>
     <row r="393" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
-        <v>421</v>
+        <v>371</v>
       </c>
       <c r="B393">
         <v>0</v>
@@ -39117,7 +39117,7 @@
     </row>
     <row r="394" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
-        <v>422</v>
+        <v>372</v>
       </c>
       <c r="B394">
         <v>0</v>
@@ -39212,7 +39212,7 @@
     </row>
     <row r="395" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
-        <v>423</v>
+        <v>373</v>
       </c>
       <c r="B395">
         <v>0</v>
@@ -39307,7 +39307,7 @@
     </row>
     <row r="396" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
-        <v>424</v>
+        <v>374</v>
       </c>
       <c r="B396">
         <v>0</v>
@@ -39402,7 +39402,7 @@
     </row>
     <row r="397" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
-        <v>425</v>
+        <v>375</v>
       </c>
       <c r="B397">
         <v>0</v>
@@ -39497,7 +39497,7 @@
     </row>
     <row r="398" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
-        <v>426</v>
+        <v>376</v>
       </c>
       <c r="B398">
         <v>0</v>
@@ -39592,7 +39592,7 @@
     </row>
     <row r="399" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
-        <v>427</v>
+        <v>377</v>
       </c>
       <c r="B399">
         <v>0</v>
@@ -39687,7 +39687,7 @@
     </row>
     <row r="400" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
-        <v>428</v>
+        <v>378</v>
       </c>
       <c r="B400">
         <v>0</v>
@@ -39782,7 +39782,7 @@
     </row>
     <row r="401" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
-        <v>429</v>
+        <v>379</v>
       </c>
       <c r="B401">
         <v>0</v>
@@ -39877,7 +39877,7 @@
     </row>
     <row r="402" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
-        <v>430</v>
+        <v>380</v>
       </c>
       <c r="B402">
         <v>0</v>
@@ -39972,7 +39972,7 @@
     </row>
     <row r="403" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
-        <v>431</v>
+        <v>381</v>
       </c>
       <c r="B403">
         <v>0</v>
@@ -40067,7 +40067,7 @@
     </row>
     <row r="404" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
-        <v>432</v>
+        <v>382</v>
       </c>
       <c r="B404">
         <v>0</v>
@@ -40162,7 +40162,7 @@
     </row>
     <row r="405" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
-        <v>433</v>
+        <v>383</v>
       </c>
       <c r="B405">
         <v>0</v>
@@ -40257,7 +40257,7 @@
     </row>
     <row r="406" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
-        <v>434</v>
+        <v>384</v>
       </c>
       <c r="B406">
         <v>17</v>
@@ -40352,7 +40352,7 @@
     </row>
     <row r="407" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
-        <v>435</v>
+        <v>385</v>
       </c>
       <c r="B407">
         <v>0</v>
@@ -40447,7 +40447,7 @@
     </row>
     <row r="408" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
-        <v>436</v>
+        <v>386</v>
       </c>
       <c r="B408">
         <v>0</v>
@@ -40542,7 +40542,7 @@
     </row>
     <row r="409" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
-        <v>437</v>
+        <v>387</v>
       </c>
       <c r="B409">
         <v>4</v>
@@ -40637,7 +40637,7 @@
     </row>
     <row r="410" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
-        <v>438</v>
+        <v>388</v>
       </c>
       <c r="B410">
         <v>1</v>
@@ -40732,7 +40732,7 @@
     </row>
     <row r="411" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
-        <v>439</v>
+        <v>389</v>
       </c>
       <c r="B411">
         <v>0</v>
@@ -40827,7 +40827,7 @@
     </row>
     <row r="412" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
-        <v>440</v>
+        <v>390</v>
       </c>
       <c r="B412">
         <v>0</v>
@@ -40922,7 +40922,7 @@
     </row>
     <row r="413" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
-        <v>441</v>
+        <v>391</v>
       </c>
       <c r="B413">
         <v>0</v>
@@ -41017,7 +41017,7 @@
     </row>
     <row r="414" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
-        <v>442</v>
+        <v>392</v>
       </c>
       <c r="B414">
         <v>0</v>
@@ -41112,7 +41112,7 @@
     </row>
     <row r="415" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
-        <v>443</v>
+        <v>393</v>
       </c>
       <c r="B415">
         <v>0</v>
@@ -41207,7 +41207,7 @@
     </row>
     <row r="416" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
-        <v>444</v>
+        <v>394</v>
       </c>
       <c r="B416">
         <v>0</v>
@@ -41302,7 +41302,7 @@
     </row>
     <row r="417" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
-        <v>445</v>
+        <v>395</v>
       </c>
       <c r="B417">
         <v>0</v>
@@ -41397,7 +41397,7 @@
     </row>
     <row r="418" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
-        <v>446</v>
+        <v>396</v>
       </c>
       <c r="B418">
         <v>0</v>
@@ -41492,7 +41492,7 @@
     </row>
     <row r="419" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
-        <v>447</v>
+        <v>397</v>
       </c>
       <c r="B419">
         <v>0</v>
@@ -41587,7 +41587,7 @@
     </row>
     <row r="420" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
-        <v>448</v>
+        <v>398</v>
       </c>
       <c r="B420">
         <v>0</v>
@@ -41682,7 +41682,7 @@
     </row>
     <row r="421" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
-        <v>449</v>
+        <v>399</v>
       </c>
       <c r="B421">
         <v>0</v>
@@ -41777,7 +41777,7 @@
     </row>
     <row r="422" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="B422">
         <v>0</v>
@@ -41872,7 +41872,7 @@
     </row>
     <row r="423" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
-        <v>451</v>
+        <v>401</v>
       </c>
       <c r="B423">
         <v>0</v>
@@ -41967,7 +41967,7 @@
     </row>
     <row r="424" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
-        <v>452</v>
+        <v>402</v>
       </c>
       <c r="B424">
         <v>0</v>
@@ -42062,7 +42062,7 @@
     </row>
     <row r="425" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
-        <v>453</v>
+        <v>403</v>
       </c>
       <c r="B425">
         <v>0</v>
@@ -42157,7 +42157,7 @@
     </row>
     <row r="426" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
-        <v>454</v>
+        <v>404</v>
       </c>
       <c r="B426">
         <v>0</v>
@@ -42252,7 +42252,7 @@
     </row>
     <row r="427" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
-        <v>455</v>
+        <v>405</v>
       </c>
       <c r="B427">
         <v>0</v>
@@ -42347,7 +42347,7 @@
     </row>
     <row r="428" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
-        <v>456</v>
+        <v>406</v>
       </c>
       <c r="B428">
         <v>0</v>
@@ -42442,7 +42442,7 @@
     </row>
     <row r="429" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
-        <v>457</v>
+        <v>407</v>
       </c>
       <c r="B429">
         <v>0</v>
@@ -42537,7 +42537,7 @@
     </row>
     <row r="430" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
-        <v>458</v>
+        <v>408</v>
       </c>
       <c r="B430">
         <v>0</v>
@@ -42632,7 +42632,7 @@
     </row>
     <row r="431" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
-        <v>459</v>
+        <v>409</v>
       </c>
       <c r="B431">
         <v>0</v>
@@ -42740,23 +42740,23 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>460</v>
+        <v>410</v>
       </c>
       <c r="B1" t="s">
-        <v>461</v>
+        <v>411</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>462</v>
+        <v>412</v>
       </c>
       <c r="B2" t="s">
-        <v>463</v>
+        <v>413</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>464</v>
+        <v>414</v>
       </c>
       <c r="B3">
         <v>820</v>
@@ -42764,7 +42764,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>465</v>
+        <v>415</v>
       </c>
       <c r="B4">
         <v>4054</v>
@@ -42772,10 +42772,10 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>466</v>
+        <v>416</v>
       </c>
       <c r="B5" t="s">
-        <v>467</v>
+        <v>417</v>
       </c>
     </row>
   </sheetData>
